--- a/RelatedFiles/Sample Data.xlsx
+++ b/RelatedFiles/Sample Data.xlsx
@@ -1,19 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aruts\OneDrive\UO\Hack4ACause\trans-ponder-by-salmon\RelatedFiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="35" documentId="11_703F85EA8188483F21741AB65FEBAF38355611BA" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{A2821580-0610-4AF1-84DF-E4D0D45818E4}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Service Provider Roster" sheetId="1" r:id="rId3"/>
+    <sheet name="Service Provider Roster" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Service Provider Roster'!$A$1:$O$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Service Provider Roster'!$A$1:$O$47</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="232">
   <si>
     <t>Care Provider Category</t>
   </si>
@@ -726,20 +736,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -747,70 +764,375 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.71"/>
-    <col customWidth="1" min="2" max="2" width="19.29"/>
-    <col customWidth="1" min="3" max="3" width="18.14"/>
-    <col customWidth="1" min="4" max="4" width="26.86"/>
-    <col customWidth="1" min="6" max="6" width="15.43"/>
-    <col customWidth="1" min="7" max="7" width="18.29"/>
-    <col customWidth="1" min="8" max="8" width="11.14"/>
-    <col customWidth="1" min="9" max="9" width="11.0"/>
-    <col customWidth="1" min="10" max="10" width="9.57"/>
-    <col customWidth="1" min="11" max="12" width="13.71"/>
-    <col customWidth="1" min="13" max="13" width="10.86"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" customWidth="1"/>
+    <col min="11" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:31" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -873,7 +1195,7 @@
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:31" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -934,7 +1256,7 @@
       <c r="AD2" s="5"/>
       <c r="AE2" s="5"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:31" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -995,7 +1317,7 @@
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>34</v>
       </c>
@@ -1056,7 +1378,7 @@
       <c r="AD4" s="5"/>
       <c r="AE4" s="5"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>39</v>
       </c>
@@ -1117,7 +1439,7 @@
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>46</v>
       </c>
@@ -1178,7 +1500,7 @@
       <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>51</v>
       </c>
@@ -1239,7 +1561,7 @@
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>51</v>
       </c>
@@ -1300,7 +1622,7 @@
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>62</v>
       </c>
@@ -1361,7 +1683,7 @@
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>62</v>
       </c>
@@ -1424,7 +1746,7 @@
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>62</v>
       </c>
@@ -1485,7 +1807,7 @@
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>62</v>
       </c>
@@ -1546,7 +1868,7 @@
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>62</v>
       </c>
@@ -1609,7 +1931,7 @@
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>62</v>
       </c>
@@ -1672,7 +1994,7 @@
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>62</v>
       </c>
@@ -1733,7 +2055,7 @@
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>62</v>
       </c>
@@ -1794,7 +2116,7 @@
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>93</v>
       </c>
@@ -1857,7 +2179,7 @@
       <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>93</v>
       </c>
@@ -1918,7 +2240,7 @@
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>93</v>
       </c>
@@ -1979,7 +2301,7 @@
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>93</v>
       </c>
@@ -2042,7 +2364,7 @@
       <c r="AD20" s="5"/>
       <c r="AE20" s="5"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>93</v>
       </c>
@@ -2105,7 +2427,7 @@
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>93</v>
       </c>
@@ -2168,7 +2490,7 @@
       <c r="AD22" s="5"/>
       <c r="AE22" s="5"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:31" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>93</v>
       </c>
@@ -2229,7 +2551,7 @@
       <c r="AD23" s="5"/>
       <c r="AE23" s="5"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:31" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>123</v>
       </c>
@@ -2239,11 +2561,15 @@
       <c r="C24" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="E24" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F24" s="5"/>
+      <c r="F24" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="G24" s="4" t="s">
         <v>127</v>
       </c>
@@ -2288,7 +2614,7 @@
       <c r="AD24" s="5"/>
       <c r="AE24" s="5"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>123</v>
       </c>
@@ -2351,7 +2677,7 @@
       <c r="AD25" s="5"/>
       <c r="AE25" s="5"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>123</v>
       </c>
@@ -2414,7 +2740,7 @@
       <c r="AD26" s="5"/>
       <c r="AE26" s="5"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>123</v>
       </c>
@@ -2477,7 +2803,7 @@
       <c r="AD27" s="5"/>
       <c r="AE27" s="5"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>123</v>
       </c>
@@ -2540,7 +2866,7 @@
       <c r="AD28" s="5"/>
       <c r="AE28" s="5"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>152</v>
       </c>
@@ -2601,7 +2927,7 @@
       <c r="AD29" s="5"/>
       <c r="AE29" s="5"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>152</v>
       </c>
@@ -2662,7 +2988,7 @@
       <c r="AD30" s="5"/>
       <c r="AE30" s="5"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>152</v>
       </c>
@@ -2723,7 +3049,7 @@
       <c r="AD31" s="5"/>
       <c r="AE31" s="5"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>152</v>
       </c>
@@ -2784,7 +3110,7 @@
       <c r="AD32" s="5"/>
       <c r="AE32" s="5"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:31" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>163</v>
       </c>
@@ -2847,7 +3173,7 @@
       <c r="AD33" s="5"/>
       <c r="AE33" s="5"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:31" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>163</v>
       </c>
@@ -2866,7 +3192,9 @@
       <c r="F34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G34" s="5"/>
+      <c r="G34" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="H34" s="3" t="s">
         <v>45</v>
       </c>
@@ -2906,7 +3234,7 @@
       <c r="AD34" s="5"/>
       <c r="AE34" s="5"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:31" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>163</v>
       </c>
@@ -2969,7 +3297,7 @@
       <c r="AD35" s="5"/>
       <c r="AE35" s="5"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:31" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>163</v>
       </c>
@@ -3032,7 +3360,7 @@
       <c r="AD36" s="5"/>
       <c r="AE36" s="5"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:31" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>163</v>
       </c>
@@ -3093,7 +3421,7 @@
       <c r="AD37" s="5"/>
       <c r="AE37" s="5"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:31" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>163</v>
       </c>
@@ -3154,7 +3482,7 @@
       <c r="AD38" s="5"/>
       <c r="AE38" s="5"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:31" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>163</v>
       </c>
@@ -3215,7 +3543,7 @@
       <c r="AD39" s="5"/>
       <c r="AE39" s="5"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:31" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>196</v>
       </c>
@@ -3276,7 +3604,7 @@
       <c r="AD40" s="5"/>
       <c r="AE40" s="5"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>204</v>
       </c>
@@ -3339,7 +3667,7 @@
       <c r="AD41" s="5"/>
       <c r="AE41" s="5"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:31" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>204</v>
       </c>
@@ -3399,7 +3727,7 @@
       <c r="AD42" s="5"/>
       <c r="AE42" s="5"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:31" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>204</v>
       </c>
@@ -3460,7 +3788,7 @@
       <c r="AD43" s="5"/>
       <c r="AE43" s="5"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:31" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>204</v>
       </c>
@@ -3523,32 +3851,52 @@
       <c r="AD44" s="5"/>
       <c r="AE44" s="5"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:31" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>222</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C45" s="5"/>
+      <c r="C45" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="D45" s="3" t="s">
         <v>224</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="F45" s="5"/>
+      <c r="F45" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="G45" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
+      <c r="H45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
@@ -3566,7 +3914,7 @@
       <c r="AD45" s="5"/>
       <c r="AE45" s="5"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:31" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>227</v>
       </c>
@@ -3582,18 +3930,36 @@
       <c r="E46" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="F46" s="5"/>
+      <c r="F46" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="G46" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
+      <c r="H46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O46" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
@@ -3611,7 +3977,7 @@
       <c r="AD46" s="5"/>
       <c r="AE46" s="5"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -3644,7 +4010,7 @@
       <c r="AD47" s="5"/>
       <c r="AE47" s="5"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -3677,7 +4043,7 @@
       <c r="AD48" s="5"/>
       <c r="AE48" s="5"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -3710,7 +4076,7 @@
       <c r="AD49" s="5"/>
       <c r="AE49" s="5"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -3743,7 +4109,7 @@
       <c r="AD50" s="5"/>
       <c r="AE50" s="5"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -3776,7 +4142,7 @@
       <c r="AD51" s="5"/>
       <c r="AE51" s="5"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -3809,7 +4175,7 @@
       <c r="AD52" s="5"/>
       <c r="AE52" s="5"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -3842,7 +4208,7 @@
       <c r="AD53" s="5"/>
       <c r="AE53" s="5"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -3875,7 +4241,7 @@
       <c r="AD54" s="5"/>
       <c r="AE54" s="5"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -3908,7 +4274,7 @@
       <c r="AD55" s="5"/>
       <c r="AE55" s="5"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -3941,7 +4307,7 @@
       <c r="AD56" s="5"/>
       <c r="AE56" s="5"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -3974,7 +4340,7 @@
       <c r="AD57" s="5"/>
       <c r="AE57" s="5"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -4007,7 +4373,7 @@
       <c r="AD58" s="5"/>
       <c r="AE58" s="5"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -4040,7 +4406,7 @@
       <c r="AD59" s="5"/>
       <c r="AE59" s="5"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -4073,7 +4439,7 @@
       <c r="AD60" s="5"/>
       <c r="AE60" s="5"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -4106,7 +4472,7 @@
       <c r="AD61" s="5"/>
       <c r="AE61" s="5"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -4139,7 +4505,7 @@
       <c r="AD62" s="5"/>
       <c r="AE62" s="5"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -4172,7 +4538,7 @@
       <c r="AD63" s="5"/>
       <c r="AE63" s="5"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -4205,7 +4571,7 @@
       <c r="AD64" s="5"/>
       <c r="AE64" s="5"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -4238,7 +4604,7 @@
       <c r="AD65" s="5"/>
       <c r="AE65" s="5"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -4271,7 +4637,7 @@
       <c r="AD66" s="5"/>
       <c r="AE66" s="5"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -4304,7 +4670,7 @@
       <c r="AD67" s="5"/>
       <c r="AE67" s="5"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -4337,7 +4703,7 @@
       <c r="AD68" s="5"/>
       <c r="AE68" s="5"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -4370,7 +4736,7 @@
       <c r="AD69" s="5"/>
       <c r="AE69" s="5"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -4403,7 +4769,7 @@
       <c r="AD70" s="5"/>
       <c r="AE70" s="5"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -4436,7 +4802,7 @@
       <c r="AD71" s="5"/>
       <c r="AE71" s="5"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -4469,7 +4835,7 @@
       <c r="AD72" s="5"/>
       <c r="AE72" s="5"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -4502,7 +4868,7 @@
       <c r="AD73" s="5"/>
       <c r="AE73" s="5"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -4535,7 +4901,7 @@
       <c r="AD74" s="5"/>
       <c r="AE74" s="5"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -4568,7 +4934,7 @@
       <c r="AD75" s="5"/>
       <c r="AE75" s="5"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -4601,7 +4967,7 @@
       <c r="AD76" s="5"/>
       <c r="AE76" s="5"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -4634,7 +5000,7 @@
       <c r="AD77" s="5"/>
       <c r="AE77" s="5"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -4667,7 +5033,7 @@
       <c r="AD78" s="5"/>
       <c r="AE78" s="5"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -4700,7 +5066,7 @@
       <c r="AD79" s="5"/>
       <c r="AE79" s="5"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -4733,7 +5099,7 @@
       <c r="AD80" s="5"/>
       <c r="AE80" s="5"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -4766,7 +5132,7 @@
       <c r="AD81" s="5"/>
       <c r="AE81" s="5"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -4799,7 +5165,7 @@
       <c r="AD82" s="5"/>
       <c r="AE82" s="5"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -4832,7 +5198,7 @@
       <c r="AD83" s="5"/>
       <c r="AE83" s="5"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -4865,7 +5231,7 @@
       <c r="AD84" s="5"/>
       <c r="AE84" s="5"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -4898,7 +5264,7 @@
       <c r="AD85" s="5"/>
       <c r="AE85" s="5"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -4931,7 +5297,7 @@
       <c r="AD86" s="5"/>
       <c r="AE86" s="5"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -4964,7 +5330,7 @@
       <c r="AD87" s="5"/>
       <c r="AE87" s="5"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -4997,7 +5363,7 @@
       <c r="AD88" s="5"/>
       <c r="AE88" s="5"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -5030,7 +5396,7 @@
       <c r="AD89" s="5"/>
       <c r="AE89" s="5"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -5063,7 +5429,7 @@
       <c r="AD90" s="5"/>
       <c r="AE90" s="5"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -5096,7 +5462,7 @@
       <c r="AD91" s="5"/>
       <c r="AE91" s="5"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -5129,7 +5495,7 @@
       <c r="AD92" s="5"/>
       <c r="AE92" s="5"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -5162,7 +5528,7 @@
       <c r="AD93" s="5"/>
       <c r="AE93" s="5"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -5195,7 +5561,7 @@
       <c r="AD94" s="5"/>
       <c r="AE94" s="5"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -5228,7 +5594,7 @@
       <c r="AD95" s="5"/>
       <c r="AE95" s="5"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -5261,7 +5627,7 @@
       <c r="AD96" s="5"/>
       <c r="AE96" s="5"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -5294,7 +5660,7 @@
       <c r="AD97" s="5"/>
       <c r="AE97" s="5"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -5327,7 +5693,7 @@
       <c r="AD98" s="5"/>
       <c r="AE98" s="5"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -5360,7 +5726,7 @@
       <c r="AD99" s="5"/>
       <c r="AE99" s="5"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -5393,7 +5759,7 @@
       <c r="AD100" s="5"/>
       <c r="AE100" s="5"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -5426,7 +5792,7 @@
       <c r="AD101" s="5"/>
       <c r="AE101" s="5"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -5459,7 +5825,7 @@
       <c r="AD102" s="5"/>
       <c r="AE102" s="5"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -5492,7 +5858,7 @@
       <c r="AD103" s="5"/>
       <c r="AE103" s="5"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -5525,7 +5891,7 @@
       <c r="AD104" s="5"/>
       <c r="AE104" s="5"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -5558,7 +5924,7 @@
       <c r="AD105" s="5"/>
       <c r="AE105" s="5"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -5591,7 +5957,7 @@
       <c r="AD106" s="5"/>
       <c r="AE106" s="5"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -5624,7 +5990,7 @@
       <c r="AD107" s="5"/>
       <c r="AE107" s="5"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -5657,7 +6023,7 @@
       <c r="AD108" s="5"/>
       <c r="AE108" s="5"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -5690,7 +6056,7 @@
       <c r="AD109" s="5"/>
       <c r="AE109" s="5"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -5723,7 +6089,7 @@
       <c r="AD110" s="5"/>
       <c r="AE110" s="5"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -5756,7 +6122,7 @@
       <c r="AD111" s="5"/>
       <c r="AE111" s="5"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -5789,7 +6155,7 @@
       <c r="AD112" s="5"/>
       <c r="AE112" s="5"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -5822,7 +6188,7 @@
       <c r="AD113" s="5"/>
       <c r="AE113" s="5"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -5855,7 +6221,7 @@
       <c r="AD114" s="5"/>
       <c r="AE114" s="5"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -5888,7 +6254,7 @@
       <c r="AD115" s="5"/>
       <c r="AE115" s="5"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -5921,7 +6287,7 @@
       <c r="AD116" s="5"/>
       <c r="AE116" s="5"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -5954,7 +6320,7 @@
       <c r="AD117" s="5"/>
       <c r="AE117" s="5"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -5987,7 +6353,7 @@
       <c r="AD118" s="5"/>
       <c r="AE118" s="5"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -6020,7 +6386,7 @@
       <c r="AD119" s="5"/>
       <c r="AE119" s="5"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -6053,7 +6419,7 @@
       <c r="AD120" s="5"/>
       <c r="AE120" s="5"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -6086,7 +6452,7 @@
       <c r="AD121" s="5"/>
       <c r="AE121" s="5"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -6119,7 +6485,7 @@
       <c r="AD122" s="5"/>
       <c r="AE122" s="5"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -6152,7 +6518,7 @@
       <c r="AD123" s="5"/>
       <c r="AE123" s="5"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -6185,7 +6551,7 @@
       <c r="AD124" s="5"/>
       <c r="AE124" s="5"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -6218,7 +6584,7 @@
       <c r="AD125" s="5"/>
       <c r="AE125" s="5"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -6251,7 +6617,7 @@
       <c r="AD126" s="5"/>
       <c r="AE126" s="5"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -6284,7 +6650,7 @@
       <c r="AD127" s="5"/>
       <c r="AE127" s="5"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -6317,7 +6683,7 @@
       <c r="AD128" s="5"/>
       <c r="AE128" s="5"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -6350,7 +6716,7 @@
       <c r="AD129" s="5"/>
       <c r="AE129" s="5"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -6383,7 +6749,7 @@
       <c r="AD130" s="5"/>
       <c r="AE130" s="5"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -6416,7 +6782,7 @@
       <c r="AD131" s="5"/>
       <c r="AE131" s="5"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -6449,7 +6815,7 @@
       <c r="AD132" s="5"/>
       <c r="AE132" s="5"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -6482,7 +6848,7 @@
       <c r="AD133" s="5"/>
       <c r="AE133" s="5"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -6515,7 +6881,7 @@
       <c r="AD134" s="5"/>
       <c r="AE134" s="5"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -6548,7 +6914,7 @@
       <c r="AD135" s="5"/>
       <c r="AE135" s="5"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -6581,7 +6947,7 @@
       <c r="AD136" s="5"/>
       <c r="AE136" s="5"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -6614,7 +6980,7 @@
       <c r="AD137" s="5"/>
       <c r="AE137" s="5"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -6647,7 +7013,7 @@
       <c r="AD138" s="5"/>
       <c r="AE138" s="5"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -6680,7 +7046,7 @@
       <c r="AD139" s="5"/>
       <c r="AE139" s="5"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -6713,7 +7079,7 @@
       <c r="AD140" s="5"/>
       <c r="AE140" s="5"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -6746,7 +7112,7 @@
       <c r="AD141" s="5"/>
       <c r="AE141" s="5"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -6779,7 +7145,7 @@
       <c r="AD142" s="5"/>
       <c r="AE142" s="5"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -6812,7 +7178,7 @@
       <c r="AD143" s="5"/>
       <c r="AE143" s="5"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -6845,7 +7211,7 @@
       <c r="AD144" s="5"/>
       <c r="AE144" s="5"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -6878,7 +7244,7 @@
       <c r="AD145" s="5"/>
       <c r="AE145" s="5"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -6911,7 +7277,7 @@
       <c r="AD146" s="5"/>
       <c r="AE146" s="5"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -6944,7 +7310,7 @@
       <c r="AD147" s="5"/>
       <c r="AE147" s="5"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -6977,7 +7343,7 @@
       <c r="AD148" s="5"/>
       <c r="AE148" s="5"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -7010,7 +7376,7 @@
       <c r="AD149" s="5"/>
       <c r="AE149" s="5"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -7043,7 +7409,7 @@
       <c r="AD150" s="5"/>
       <c r="AE150" s="5"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -7076,7 +7442,7 @@
       <c r="AD151" s="5"/>
       <c r="AE151" s="5"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -7109,7 +7475,7 @@
       <c r="AD152" s="5"/>
       <c r="AE152" s="5"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -7142,7 +7508,7 @@
       <c r="AD153" s="5"/>
       <c r="AE153" s="5"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -7175,7 +7541,7 @@
       <c r="AD154" s="5"/>
       <c r="AE154" s="5"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -7208,7 +7574,7 @@
       <c r="AD155" s="5"/>
       <c r="AE155" s="5"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -7241,7 +7607,7 @@
       <c r="AD156" s="5"/>
       <c r="AE156" s="5"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -7274,7 +7640,7 @@
       <c r="AD157" s="5"/>
       <c r="AE157" s="5"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -7307,7 +7673,7 @@
       <c r="AD158" s="5"/>
       <c r="AE158" s="5"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -7340,7 +7706,7 @@
       <c r="AD159" s="5"/>
       <c r="AE159" s="5"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -7373,7 +7739,7 @@
       <c r="AD160" s="5"/>
       <c r="AE160" s="5"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -7406,7 +7772,7 @@
       <c r="AD161" s="5"/>
       <c r="AE161" s="5"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -7439,7 +7805,7 @@
       <c r="AD162" s="5"/>
       <c r="AE162" s="5"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -7472,7 +7838,7 @@
       <c r="AD163" s="5"/>
       <c r="AE163" s="5"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -7505,7 +7871,7 @@
       <c r="AD164" s="5"/>
       <c r="AE164" s="5"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -7538,7 +7904,7 @@
       <c r="AD165" s="5"/>
       <c r="AE165" s="5"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -7571,7 +7937,7 @@
       <c r="AD166" s="5"/>
       <c r="AE166" s="5"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -7604,7 +7970,7 @@
       <c r="AD167" s="5"/>
       <c r="AE167" s="5"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -7637,7 +8003,7 @@
       <c r="AD168" s="5"/>
       <c r="AE168" s="5"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -7670,7 +8036,7 @@
       <c r="AD169" s="5"/>
       <c r="AE169" s="5"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -7703,7 +8069,7 @@
       <c r="AD170" s="5"/>
       <c r="AE170" s="5"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -7736,7 +8102,7 @@
       <c r="AD171" s="5"/>
       <c r="AE171" s="5"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -7769,7 +8135,7 @@
       <c r="AD172" s="5"/>
       <c r="AE172" s="5"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -7802,7 +8168,7 @@
       <c r="AD173" s="5"/>
       <c r="AE173" s="5"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -7835,7 +8201,7 @@
       <c r="AD174" s="5"/>
       <c r="AE174" s="5"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -7868,7 +8234,7 @@
       <c r="AD175" s="5"/>
       <c r="AE175" s="5"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -7901,7 +8267,7 @@
       <c r="AD176" s="5"/>
       <c r="AE176" s="5"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -7934,7 +8300,7 @@
       <c r="AD177" s="5"/>
       <c r="AE177" s="5"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -7967,7 +8333,7 @@
       <c r="AD178" s="5"/>
       <c r="AE178" s="5"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -8000,7 +8366,7 @@
       <c r="AD179" s="5"/>
       <c r="AE179" s="5"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -8033,7 +8399,7 @@
       <c r="AD180" s="5"/>
       <c r="AE180" s="5"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -8066,7 +8432,7 @@
       <c r="AD181" s="5"/>
       <c r="AE181" s="5"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -8099,7 +8465,7 @@
       <c r="AD182" s="5"/>
       <c r="AE182" s="5"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -8132,7 +8498,7 @@
       <c r="AD183" s="5"/>
       <c r="AE183" s="5"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -8165,7 +8531,7 @@
       <c r="AD184" s="5"/>
       <c r="AE184" s="5"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -8198,7 +8564,7 @@
       <c r="AD185" s="5"/>
       <c r="AE185" s="5"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -8231,7 +8597,7 @@
       <c r="AD186" s="5"/>
       <c r="AE186" s="5"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -8264,7 +8630,7 @@
       <c r="AD187" s="5"/>
       <c r="AE187" s="5"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -8297,7 +8663,7 @@
       <c r="AD188" s="5"/>
       <c r="AE188" s="5"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -8330,7 +8696,7 @@
       <c r="AD189" s="5"/>
       <c r="AE189" s="5"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -8363,7 +8729,7 @@
       <c r="AD190" s="5"/>
       <c r="AE190" s="5"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -8396,7 +8762,7 @@
       <c r="AD191" s="5"/>
       <c r="AE191" s="5"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -8429,7 +8795,7 @@
       <c r="AD192" s="5"/>
       <c r="AE192" s="5"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -8462,7 +8828,7 @@
       <c r="AD193" s="5"/>
       <c r="AE193" s="5"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -8495,7 +8861,7 @@
       <c r="AD194" s="5"/>
       <c r="AE194" s="5"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -8528,7 +8894,7 @@
       <c r="AD195" s="5"/>
       <c r="AE195" s="5"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -8561,7 +8927,7 @@
       <c r="AD196" s="5"/>
       <c r="AE196" s="5"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -8594,7 +8960,7 @@
       <c r="AD197" s="5"/>
       <c r="AE197" s="5"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -8627,7 +8993,7 @@
       <c r="AD198" s="5"/>
       <c r="AE198" s="5"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -8660,7 +9026,7 @@
       <c r="AD199" s="5"/>
       <c r="AE199" s="5"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -8693,7 +9059,7 @@
       <c r="AD200" s="5"/>
       <c r="AE200" s="5"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -8726,7 +9092,7 @@
       <c r="AD201" s="5"/>
       <c r="AE201" s="5"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -8759,7 +9125,7 @@
       <c r="AD202" s="5"/>
       <c r="AE202" s="5"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -8792,7 +9158,7 @@
       <c r="AD203" s="5"/>
       <c r="AE203" s="5"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -8825,7 +9191,7 @@
       <c r="AD204" s="5"/>
       <c r="AE204" s="5"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -8858,7 +9224,7 @@
       <c r="AD205" s="5"/>
       <c r="AE205" s="5"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -8891,7 +9257,7 @@
       <c r="AD206" s="5"/>
       <c r="AE206" s="5"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -8924,7 +9290,7 @@
       <c r="AD207" s="5"/>
       <c r="AE207" s="5"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -8957,7 +9323,7 @@
       <c r="AD208" s="5"/>
       <c r="AE208" s="5"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -8990,7 +9356,7 @@
       <c r="AD209" s="5"/>
       <c r="AE209" s="5"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -9023,7 +9389,7 @@
       <c r="AD210" s="5"/>
       <c r="AE210" s="5"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -9056,7 +9422,7 @@
       <c r="AD211" s="5"/>
       <c r="AE211" s="5"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -9089,7 +9455,7 @@
       <c r="AD212" s="5"/>
       <c r="AE212" s="5"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -9122,7 +9488,7 @@
       <c r="AD213" s="5"/>
       <c r="AE213" s="5"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -9155,7 +9521,7 @@
       <c r="AD214" s="5"/>
       <c r="AE214" s="5"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -9188,7 +9554,7 @@
       <c r="AD215" s="5"/>
       <c r="AE215" s="5"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -9221,7 +9587,7 @@
       <c r="AD216" s="5"/>
       <c r="AE216" s="5"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -9254,7 +9620,7 @@
       <c r="AD217" s="5"/>
       <c r="AE217" s="5"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -9287,7 +9653,7 @@
       <c r="AD218" s="5"/>
       <c r="AE218" s="5"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -9320,7 +9686,7 @@
       <c r="AD219" s="5"/>
       <c r="AE219" s="5"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -9353,7 +9719,7 @@
       <c r="AD220" s="5"/>
       <c r="AE220" s="5"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -9386,7 +9752,7 @@
       <c r="AD221" s="5"/>
       <c r="AE221" s="5"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -9419,7 +9785,7 @@
       <c r="AD222" s="5"/>
       <c r="AE222" s="5"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -9452,7 +9818,7 @@
       <c r="AD223" s="5"/>
       <c r="AE223" s="5"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -9485,7 +9851,7 @@
       <c r="AD224" s="5"/>
       <c r="AE224" s="5"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -9518,7 +9884,7 @@
       <c r="AD225" s="5"/>
       <c r="AE225" s="5"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -9551,7 +9917,7 @@
       <c r="AD226" s="5"/>
       <c r="AE226" s="5"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -9584,7 +9950,7 @@
       <c r="AD227" s="5"/>
       <c r="AE227" s="5"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -9617,7 +9983,7 @@
       <c r="AD228" s="5"/>
       <c r="AE228" s="5"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -9650,7 +10016,7 @@
       <c r="AD229" s="5"/>
       <c r="AE229" s="5"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -9683,7 +10049,7 @@
       <c r="AD230" s="5"/>
       <c r="AE230" s="5"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -9716,7 +10082,7 @@
       <c r="AD231" s="5"/>
       <c r="AE231" s="5"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -9749,7 +10115,7 @@
       <c r="AD232" s="5"/>
       <c r="AE232" s="5"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -9782,7 +10148,7 @@
       <c r="AD233" s="5"/>
       <c r="AE233" s="5"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -9815,7 +10181,7 @@
       <c r="AD234" s="5"/>
       <c r="AE234" s="5"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -9848,7 +10214,7 @@
       <c r="AD235" s="5"/>
       <c r="AE235" s="5"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -9881,7 +10247,7 @@
       <c r="AD236" s="5"/>
       <c r="AE236" s="5"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -9914,7 +10280,7 @@
       <c r="AD237" s="5"/>
       <c r="AE237" s="5"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -9947,7 +10313,7 @@
       <c r="AD238" s="5"/>
       <c r="AE238" s="5"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -9980,7 +10346,7 @@
       <c r="AD239" s="5"/>
       <c r="AE239" s="5"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -10013,7 +10379,7 @@
       <c r="AD240" s="5"/>
       <c r="AE240" s="5"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -10046,7 +10412,7 @@
       <c r="AD241" s="5"/>
       <c r="AE241" s="5"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -10079,7 +10445,7 @@
       <c r="AD242" s="5"/>
       <c r="AE242" s="5"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -10112,7 +10478,7 @@
       <c r="AD243" s="5"/>
       <c r="AE243" s="5"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -10145,7 +10511,7 @@
       <c r="AD244" s="5"/>
       <c r="AE244" s="5"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -10178,7 +10544,7 @@
       <c r="AD245" s="5"/>
       <c r="AE245" s="5"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -10211,7 +10577,7 @@
       <c r="AD246" s="5"/>
       <c r="AE246" s="5"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -10244,7 +10610,7 @@
       <c r="AD247" s="5"/>
       <c r="AE247" s="5"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
@@ -10277,7 +10643,7 @@
       <c r="AD248" s="5"/>
       <c r="AE248" s="5"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
@@ -10310,7 +10676,7 @@
       <c r="AD249" s="5"/>
       <c r="AE249" s="5"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
@@ -10343,7 +10709,7 @@
       <c r="AD250" s="5"/>
       <c r="AE250" s="5"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
@@ -10376,7 +10742,7 @@
       <c r="AD251" s="5"/>
       <c r="AE251" s="5"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
@@ -10409,7 +10775,7 @@
       <c r="AD252" s="5"/>
       <c r="AE252" s="5"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
@@ -10442,7 +10808,7 @@
       <c r="AD253" s="5"/>
       <c r="AE253" s="5"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
@@ -10475,7 +10841,7 @@
       <c r="AD254" s="5"/>
       <c r="AE254" s="5"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
@@ -10508,7 +10874,7 @@
       <c r="AD255" s="5"/>
       <c r="AE255" s="5"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
@@ -10541,7 +10907,7 @@
       <c r="AD256" s="5"/>
       <c r="AE256" s="5"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
@@ -10574,7 +10940,7 @@
       <c r="AD257" s="5"/>
       <c r="AE257" s="5"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
@@ -10607,7 +10973,7 @@
       <c r="AD258" s="5"/>
       <c r="AE258" s="5"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
@@ -10640,7 +11006,7 @@
       <c r="AD259" s="5"/>
       <c r="AE259" s="5"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
@@ -10673,7 +11039,7 @@
       <c r="AD260" s="5"/>
       <c r="AE260" s="5"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
@@ -10706,7 +11072,7 @@
       <c r="AD261" s="5"/>
       <c r="AE261" s="5"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
@@ -10739,7 +11105,7 @@
       <c r="AD262" s="5"/>
       <c r="AE262" s="5"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
@@ -10772,7 +11138,7 @@
       <c r="AD263" s="5"/>
       <c r="AE263" s="5"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
@@ -10805,7 +11171,7 @@
       <c r="AD264" s="5"/>
       <c r="AE264" s="5"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
@@ -10838,7 +11204,7 @@
       <c r="AD265" s="5"/>
       <c r="AE265" s="5"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
@@ -10871,7 +11237,7 @@
       <c r="AD266" s="5"/>
       <c r="AE266" s="5"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
@@ -10904,7 +11270,7 @@
       <c r="AD267" s="5"/>
       <c r="AE267" s="5"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
@@ -10937,7 +11303,7 @@
       <c r="AD268" s="5"/>
       <c r="AE268" s="5"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
@@ -10970,7 +11336,7 @@
       <c r="AD269" s="5"/>
       <c r="AE269" s="5"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
@@ -11003,7 +11369,7 @@
       <c r="AD270" s="5"/>
       <c r="AE270" s="5"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
@@ -11036,7 +11402,7 @@
       <c r="AD271" s="5"/>
       <c r="AE271" s="5"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
@@ -11069,7 +11435,7 @@
       <c r="AD272" s="5"/>
       <c r="AE272" s="5"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
@@ -11102,7 +11468,7 @@
       <c r="AD273" s="5"/>
       <c r="AE273" s="5"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
@@ -11135,7 +11501,7 @@
       <c r="AD274" s="5"/>
       <c r="AE274" s="5"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
@@ -11168,7 +11534,7 @@
       <c r="AD275" s="5"/>
       <c r="AE275" s="5"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
@@ -11201,7 +11567,7 @@
       <c r="AD276" s="5"/>
       <c r="AE276" s="5"/>
     </row>
-    <row r="277">
+    <row r="277" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
@@ -11234,7 +11600,7 @@
       <c r="AD277" s="5"/>
       <c r="AE277" s="5"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
@@ -11267,7 +11633,7 @@
       <c r="AD278" s="5"/>
       <c r="AE278" s="5"/>
     </row>
-    <row r="279">
+    <row r="279" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
@@ -11300,7 +11666,7 @@
       <c r="AD279" s="5"/>
       <c r="AE279" s="5"/>
     </row>
-    <row r="280">
+    <row r="280" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
@@ -11333,7 +11699,7 @@
       <c r="AD280" s="5"/>
       <c r="AE280" s="5"/>
     </row>
-    <row r="281">
+    <row r="281" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
@@ -11366,7 +11732,7 @@
       <c r="AD281" s="5"/>
       <c r="AE281" s="5"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
@@ -11399,7 +11765,7 @@
       <c r="AD282" s="5"/>
       <c r="AE282" s="5"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
@@ -11432,7 +11798,7 @@
       <c r="AD283" s="5"/>
       <c r="AE283" s="5"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
@@ -11465,7 +11831,7 @@
       <c r="AD284" s="5"/>
       <c r="AE284" s="5"/>
     </row>
-    <row r="285">
+    <row r="285" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
@@ -11498,7 +11864,7 @@
       <c r="AD285" s="5"/>
       <c r="AE285" s="5"/>
     </row>
-    <row r="286">
+    <row r="286" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
@@ -11531,7 +11897,7 @@
       <c r="AD286" s="5"/>
       <c r="AE286" s="5"/>
     </row>
-    <row r="287">
+    <row r="287" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
@@ -11564,7 +11930,7 @@
       <c r="AD287" s="5"/>
       <c r="AE287" s="5"/>
     </row>
-    <row r="288">
+    <row r="288" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
@@ -11597,7 +11963,7 @@
       <c r="AD288" s="5"/>
       <c r="AE288" s="5"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
@@ -11630,7 +11996,7 @@
       <c r="AD289" s="5"/>
       <c r="AE289" s="5"/>
     </row>
-    <row r="290">
+    <row r="290" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
@@ -11663,7 +12029,7 @@
       <c r="AD290" s="5"/>
       <c r="AE290" s="5"/>
     </row>
-    <row r="291">
+    <row r="291" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
@@ -11696,7 +12062,7 @@
       <c r="AD291" s="5"/>
       <c r="AE291" s="5"/>
     </row>
-    <row r="292">
+    <row r="292" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
@@ -11729,7 +12095,7 @@
       <c r="AD292" s="5"/>
       <c r="AE292" s="5"/>
     </row>
-    <row r="293">
+    <row r="293" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
@@ -11762,7 +12128,7 @@
       <c r="AD293" s="5"/>
       <c r="AE293" s="5"/>
     </row>
-    <row r="294">
+    <row r="294" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
@@ -11795,7 +12161,7 @@
       <c r="AD294" s="5"/>
       <c r="AE294" s="5"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
@@ -11828,7 +12194,7 @@
       <c r="AD295" s="5"/>
       <c r="AE295" s="5"/>
     </row>
-    <row r="296">
+    <row r="296" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
@@ -11861,7 +12227,7 @@
       <c r="AD296" s="5"/>
       <c r="AE296" s="5"/>
     </row>
-    <row r="297">
+    <row r="297" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
@@ -11894,7 +12260,7 @@
       <c r="AD297" s="5"/>
       <c r="AE297" s="5"/>
     </row>
-    <row r="298">
+    <row r="298" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A298" s="5"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
@@ -11927,7 +12293,7 @@
       <c r="AD298" s="5"/>
       <c r="AE298" s="5"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
@@ -11960,7 +12326,7 @@
       <c r="AD299" s="5"/>
       <c r="AE299" s="5"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
@@ -11993,7 +12359,7 @@
       <c r="AD300" s="5"/>
       <c r="AE300" s="5"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A301" s="5"/>
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
@@ -12026,7 +12392,7 @@
       <c r="AD301" s="5"/>
       <c r="AE301" s="5"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A302" s="5"/>
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
@@ -12059,7 +12425,7 @@
       <c r="AD302" s="5"/>
       <c r="AE302" s="5"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A303" s="5"/>
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
@@ -12092,7 +12458,7 @@
       <c r="AD303" s="5"/>
       <c r="AE303" s="5"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A304" s="5"/>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
@@ -12125,7 +12491,7 @@
       <c r="AD304" s="5"/>
       <c r="AE304" s="5"/>
     </row>
-    <row r="305">
+    <row r="305" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A305" s="5"/>
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
@@ -12158,7 +12524,7 @@
       <c r="AD305" s="5"/>
       <c r="AE305" s="5"/>
     </row>
-    <row r="306">
+    <row r="306" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A306" s="5"/>
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
@@ -12191,7 +12557,7 @@
       <c r="AD306" s="5"/>
       <c r="AE306" s="5"/>
     </row>
-    <row r="307">
+    <row r="307" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A307" s="5"/>
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
@@ -12224,7 +12590,7 @@
       <c r="AD307" s="5"/>
       <c r="AE307" s="5"/>
     </row>
-    <row r="308">
+    <row r="308" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A308" s="5"/>
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
@@ -12257,7 +12623,7 @@
       <c r="AD308" s="5"/>
       <c r="AE308" s="5"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A309" s="5"/>
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
@@ -12290,7 +12656,7 @@
       <c r="AD309" s="5"/>
       <c r="AE309" s="5"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A310" s="5"/>
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
@@ -12323,7 +12689,7 @@
       <c r="AD310" s="5"/>
       <c r="AE310" s="5"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A311" s="5"/>
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
@@ -12356,7 +12722,7 @@
       <c r="AD311" s="5"/>
       <c r="AE311" s="5"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A312" s="5"/>
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
@@ -12389,7 +12755,7 @@
       <c r="AD312" s="5"/>
       <c r="AE312" s="5"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A313" s="5"/>
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
@@ -12422,7 +12788,7 @@
       <c r="AD313" s="5"/>
       <c r="AE313" s="5"/>
     </row>
-    <row r="314">
+    <row r="314" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
@@ -12455,7 +12821,7 @@
       <c r="AD314" s="5"/>
       <c r="AE314" s="5"/>
     </row>
-    <row r="315">
+    <row r="315" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
@@ -12488,7 +12854,7 @@
       <c r="AD315" s="5"/>
       <c r="AE315" s="5"/>
     </row>
-    <row r="316">
+    <row r="316" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A316" s="5"/>
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
@@ -12521,7 +12887,7 @@
       <c r="AD316" s="5"/>
       <c r="AE316" s="5"/>
     </row>
-    <row r="317">
+    <row r="317" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A317" s="5"/>
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
@@ -12554,7 +12920,7 @@
       <c r="AD317" s="5"/>
       <c r="AE317" s="5"/>
     </row>
-    <row r="318">
+    <row r="318" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
       <c r="C318" s="5"/>
@@ -12587,7 +12953,7 @@
       <c r="AD318" s="5"/>
       <c r="AE318" s="5"/>
     </row>
-    <row r="319">
+    <row r="319" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A319" s="5"/>
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
@@ -12620,7 +12986,7 @@
       <c r="AD319" s="5"/>
       <c r="AE319" s="5"/>
     </row>
-    <row r="320">
+    <row r="320" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
       <c r="C320" s="5"/>
@@ -12653,7 +13019,7 @@
       <c r="AD320" s="5"/>
       <c r="AE320" s="5"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A321" s="5"/>
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
@@ -12686,7 +13052,7 @@
       <c r="AD321" s="5"/>
       <c r="AE321" s="5"/>
     </row>
-    <row r="322">
+    <row r="322" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A322" s="5"/>
       <c r="B322" s="5"/>
       <c r="C322" s="5"/>
@@ -12719,7 +13085,7 @@
       <c r="AD322" s="5"/>
       <c r="AE322" s="5"/>
     </row>
-    <row r="323">
+    <row r="323" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A323" s="5"/>
       <c r="B323" s="5"/>
       <c r="C323" s="5"/>
@@ -12752,7 +13118,7 @@
       <c r="AD323" s="5"/>
       <c r="AE323" s="5"/>
     </row>
-    <row r="324">
+    <row r="324" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A324" s="5"/>
       <c r="B324" s="5"/>
       <c r="C324" s="5"/>
@@ -12785,7 +13151,7 @@
       <c r="AD324" s="5"/>
       <c r="AE324" s="5"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A325" s="5"/>
       <c r="B325" s="5"/>
       <c r="C325" s="5"/>
@@ -12818,7 +13184,7 @@
       <c r="AD325" s="5"/>
       <c r="AE325" s="5"/>
     </row>
-    <row r="326">
+    <row r="326" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A326" s="5"/>
       <c r="B326" s="5"/>
       <c r="C326" s="5"/>
@@ -12851,7 +13217,7 @@
       <c r="AD326" s="5"/>
       <c r="AE326" s="5"/>
     </row>
-    <row r="327">
+    <row r="327" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A327" s="5"/>
       <c r="B327" s="5"/>
       <c r="C327" s="5"/>
@@ -12884,7 +13250,7 @@
       <c r="AD327" s="5"/>
       <c r="AE327" s="5"/>
     </row>
-    <row r="328">
+    <row r="328" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A328" s="5"/>
       <c r="B328" s="5"/>
       <c r="C328" s="5"/>
@@ -12917,7 +13283,7 @@
       <c r="AD328" s="5"/>
       <c r="AE328" s="5"/>
     </row>
-    <row r="329">
+    <row r="329" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A329" s="5"/>
       <c r="B329" s="5"/>
       <c r="C329" s="5"/>
@@ -12950,7 +13316,7 @@
       <c r="AD329" s="5"/>
       <c r="AE329" s="5"/>
     </row>
-    <row r="330">
+    <row r="330" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A330" s="5"/>
       <c r="B330" s="5"/>
       <c r="C330" s="5"/>
@@ -12983,7 +13349,7 @@
       <c r="AD330" s="5"/>
       <c r="AE330" s="5"/>
     </row>
-    <row r="331">
+    <row r="331" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A331" s="5"/>
       <c r="B331" s="5"/>
       <c r="C331" s="5"/>
@@ -13016,7 +13382,7 @@
       <c r="AD331" s="5"/>
       <c r="AE331" s="5"/>
     </row>
-    <row r="332">
+    <row r="332" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A332" s="5"/>
       <c r="B332" s="5"/>
       <c r="C332" s="5"/>
@@ -13049,7 +13415,7 @@
       <c r="AD332" s="5"/>
       <c r="AE332" s="5"/>
     </row>
-    <row r="333">
+    <row r="333" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A333" s="5"/>
       <c r="B333" s="5"/>
       <c r="C333" s="5"/>
@@ -13082,7 +13448,7 @@
       <c r="AD333" s="5"/>
       <c r="AE333" s="5"/>
     </row>
-    <row r="334">
+    <row r="334" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A334" s="5"/>
       <c r="B334" s="5"/>
       <c r="C334" s="5"/>
@@ -13115,7 +13481,7 @@
       <c r="AD334" s="5"/>
       <c r="AE334" s="5"/>
     </row>
-    <row r="335">
+    <row r="335" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A335" s="5"/>
       <c r="B335" s="5"/>
       <c r="C335" s="5"/>
@@ -13148,7 +13514,7 @@
       <c r="AD335" s="5"/>
       <c r="AE335" s="5"/>
     </row>
-    <row r="336">
+    <row r="336" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A336" s="5"/>
       <c r="B336" s="5"/>
       <c r="C336" s="5"/>
@@ -13181,7 +13547,7 @@
       <c r="AD336" s="5"/>
       <c r="AE336" s="5"/>
     </row>
-    <row r="337">
+    <row r="337" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A337" s="5"/>
       <c r="B337" s="5"/>
       <c r="C337" s="5"/>
@@ -13214,7 +13580,7 @@
       <c r="AD337" s="5"/>
       <c r="AE337" s="5"/>
     </row>
-    <row r="338">
+    <row r="338" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A338" s="5"/>
       <c r="B338" s="5"/>
       <c r="C338" s="5"/>
@@ -13247,7 +13613,7 @@
       <c r="AD338" s="5"/>
       <c r="AE338" s="5"/>
     </row>
-    <row r="339">
+    <row r="339" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A339" s="5"/>
       <c r="B339" s="5"/>
       <c r="C339" s="5"/>
@@ -13280,7 +13646,7 @@
       <c r="AD339" s="5"/>
       <c r="AE339" s="5"/>
     </row>
-    <row r="340">
+    <row r="340" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A340" s="5"/>
       <c r="B340" s="5"/>
       <c r="C340" s="5"/>
@@ -13313,7 +13679,7 @@
       <c r="AD340" s="5"/>
       <c r="AE340" s="5"/>
     </row>
-    <row r="341">
+    <row r="341" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A341" s="5"/>
       <c r="B341" s="5"/>
       <c r="C341" s="5"/>
@@ -13346,7 +13712,7 @@
       <c r="AD341" s="5"/>
       <c r="AE341" s="5"/>
     </row>
-    <row r="342">
+    <row r="342" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A342" s="5"/>
       <c r="B342" s="5"/>
       <c r="C342" s="5"/>
@@ -13379,7 +13745,7 @@
       <c r="AD342" s="5"/>
       <c r="AE342" s="5"/>
     </row>
-    <row r="343">
+    <row r="343" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A343" s="5"/>
       <c r="B343" s="5"/>
       <c r="C343" s="5"/>
@@ -13412,7 +13778,7 @@
       <c r="AD343" s="5"/>
       <c r="AE343" s="5"/>
     </row>
-    <row r="344">
+    <row r="344" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A344" s="5"/>
       <c r="B344" s="5"/>
       <c r="C344" s="5"/>
@@ -13445,7 +13811,7 @@
       <c r="AD344" s="5"/>
       <c r="AE344" s="5"/>
     </row>
-    <row r="345">
+    <row r="345" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A345" s="5"/>
       <c r="B345" s="5"/>
       <c r="C345" s="5"/>
@@ -13478,7 +13844,7 @@
       <c r="AD345" s="5"/>
       <c r="AE345" s="5"/>
     </row>
-    <row r="346">
+    <row r="346" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A346" s="5"/>
       <c r="B346" s="5"/>
       <c r="C346" s="5"/>
@@ -13511,7 +13877,7 @@
       <c r="AD346" s="5"/>
       <c r="AE346" s="5"/>
     </row>
-    <row r="347">
+    <row r="347" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A347" s="5"/>
       <c r="B347" s="5"/>
       <c r="C347" s="5"/>
@@ -13544,7 +13910,7 @@
       <c r="AD347" s="5"/>
       <c r="AE347" s="5"/>
     </row>
-    <row r="348">
+    <row r="348" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A348" s="5"/>
       <c r="B348" s="5"/>
       <c r="C348" s="5"/>
@@ -13577,7 +13943,7 @@
       <c r="AD348" s="5"/>
       <c r="AE348" s="5"/>
     </row>
-    <row r="349">
+    <row r="349" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A349" s="5"/>
       <c r="B349" s="5"/>
       <c r="C349" s="5"/>
@@ -13610,7 +13976,7 @@
       <c r="AD349" s="5"/>
       <c r="AE349" s="5"/>
     </row>
-    <row r="350">
+    <row r="350" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A350" s="5"/>
       <c r="B350" s="5"/>
       <c r="C350" s="5"/>
@@ -13643,7 +14009,7 @@
       <c r="AD350" s="5"/>
       <c r="AE350" s="5"/>
     </row>
-    <row r="351">
+    <row r="351" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A351" s="5"/>
       <c r="B351" s="5"/>
       <c r="C351" s="5"/>
@@ -13676,7 +14042,7 @@
       <c r="AD351" s="5"/>
       <c r="AE351" s="5"/>
     </row>
-    <row r="352">
+    <row r="352" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A352" s="5"/>
       <c r="B352" s="5"/>
       <c r="C352" s="5"/>
@@ -13709,7 +14075,7 @@
       <c r="AD352" s="5"/>
       <c r="AE352" s="5"/>
     </row>
-    <row r="353">
+    <row r="353" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A353" s="5"/>
       <c r="B353" s="5"/>
       <c r="C353" s="5"/>
@@ -13742,7 +14108,7 @@
       <c r="AD353" s="5"/>
       <c r="AE353" s="5"/>
     </row>
-    <row r="354">
+    <row r="354" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A354" s="5"/>
       <c r="B354" s="5"/>
       <c r="C354" s="5"/>
@@ -13775,7 +14141,7 @@
       <c r="AD354" s="5"/>
       <c r="AE354" s="5"/>
     </row>
-    <row r="355">
+    <row r="355" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A355" s="5"/>
       <c r="B355" s="5"/>
       <c r="C355" s="5"/>
@@ -13808,7 +14174,7 @@
       <c r="AD355" s="5"/>
       <c r="AE355" s="5"/>
     </row>
-    <row r="356">
+    <row r="356" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A356" s="5"/>
       <c r="B356" s="5"/>
       <c r="C356" s="5"/>
@@ -13841,7 +14207,7 @@
       <c r="AD356" s="5"/>
       <c r="AE356" s="5"/>
     </row>
-    <row r="357">
+    <row r="357" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A357" s="5"/>
       <c r="B357" s="5"/>
       <c r="C357" s="5"/>
@@ -13874,7 +14240,7 @@
       <c r="AD357" s="5"/>
       <c r="AE357" s="5"/>
     </row>
-    <row r="358">
+    <row r="358" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A358" s="5"/>
       <c r="B358" s="5"/>
       <c r="C358" s="5"/>
@@ -13907,7 +14273,7 @@
       <c r="AD358" s="5"/>
       <c r="AE358" s="5"/>
     </row>
-    <row r="359">
+    <row r="359" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A359" s="5"/>
       <c r="B359" s="5"/>
       <c r="C359" s="5"/>
@@ -13940,7 +14306,7 @@
       <c r="AD359" s="5"/>
       <c r="AE359" s="5"/>
     </row>
-    <row r="360">
+    <row r="360" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A360" s="5"/>
       <c r="B360" s="5"/>
       <c r="C360" s="5"/>
@@ -13973,7 +14339,7 @@
       <c r="AD360" s="5"/>
       <c r="AE360" s="5"/>
     </row>
-    <row r="361">
+    <row r="361" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A361" s="5"/>
       <c r="B361" s="5"/>
       <c r="C361" s="5"/>
@@ -14006,7 +14372,7 @@
       <c r="AD361" s="5"/>
       <c r="AE361" s="5"/>
     </row>
-    <row r="362">
+    <row r="362" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A362" s="5"/>
       <c r="B362" s="5"/>
       <c r="C362" s="5"/>
@@ -14039,7 +14405,7 @@
       <c r="AD362" s="5"/>
       <c r="AE362" s="5"/>
     </row>
-    <row r="363">
+    <row r="363" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A363" s="5"/>
       <c r="B363" s="5"/>
       <c r="C363" s="5"/>
@@ -14072,7 +14438,7 @@
       <c r="AD363" s="5"/>
       <c r="AE363" s="5"/>
     </row>
-    <row r="364">
+    <row r="364" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A364" s="5"/>
       <c r="B364" s="5"/>
       <c r="C364" s="5"/>
@@ -14105,7 +14471,7 @@
       <c r="AD364" s="5"/>
       <c r="AE364" s="5"/>
     </row>
-    <row r="365">
+    <row r="365" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A365" s="5"/>
       <c r="B365" s="5"/>
       <c r="C365" s="5"/>
@@ -14138,7 +14504,7 @@
       <c r="AD365" s="5"/>
       <c r="AE365" s="5"/>
     </row>
-    <row r="366">
+    <row r="366" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A366" s="5"/>
       <c r="B366" s="5"/>
       <c r="C366" s="5"/>
@@ -14171,7 +14537,7 @@
       <c r="AD366" s="5"/>
       <c r="AE366" s="5"/>
     </row>
-    <row r="367">
+    <row r="367" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A367" s="5"/>
       <c r="B367" s="5"/>
       <c r="C367" s="5"/>
@@ -14204,7 +14570,7 @@
       <c r="AD367" s="5"/>
       <c r="AE367" s="5"/>
     </row>
-    <row r="368">
+    <row r="368" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A368" s="5"/>
       <c r="B368" s="5"/>
       <c r="C368" s="5"/>
@@ -14237,7 +14603,7 @@
       <c r="AD368" s="5"/>
       <c r="AE368" s="5"/>
     </row>
-    <row r="369">
+    <row r="369" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A369" s="5"/>
       <c r="B369" s="5"/>
       <c r="C369" s="5"/>
@@ -14270,7 +14636,7 @@
       <c r="AD369" s="5"/>
       <c r="AE369" s="5"/>
     </row>
-    <row r="370">
+    <row r="370" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A370" s="5"/>
       <c r="B370" s="5"/>
       <c r="C370" s="5"/>
@@ -14303,7 +14669,7 @@
       <c r="AD370" s="5"/>
       <c r="AE370" s="5"/>
     </row>
-    <row r="371">
+    <row r="371" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A371" s="5"/>
       <c r="B371" s="5"/>
       <c r="C371" s="5"/>
@@ -14336,7 +14702,7 @@
       <c r="AD371" s="5"/>
       <c r="AE371" s="5"/>
     </row>
-    <row r="372">
+    <row r="372" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A372" s="5"/>
       <c r="B372" s="5"/>
       <c r="C372" s="5"/>
@@ -14369,7 +14735,7 @@
       <c r="AD372" s="5"/>
       <c r="AE372" s="5"/>
     </row>
-    <row r="373">
+    <row r="373" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A373" s="5"/>
       <c r="B373" s="5"/>
       <c r="C373" s="5"/>
@@ -14402,7 +14768,7 @@
       <c r="AD373" s="5"/>
       <c r="AE373" s="5"/>
     </row>
-    <row r="374">
+    <row r="374" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A374" s="5"/>
       <c r="B374" s="5"/>
       <c r="C374" s="5"/>
@@ -14435,7 +14801,7 @@
       <c r="AD374" s="5"/>
       <c r="AE374" s="5"/>
     </row>
-    <row r="375">
+    <row r="375" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A375" s="5"/>
       <c r="B375" s="5"/>
       <c r="C375" s="5"/>
@@ -14468,7 +14834,7 @@
       <c r="AD375" s="5"/>
       <c r="AE375" s="5"/>
     </row>
-    <row r="376">
+    <row r="376" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A376" s="5"/>
       <c r="B376" s="5"/>
       <c r="C376" s="5"/>
@@ -14501,7 +14867,7 @@
       <c r="AD376" s="5"/>
       <c r="AE376" s="5"/>
     </row>
-    <row r="377">
+    <row r="377" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A377" s="5"/>
       <c r="B377" s="5"/>
       <c r="C377" s="5"/>
@@ -14534,7 +14900,7 @@
       <c r="AD377" s="5"/>
       <c r="AE377" s="5"/>
     </row>
-    <row r="378">
+    <row r="378" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A378" s="5"/>
       <c r="B378" s="5"/>
       <c r="C378" s="5"/>
@@ -14567,7 +14933,7 @@
       <c r="AD378" s="5"/>
       <c r="AE378" s="5"/>
     </row>
-    <row r="379">
+    <row r="379" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A379" s="5"/>
       <c r="B379" s="5"/>
       <c r="C379" s="5"/>
@@ -14600,7 +14966,7 @@
       <c r="AD379" s="5"/>
       <c r="AE379" s="5"/>
     </row>
-    <row r="380">
+    <row r="380" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A380" s="5"/>
       <c r="B380" s="5"/>
       <c r="C380" s="5"/>
@@ -14633,7 +14999,7 @@
       <c r="AD380" s="5"/>
       <c r="AE380" s="5"/>
     </row>
-    <row r="381">
+    <row r="381" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A381" s="5"/>
       <c r="B381" s="5"/>
       <c r="C381" s="5"/>
@@ -14666,7 +15032,7 @@
       <c r="AD381" s="5"/>
       <c r="AE381" s="5"/>
     </row>
-    <row r="382">
+    <row r="382" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A382" s="5"/>
       <c r="B382" s="5"/>
       <c r="C382" s="5"/>
@@ -14699,7 +15065,7 @@
       <c r="AD382" s="5"/>
       <c r="AE382" s="5"/>
     </row>
-    <row r="383">
+    <row r="383" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A383" s="5"/>
       <c r="B383" s="5"/>
       <c r="C383" s="5"/>
@@ -14732,7 +15098,7 @@
       <c r="AD383" s="5"/>
       <c r="AE383" s="5"/>
     </row>
-    <row r="384">
+    <row r="384" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A384" s="5"/>
       <c r="B384" s="5"/>
       <c r="C384" s="5"/>
@@ -14765,7 +15131,7 @@
       <c r="AD384" s="5"/>
       <c r="AE384" s="5"/>
     </row>
-    <row r="385">
+    <row r="385" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A385" s="5"/>
       <c r="B385" s="5"/>
       <c r="C385" s="5"/>
@@ -14798,7 +15164,7 @@
       <c r="AD385" s="5"/>
       <c r="AE385" s="5"/>
     </row>
-    <row r="386">
+    <row r="386" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A386" s="5"/>
       <c r="B386" s="5"/>
       <c r="C386" s="5"/>
@@ -14831,7 +15197,7 @@
       <c r="AD386" s="5"/>
       <c r="AE386" s="5"/>
     </row>
-    <row r="387">
+    <row r="387" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A387" s="5"/>
       <c r="B387" s="5"/>
       <c r="C387" s="5"/>
@@ -14864,7 +15230,7 @@
       <c r="AD387" s="5"/>
       <c r="AE387" s="5"/>
     </row>
-    <row r="388">
+    <row r="388" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A388" s="5"/>
       <c r="B388" s="5"/>
       <c r="C388" s="5"/>
@@ -14897,7 +15263,7 @@
       <c r="AD388" s="5"/>
       <c r="AE388" s="5"/>
     </row>
-    <row r="389">
+    <row r="389" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A389" s="5"/>
       <c r="B389" s="5"/>
       <c r="C389" s="5"/>
@@ -14930,7 +15296,7 @@
       <c r="AD389" s="5"/>
       <c r="AE389" s="5"/>
     </row>
-    <row r="390">
+    <row r="390" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A390" s="5"/>
       <c r="B390" s="5"/>
       <c r="C390" s="5"/>
@@ -14963,7 +15329,7 @@
       <c r="AD390" s="5"/>
       <c r="AE390" s="5"/>
     </row>
-    <row r="391">
+    <row r="391" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A391" s="5"/>
       <c r="B391" s="5"/>
       <c r="C391" s="5"/>
@@ -14996,7 +15362,7 @@
       <c r="AD391" s="5"/>
       <c r="AE391" s="5"/>
     </row>
-    <row r="392">
+    <row r="392" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A392" s="5"/>
       <c r="B392" s="5"/>
       <c r="C392" s="5"/>
@@ -15029,7 +15395,7 @@
       <c r="AD392" s="5"/>
       <c r="AE392" s="5"/>
     </row>
-    <row r="393">
+    <row r="393" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A393" s="5"/>
       <c r="B393" s="5"/>
       <c r="C393" s="5"/>
@@ -15062,7 +15428,7 @@
       <c r="AD393" s="5"/>
       <c r="AE393" s="5"/>
     </row>
-    <row r="394">
+    <row r="394" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A394" s="5"/>
       <c r="B394" s="5"/>
       <c r="C394" s="5"/>
@@ -15095,7 +15461,7 @@
       <c r="AD394" s="5"/>
       <c r="AE394" s="5"/>
     </row>
-    <row r="395">
+    <row r="395" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A395" s="5"/>
       <c r="B395" s="5"/>
       <c r="C395" s="5"/>
@@ -15128,7 +15494,7 @@
       <c r="AD395" s="5"/>
       <c r="AE395" s="5"/>
     </row>
-    <row r="396">
+    <row r="396" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A396" s="5"/>
       <c r="B396" s="5"/>
       <c r="C396" s="5"/>
@@ -15161,7 +15527,7 @@
       <c r="AD396" s="5"/>
       <c r="AE396" s="5"/>
     </row>
-    <row r="397">
+    <row r="397" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A397" s="5"/>
       <c r="B397" s="5"/>
       <c r="C397" s="5"/>
@@ -15194,7 +15560,7 @@
       <c r="AD397" s="5"/>
       <c r="AE397" s="5"/>
     </row>
-    <row r="398">
+    <row r="398" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A398" s="5"/>
       <c r="B398" s="5"/>
       <c r="C398" s="5"/>
@@ -15227,7 +15593,7 @@
       <c r="AD398" s="5"/>
       <c r="AE398" s="5"/>
     </row>
-    <row r="399">
+    <row r="399" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A399" s="5"/>
       <c r="B399" s="5"/>
       <c r="C399" s="5"/>
@@ -15260,7 +15626,7 @@
       <c r="AD399" s="5"/>
       <c r="AE399" s="5"/>
     </row>
-    <row r="400">
+    <row r="400" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A400" s="5"/>
       <c r="B400" s="5"/>
       <c r="C400" s="5"/>
@@ -15293,7 +15659,7 @@
       <c r="AD400" s="5"/>
       <c r="AE400" s="5"/>
     </row>
-    <row r="401">
+    <row r="401" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A401" s="5"/>
       <c r="B401" s="5"/>
       <c r="C401" s="5"/>
@@ -15326,7 +15692,7 @@
       <c r="AD401" s="5"/>
       <c r="AE401" s="5"/>
     </row>
-    <row r="402">
+    <row r="402" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A402" s="5"/>
       <c r="B402" s="5"/>
       <c r="C402" s="5"/>
@@ -15359,7 +15725,7 @@
       <c r="AD402" s="5"/>
       <c r="AE402" s="5"/>
     </row>
-    <row r="403">
+    <row r="403" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A403" s="5"/>
       <c r="B403" s="5"/>
       <c r="C403" s="5"/>
@@ -15392,7 +15758,7 @@
       <c r="AD403" s="5"/>
       <c r="AE403" s="5"/>
     </row>
-    <row r="404">
+    <row r="404" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A404" s="5"/>
       <c r="B404" s="5"/>
       <c r="C404" s="5"/>
@@ -15425,7 +15791,7 @@
       <c r="AD404" s="5"/>
       <c r="AE404" s="5"/>
     </row>
-    <row r="405">
+    <row r="405" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A405" s="5"/>
       <c r="B405" s="5"/>
       <c r="C405" s="5"/>
@@ -15458,7 +15824,7 @@
       <c r="AD405" s="5"/>
       <c r="AE405" s="5"/>
     </row>
-    <row r="406">
+    <row r="406" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A406" s="5"/>
       <c r="B406" s="5"/>
       <c r="C406" s="5"/>
@@ -15491,7 +15857,7 @@
       <c r="AD406" s="5"/>
       <c r="AE406" s="5"/>
     </row>
-    <row r="407">
+    <row r="407" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A407" s="5"/>
       <c r="B407" s="5"/>
       <c r="C407" s="5"/>
@@ -15524,7 +15890,7 @@
       <c r="AD407" s="5"/>
       <c r="AE407" s="5"/>
     </row>
-    <row r="408">
+    <row r="408" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A408" s="5"/>
       <c r="B408" s="5"/>
       <c r="C408" s="5"/>
@@ -15557,7 +15923,7 @@
       <c r="AD408" s="5"/>
       <c r="AE408" s="5"/>
     </row>
-    <row r="409">
+    <row r="409" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A409" s="5"/>
       <c r="B409" s="5"/>
       <c r="C409" s="5"/>
@@ -15590,7 +15956,7 @@
       <c r="AD409" s="5"/>
       <c r="AE409" s="5"/>
     </row>
-    <row r="410">
+    <row r="410" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A410" s="5"/>
       <c r="B410" s="5"/>
       <c r="C410" s="5"/>
@@ -15623,7 +15989,7 @@
       <c r="AD410" s="5"/>
       <c r="AE410" s="5"/>
     </row>
-    <row r="411">
+    <row r="411" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A411" s="5"/>
       <c r="B411" s="5"/>
       <c r="C411" s="5"/>
@@ -15656,7 +16022,7 @@
       <c r="AD411" s="5"/>
       <c r="AE411" s="5"/>
     </row>
-    <row r="412">
+    <row r="412" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A412" s="5"/>
       <c r="B412" s="5"/>
       <c r="C412" s="5"/>
@@ -15689,7 +16055,7 @@
       <c r="AD412" s="5"/>
       <c r="AE412" s="5"/>
     </row>
-    <row r="413">
+    <row r="413" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A413" s="5"/>
       <c r="B413" s="5"/>
       <c r="C413" s="5"/>
@@ -15722,7 +16088,7 @@
       <c r="AD413" s="5"/>
       <c r="AE413" s="5"/>
     </row>
-    <row r="414">
+    <row r="414" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A414" s="5"/>
       <c r="B414" s="5"/>
       <c r="C414" s="5"/>
@@ -15755,7 +16121,7 @@
       <c r="AD414" s="5"/>
       <c r="AE414" s="5"/>
     </row>
-    <row r="415">
+    <row r="415" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A415" s="5"/>
       <c r="B415" s="5"/>
       <c r="C415" s="5"/>
@@ -15788,7 +16154,7 @@
       <c r="AD415" s="5"/>
       <c r="AE415" s="5"/>
     </row>
-    <row r="416">
+    <row r="416" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A416" s="5"/>
       <c r="B416" s="5"/>
       <c r="C416" s="5"/>
@@ -15821,7 +16187,7 @@
       <c r="AD416" s="5"/>
       <c r="AE416" s="5"/>
     </row>
-    <row r="417">
+    <row r="417" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A417" s="5"/>
       <c r="B417" s="5"/>
       <c r="C417" s="5"/>
@@ -15854,7 +16220,7 @@
       <c r="AD417" s="5"/>
       <c r="AE417" s="5"/>
     </row>
-    <row r="418">
+    <row r="418" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A418" s="5"/>
       <c r="B418" s="5"/>
       <c r="C418" s="5"/>
@@ -15887,7 +16253,7 @@
       <c r="AD418" s="5"/>
       <c r="AE418" s="5"/>
     </row>
-    <row r="419">
+    <row r="419" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A419" s="5"/>
       <c r="B419" s="5"/>
       <c r="C419" s="5"/>
@@ -15920,7 +16286,7 @@
       <c r="AD419" s="5"/>
       <c r="AE419" s="5"/>
     </row>
-    <row r="420">
+    <row r="420" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A420" s="5"/>
       <c r="B420" s="5"/>
       <c r="C420" s="5"/>
@@ -15953,7 +16319,7 @@
       <c r="AD420" s="5"/>
       <c r="AE420" s="5"/>
     </row>
-    <row r="421">
+    <row r="421" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A421" s="5"/>
       <c r="B421" s="5"/>
       <c r="C421" s="5"/>
@@ -15986,7 +16352,7 @@
       <c r="AD421" s="5"/>
       <c r="AE421" s="5"/>
     </row>
-    <row r="422">
+    <row r="422" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A422" s="5"/>
       <c r="B422" s="5"/>
       <c r="C422" s="5"/>
@@ -16019,7 +16385,7 @@
       <c r="AD422" s="5"/>
       <c r="AE422" s="5"/>
     </row>
-    <row r="423">
+    <row r="423" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A423" s="5"/>
       <c r="B423" s="5"/>
       <c r="C423" s="5"/>
@@ -16052,7 +16418,7 @@
       <c r="AD423" s="5"/>
       <c r="AE423" s="5"/>
     </row>
-    <row r="424">
+    <row r="424" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A424" s="5"/>
       <c r="B424" s="5"/>
       <c r="C424" s="5"/>
@@ -16085,7 +16451,7 @@
       <c r="AD424" s="5"/>
       <c r="AE424" s="5"/>
     </row>
-    <row r="425">
+    <row r="425" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A425" s="5"/>
       <c r="B425" s="5"/>
       <c r="C425" s="5"/>
@@ -16118,7 +16484,7 @@
       <c r="AD425" s="5"/>
       <c r="AE425" s="5"/>
     </row>
-    <row r="426">
+    <row r="426" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A426" s="5"/>
       <c r="B426" s="5"/>
       <c r="C426" s="5"/>
@@ -16151,7 +16517,7 @@
       <c r="AD426" s="5"/>
       <c r="AE426" s="5"/>
     </row>
-    <row r="427">
+    <row r="427" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A427" s="5"/>
       <c r="B427" s="5"/>
       <c r="C427" s="5"/>
@@ -16184,7 +16550,7 @@
       <c r="AD427" s="5"/>
       <c r="AE427" s="5"/>
     </row>
-    <row r="428">
+    <row r="428" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A428" s="5"/>
       <c r="B428" s="5"/>
       <c r="C428" s="5"/>
@@ -16217,7 +16583,7 @@
       <c r="AD428" s="5"/>
       <c r="AE428" s="5"/>
     </row>
-    <row r="429">
+    <row r="429" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A429" s="5"/>
       <c r="B429" s="5"/>
       <c r="C429" s="5"/>
@@ -16250,7 +16616,7 @@
       <c r="AD429" s="5"/>
       <c r="AE429" s="5"/>
     </row>
-    <row r="430">
+    <row r="430" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A430" s="5"/>
       <c r="B430" s="5"/>
       <c r="C430" s="5"/>
@@ -16283,7 +16649,7 @@
       <c r="AD430" s="5"/>
       <c r="AE430" s="5"/>
     </row>
-    <row r="431">
+    <row r="431" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A431" s="5"/>
       <c r="B431" s="5"/>
       <c r="C431" s="5"/>
@@ -16316,7 +16682,7 @@
       <c r="AD431" s="5"/>
       <c r="AE431" s="5"/>
     </row>
-    <row r="432">
+    <row r="432" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A432" s="5"/>
       <c r="B432" s="5"/>
       <c r="C432" s="5"/>
@@ -16349,7 +16715,7 @@
       <c r="AD432" s="5"/>
       <c r="AE432" s="5"/>
     </row>
-    <row r="433">
+    <row r="433" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A433" s="5"/>
       <c r="B433" s="5"/>
       <c r="C433" s="5"/>
@@ -16382,7 +16748,7 @@
       <c r="AD433" s="5"/>
       <c r="AE433" s="5"/>
     </row>
-    <row r="434">
+    <row r="434" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A434" s="5"/>
       <c r="B434" s="5"/>
       <c r="C434" s="5"/>
@@ -16415,7 +16781,7 @@
       <c r="AD434" s="5"/>
       <c r="AE434" s="5"/>
     </row>
-    <row r="435">
+    <row r="435" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A435" s="5"/>
       <c r="B435" s="5"/>
       <c r="C435" s="5"/>
@@ -16448,7 +16814,7 @@
       <c r="AD435" s="5"/>
       <c r="AE435" s="5"/>
     </row>
-    <row r="436">
+    <row r="436" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A436" s="5"/>
       <c r="B436" s="5"/>
       <c r="C436" s="5"/>
@@ -16481,7 +16847,7 @@
       <c r="AD436" s="5"/>
       <c r="AE436" s="5"/>
     </row>
-    <row r="437">
+    <row r="437" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A437" s="5"/>
       <c r="B437" s="5"/>
       <c r="C437" s="5"/>
@@ -16514,7 +16880,7 @@
       <c r="AD437" s="5"/>
       <c r="AE437" s="5"/>
     </row>
-    <row r="438">
+    <row r="438" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A438" s="5"/>
       <c r="B438" s="5"/>
       <c r="C438" s="5"/>
@@ -16547,7 +16913,7 @@
       <c r="AD438" s="5"/>
       <c r="AE438" s="5"/>
     </row>
-    <row r="439">
+    <row r="439" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A439" s="5"/>
       <c r="B439" s="5"/>
       <c r="C439" s="5"/>
@@ -16580,7 +16946,7 @@
       <c r="AD439" s="5"/>
       <c r="AE439" s="5"/>
     </row>
-    <row r="440">
+    <row r="440" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A440" s="5"/>
       <c r="B440" s="5"/>
       <c r="C440" s="5"/>
@@ -16613,7 +16979,7 @@
       <c r="AD440" s="5"/>
       <c r="AE440" s="5"/>
     </row>
-    <row r="441">
+    <row r="441" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A441" s="5"/>
       <c r="B441" s="5"/>
       <c r="C441" s="5"/>
@@ -16646,7 +17012,7 @@
       <c r="AD441" s="5"/>
       <c r="AE441" s="5"/>
     </row>
-    <row r="442">
+    <row r="442" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A442" s="5"/>
       <c r="B442" s="5"/>
       <c r="C442" s="5"/>
@@ -16679,7 +17045,7 @@
       <c r="AD442" s="5"/>
       <c r="AE442" s="5"/>
     </row>
-    <row r="443">
+    <row r="443" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A443" s="5"/>
       <c r="B443" s="5"/>
       <c r="C443" s="5"/>
@@ -16712,7 +17078,7 @@
       <c r="AD443" s="5"/>
       <c r="AE443" s="5"/>
     </row>
-    <row r="444">
+    <row r="444" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A444" s="5"/>
       <c r="B444" s="5"/>
       <c r="C444" s="5"/>
@@ -16745,7 +17111,7 @@
       <c r="AD444" s="5"/>
       <c r="AE444" s="5"/>
     </row>
-    <row r="445">
+    <row r="445" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A445" s="5"/>
       <c r="B445" s="5"/>
       <c r="C445" s="5"/>
@@ -16778,7 +17144,7 @@
       <c r="AD445" s="5"/>
       <c r="AE445" s="5"/>
     </row>
-    <row r="446">
+    <row r="446" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A446" s="5"/>
       <c r="B446" s="5"/>
       <c r="C446" s="5"/>
@@ -16811,7 +17177,7 @@
       <c r="AD446" s="5"/>
       <c r="AE446" s="5"/>
     </row>
-    <row r="447">
+    <row r="447" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A447" s="5"/>
       <c r="B447" s="5"/>
       <c r="C447" s="5"/>
@@ -16844,7 +17210,7 @@
       <c r="AD447" s="5"/>
       <c r="AE447" s="5"/>
     </row>
-    <row r="448">
+    <row r="448" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A448" s="5"/>
       <c r="B448" s="5"/>
       <c r="C448" s="5"/>
@@ -16877,7 +17243,7 @@
       <c r="AD448" s="5"/>
       <c r="AE448" s="5"/>
     </row>
-    <row r="449">
+    <row r="449" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A449" s="5"/>
       <c r="B449" s="5"/>
       <c r="C449" s="5"/>
@@ -16910,7 +17276,7 @@
       <c r="AD449" s="5"/>
       <c r="AE449" s="5"/>
     </row>
-    <row r="450">
+    <row r="450" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A450" s="5"/>
       <c r="B450" s="5"/>
       <c r="C450" s="5"/>
@@ -16943,7 +17309,7 @@
       <c r="AD450" s="5"/>
       <c r="AE450" s="5"/>
     </row>
-    <row r="451">
+    <row r="451" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A451" s="5"/>
       <c r="B451" s="5"/>
       <c r="C451" s="5"/>
@@ -16976,7 +17342,7 @@
       <c r="AD451" s="5"/>
       <c r="AE451" s="5"/>
     </row>
-    <row r="452">
+    <row r="452" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A452" s="5"/>
       <c r="B452" s="5"/>
       <c r="C452" s="5"/>
@@ -17009,7 +17375,7 @@
       <c r="AD452" s="5"/>
       <c r="AE452" s="5"/>
     </row>
-    <row r="453">
+    <row r="453" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A453" s="5"/>
       <c r="B453" s="5"/>
       <c r="C453" s="5"/>
@@ -17042,7 +17408,7 @@
       <c r="AD453" s="5"/>
       <c r="AE453" s="5"/>
     </row>
-    <row r="454">
+    <row r="454" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A454" s="5"/>
       <c r="B454" s="5"/>
       <c r="C454" s="5"/>
@@ -17075,7 +17441,7 @@
       <c r="AD454" s="5"/>
       <c r="AE454" s="5"/>
     </row>
-    <row r="455">
+    <row r="455" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A455" s="5"/>
       <c r="B455" s="5"/>
       <c r="C455" s="5"/>
@@ -17108,7 +17474,7 @@
       <c r="AD455" s="5"/>
       <c r="AE455" s="5"/>
     </row>
-    <row r="456">
+    <row r="456" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A456" s="5"/>
       <c r="B456" s="5"/>
       <c r="C456" s="5"/>
@@ -17141,7 +17507,7 @@
       <c r="AD456" s="5"/>
       <c r="AE456" s="5"/>
     </row>
-    <row r="457">
+    <row r="457" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A457" s="5"/>
       <c r="B457" s="5"/>
       <c r="C457" s="5"/>
@@ -17174,7 +17540,7 @@
       <c r="AD457" s="5"/>
       <c r="AE457" s="5"/>
     </row>
-    <row r="458">
+    <row r="458" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A458" s="5"/>
       <c r="B458" s="5"/>
       <c r="C458" s="5"/>
@@ -17207,7 +17573,7 @@
       <c r="AD458" s="5"/>
       <c r="AE458" s="5"/>
     </row>
-    <row r="459">
+    <row r="459" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A459" s="5"/>
       <c r="B459" s="5"/>
       <c r="C459" s="5"/>
@@ -17240,7 +17606,7 @@
       <c r="AD459" s="5"/>
       <c r="AE459" s="5"/>
     </row>
-    <row r="460">
+    <row r="460" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A460" s="5"/>
       <c r="B460" s="5"/>
       <c r="C460" s="5"/>
@@ -17273,7 +17639,7 @@
       <c r="AD460" s="5"/>
       <c r="AE460" s="5"/>
     </row>
-    <row r="461">
+    <row r="461" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A461" s="5"/>
       <c r="B461" s="5"/>
       <c r="C461" s="5"/>
@@ -17306,7 +17672,7 @@
       <c r="AD461" s="5"/>
       <c r="AE461" s="5"/>
     </row>
-    <row r="462">
+    <row r="462" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A462" s="5"/>
       <c r="B462" s="5"/>
       <c r="C462" s="5"/>
@@ -17339,7 +17705,7 @@
       <c r="AD462" s="5"/>
       <c r="AE462" s="5"/>
     </row>
-    <row r="463">
+    <row r="463" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A463" s="5"/>
       <c r="B463" s="5"/>
       <c r="C463" s="5"/>
@@ -17372,7 +17738,7 @@
       <c r="AD463" s="5"/>
       <c r="AE463" s="5"/>
     </row>
-    <row r="464">
+    <row r="464" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A464" s="5"/>
       <c r="B464" s="5"/>
       <c r="C464" s="5"/>
@@ -17405,7 +17771,7 @@
       <c r="AD464" s="5"/>
       <c r="AE464" s="5"/>
     </row>
-    <row r="465">
+    <row r="465" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A465" s="5"/>
       <c r="B465" s="5"/>
       <c r="C465" s="5"/>
@@ -17438,7 +17804,7 @@
       <c r="AD465" s="5"/>
       <c r="AE465" s="5"/>
     </row>
-    <row r="466">
+    <row r="466" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A466" s="5"/>
       <c r="B466" s="5"/>
       <c r="C466" s="5"/>
@@ -17471,7 +17837,7 @@
       <c r="AD466" s="5"/>
       <c r="AE466" s="5"/>
     </row>
-    <row r="467">
+    <row r="467" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A467" s="5"/>
       <c r="B467" s="5"/>
       <c r="C467" s="5"/>
@@ -17504,7 +17870,7 @@
       <c r="AD467" s="5"/>
       <c r="AE467" s="5"/>
     </row>
-    <row r="468">
+    <row r="468" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A468" s="5"/>
       <c r="B468" s="5"/>
       <c r="C468" s="5"/>
@@ -17537,7 +17903,7 @@
       <c r="AD468" s="5"/>
       <c r="AE468" s="5"/>
     </row>
-    <row r="469">
+    <row r="469" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A469" s="5"/>
       <c r="B469" s="5"/>
       <c r="C469" s="5"/>
@@ -17570,7 +17936,7 @@
       <c r="AD469" s="5"/>
       <c r="AE469" s="5"/>
     </row>
-    <row r="470">
+    <row r="470" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A470" s="5"/>
       <c r="B470" s="5"/>
       <c r="C470" s="5"/>
@@ -17603,7 +17969,7 @@
       <c r="AD470" s="5"/>
       <c r="AE470" s="5"/>
     </row>
-    <row r="471">
+    <row r="471" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A471" s="5"/>
       <c r="B471" s="5"/>
       <c r="C471" s="5"/>
@@ -17636,7 +18002,7 @@
       <c r="AD471" s="5"/>
       <c r="AE471" s="5"/>
     </row>
-    <row r="472">
+    <row r="472" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A472" s="5"/>
       <c r="B472" s="5"/>
       <c r="C472" s="5"/>
@@ -17669,7 +18035,7 @@
       <c r="AD472" s="5"/>
       <c r="AE472" s="5"/>
     </row>
-    <row r="473">
+    <row r="473" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A473" s="5"/>
       <c r="B473" s="5"/>
       <c r="C473" s="5"/>
@@ -17702,7 +18068,7 @@
       <c r="AD473" s="5"/>
       <c r="AE473" s="5"/>
     </row>
-    <row r="474">
+    <row r="474" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A474" s="5"/>
       <c r="B474" s="5"/>
       <c r="C474" s="5"/>
@@ -17735,7 +18101,7 @@
       <c r="AD474" s="5"/>
       <c r="AE474" s="5"/>
     </row>
-    <row r="475">
+    <row r="475" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A475" s="5"/>
       <c r="B475" s="5"/>
       <c r="C475" s="5"/>
@@ -17768,7 +18134,7 @@
       <c r="AD475" s="5"/>
       <c r="AE475" s="5"/>
     </row>
-    <row r="476">
+    <row r="476" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A476" s="5"/>
       <c r="B476" s="5"/>
       <c r="C476" s="5"/>
@@ -17801,7 +18167,7 @@
       <c r="AD476" s="5"/>
       <c r="AE476" s="5"/>
     </row>
-    <row r="477">
+    <row r="477" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A477" s="5"/>
       <c r="B477" s="5"/>
       <c r="C477" s="5"/>
@@ -17834,7 +18200,7 @@
       <c r="AD477" s="5"/>
       <c r="AE477" s="5"/>
     </row>
-    <row r="478">
+    <row r="478" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A478" s="5"/>
       <c r="B478" s="5"/>
       <c r="C478" s="5"/>
@@ -17867,7 +18233,7 @@
       <c r="AD478" s="5"/>
       <c r="AE478" s="5"/>
     </row>
-    <row r="479">
+    <row r="479" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A479" s="5"/>
       <c r="B479" s="5"/>
       <c r="C479" s="5"/>
@@ -17900,7 +18266,7 @@
       <c r="AD479" s="5"/>
       <c r="AE479" s="5"/>
     </row>
-    <row r="480">
+    <row r="480" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A480" s="5"/>
       <c r="B480" s="5"/>
       <c r="C480" s="5"/>
@@ -17933,7 +18299,7 @@
       <c r="AD480" s="5"/>
       <c r="AE480" s="5"/>
     </row>
-    <row r="481">
+    <row r="481" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A481" s="5"/>
       <c r="B481" s="5"/>
       <c r="C481" s="5"/>
@@ -17966,7 +18332,7 @@
       <c r="AD481" s="5"/>
       <c r="AE481" s="5"/>
     </row>
-    <row r="482">
+    <row r="482" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A482" s="5"/>
       <c r="B482" s="5"/>
       <c r="C482" s="5"/>
@@ -17999,7 +18365,7 @@
       <c r="AD482" s="5"/>
       <c r="AE482" s="5"/>
     </row>
-    <row r="483">
+    <row r="483" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A483" s="5"/>
       <c r="B483" s="5"/>
       <c r="C483" s="5"/>
@@ -18032,7 +18398,7 @@
       <c r="AD483" s="5"/>
       <c r="AE483" s="5"/>
     </row>
-    <row r="484">
+    <row r="484" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A484" s="5"/>
       <c r="B484" s="5"/>
       <c r="C484" s="5"/>
@@ -18065,7 +18431,7 @@
       <c r="AD484" s="5"/>
       <c r="AE484" s="5"/>
     </row>
-    <row r="485">
+    <row r="485" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A485" s="5"/>
       <c r="B485" s="5"/>
       <c r="C485" s="5"/>
@@ -18098,7 +18464,7 @@
       <c r="AD485" s="5"/>
       <c r="AE485" s="5"/>
     </row>
-    <row r="486">
+    <row r="486" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A486" s="5"/>
       <c r="B486" s="5"/>
       <c r="C486" s="5"/>
@@ -18131,7 +18497,7 @@
       <c r="AD486" s="5"/>
       <c r="AE486" s="5"/>
     </row>
-    <row r="487">
+    <row r="487" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A487" s="5"/>
       <c r="B487" s="5"/>
       <c r="C487" s="5"/>
@@ -18164,7 +18530,7 @@
       <c r="AD487" s="5"/>
       <c r="AE487" s="5"/>
     </row>
-    <row r="488">
+    <row r="488" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A488" s="5"/>
       <c r="B488" s="5"/>
       <c r="C488" s="5"/>
@@ -18197,7 +18563,7 @@
       <c r="AD488" s="5"/>
       <c r="AE488" s="5"/>
     </row>
-    <row r="489">
+    <row r="489" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A489" s="5"/>
       <c r="B489" s="5"/>
       <c r="C489" s="5"/>
@@ -18230,7 +18596,7 @@
       <c r="AD489" s="5"/>
       <c r="AE489" s="5"/>
     </row>
-    <row r="490">
+    <row r="490" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A490" s="5"/>
       <c r="B490" s="5"/>
       <c r="C490" s="5"/>
@@ -18263,7 +18629,7 @@
       <c r="AD490" s="5"/>
       <c r="AE490" s="5"/>
     </row>
-    <row r="491">
+    <row r="491" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A491" s="5"/>
       <c r="B491" s="5"/>
       <c r="C491" s="5"/>
@@ -18296,7 +18662,7 @@
       <c r="AD491" s="5"/>
       <c r="AE491" s="5"/>
     </row>
-    <row r="492">
+    <row r="492" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A492" s="5"/>
       <c r="B492" s="5"/>
       <c r="C492" s="5"/>
@@ -18329,7 +18695,7 @@
       <c r="AD492" s="5"/>
       <c r="AE492" s="5"/>
     </row>
-    <row r="493">
+    <row r="493" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A493" s="5"/>
       <c r="B493" s="5"/>
       <c r="C493" s="5"/>
@@ -18362,7 +18728,7 @@
       <c r="AD493" s="5"/>
       <c r="AE493" s="5"/>
     </row>
-    <row r="494">
+    <row r="494" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A494" s="5"/>
       <c r="B494" s="5"/>
       <c r="C494" s="5"/>
@@ -18395,7 +18761,7 @@
       <c r="AD494" s="5"/>
       <c r="AE494" s="5"/>
     </row>
-    <row r="495">
+    <row r="495" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A495" s="5"/>
       <c r="B495" s="5"/>
       <c r="C495" s="5"/>
@@ -18428,7 +18794,7 @@
       <c r="AD495" s="5"/>
       <c r="AE495" s="5"/>
     </row>
-    <row r="496">
+    <row r="496" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A496" s="5"/>
       <c r="B496" s="5"/>
       <c r="C496" s="5"/>
@@ -18461,7 +18827,7 @@
       <c r="AD496" s="5"/>
       <c r="AE496" s="5"/>
     </row>
-    <row r="497">
+    <row r="497" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A497" s="5"/>
       <c r="B497" s="5"/>
       <c r="C497" s="5"/>
@@ -18494,7 +18860,7 @@
       <c r="AD497" s="5"/>
       <c r="AE497" s="5"/>
     </row>
-    <row r="498">
+    <row r="498" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A498" s="5"/>
       <c r="B498" s="5"/>
       <c r="C498" s="5"/>
@@ -18527,7 +18893,7 @@
       <c r="AD498" s="5"/>
       <c r="AE498" s="5"/>
     </row>
-    <row r="499">
+    <row r="499" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A499" s="5"/>
       <c r="B499" s="5"/>
       <c r="C499" s="5"/>
@@ -18560,7 +18926,7 @@
       <c r="AD499" s="5"/>
       <c r="AE499" s="5"/>
     </row>
-    <row r="500">
+    <row r="500" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A500" s="5"/>
       <c r="B500" s="5"/>
       <c r="C500" s="5"/>
@@ -18593,7 +18959,7 @@
       <c r="AD500" s="5"/>
       <c r="AE500" s="5"/>
     </row>
-    <row r="501">
+    <row r="501" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A501" s="5"/>
       <c r="B501" s="5"/>
       <c r="C501" s="5"/>
@@ -18626,7 +18992,7 @@
       <c r="AD501" s="5"/>
       <c r="AE501" s="5"/>
     </row>
-    <row r="502">
+    <row r="502" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A502" s="5"/>
       <c r="B502" s="5"/>
       <c r="C502" s="5"/>
@@ -18659,7 +19025,7 @@
       <c r="AD502" s="5"/>
       <c r="AE502" s="5"/>
     </row>
-    <row r="503">
+    <row r="503" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A503" s="5"/>
       <c r="B503" s="5"/>
       <c r="C503" s="5"/>
@@ -18692,7 +19058,7 @@
       <c r="AD503" s="5"/>
       <c r="AE503" s="5"/>
     </row>
-    <row r="504">
+    <row r="504" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A504" s="5"/>
       <c r="B504" s="5"/>
       <c r="C504" s="5"/>
@@ -18725,7 +19091,7 @@
       <c r="AD504" s="5"/>
       <c r="AE504" s="5"/>
     </row>
-    <row r="505">
+    <row r="505" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A505" s="5"/>
       <c r="B505" s="5"/>
       <c r="C505" s="5"/>
@@ -18758,7 +19124,7 @@
       <c r="AD505" s="5"/>
       <c r="AE505" s="5"/>
     </row>
-    <row r="506">
+    <row r="506" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A506" s="5"/>
       <c r="B506" s="5"/>
       <c r="C506" s="5"/>
@@ -18791,7 +19157,7 @@
       <c r="AD506" s="5"/>
       <c r="AE506" s="5"/>
     </row>
-    <row r="507">
+    <row r="507" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A507" s="5"/>
       <c r="B507" s="5"/>
       <c r="C507" s="5"/>
@@ -18824,7 +19190,7 @@
       <c r="AD507" s="5"/>
       <c r="AE507" s="5"/>
     </row>
-    <row r="508">
+    <row r="508" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A508" s="5"/>
       <c r="B508" s="5"/>
       <c r="C508" s="5"/>
@@ -18857,7 +19223,7 @@
       <c r="AD508" s="5"/>
       <c r="AE508" s="5"/>
     </row>
-    <row r="509">
+    <row r="509" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A509" s="5"/>
       <c r="B509" s="5"/>
       <c r="C509" s="5"/>
@@ -18890,7 +19256,7 @@
       <c r="AD509" s="5"/>
       <c r="AE509" s="5"/>
     </row>
-    <row r="510">
+    <row r="510" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A510" s="5"/>
       <c r="B510" s="5"/>
       <c r="C510" s="5"/>
@@ -18923,7 +19289,7 @@
       <c r="AD510" s="5"/>
       <c r="AE510" s="5"/>
     </row>
-    <row r="511">
+    <row r="511" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A511" s="5"/>
       <c r="B511" s="5"/>
       <c r="C511" s="5"/>
@@ -18956,7 +19322,7 @@
       <c r="AD511" s="5"/>
       <c r="AE511" s="5"/>
     </row>
-    <row r="512">
+    <row r="512" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A512" s="5"/>
       <c r="B512" s="5"/>
       <c r="C512" s="5"/>
@@ -18989,7 +19355,7 @@
       <c r="AD512" s="5"/>
       <c r="AE512" s="5"/>
     </row>
-    <row r="513">
+    <row r="513" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A513" s="5"/>
       <c r="B513" s="5"/>
       <c r="C513" s="5"/>
@@ -19022,7 +19388,7 @@
       <c r="AD513" s="5"/>
       <c r="AE513" s="5"/>
     </row>
-    <row r="514">
+    <row r="514" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A514" s="5"/>
       <c r="B514" s="5"/>
       <c r="C514" s="5"/>
@@ -19055,7 +19421,7 @@
       <c r="AD514" s="5"/>
       <c r="AE514" s="5"/>
     </row>
-    <row r="515">
+    <row r="515" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A515" s="5"/>
       <c r="B515" s="5"/>
       <c r="C515" s="5"/>
@@ -19088,7 +19454,7 @@
       <c r="AD515" s="5"/>
       <c r="AE515" s="5"/>
     </row>
-    <row r="516">
+    <row r="516" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A516" s="5"/>
       <c r="B516" s="5"/>
       <c r="C516" s="5"/>
@@ -19121,7 +19487,7 @@
       <c r="AD516" s="5"/>
       <c r="AE516" s="5"/>
     </row>
-    <row r="517">
+    <row r="517" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A517" s="5"/>
       <c r="B517" s="5"/>
       <c r="C517" s="5"/>
@@ -19154,7 +19520,7 @@
       <c r="AD517" s="5"/>
       <c r="AE517" s="5"/>
     </row>
-    <row r="518">
+    <row r="518" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A518" s="5"/>
       <c r="B518" s="5"/>
       <c r="C518" s="5"/>
@@ -19187,7 +19553,7 @@
       <c r="AD518" s="5"/>
       <c r="AE518" s="5"/>
     </row>
-    <row r="519">
+    <row r="519" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A519" s="5"/>
       <c r="B519" s="5"/>
       <c r="C519" s="5"/>
@@ -19220,7 +19586,7 @@
       <c r="AD519" s="5"/>
       <c r="AE519" s="5"/>
     </row>
-    <row r="520">
+    <row r="520" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A520" s="5"/>
       <c r="B520" s="5"/>
       <c r="C520" s="5"/>
@@ -19253,7 +19619,7 @@
       <c r="AD520" s="5"/>
       <c r="AE520" s="5"/>
     </row>
-    <row r="521">
+    <row r="521" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A521" s="5"/>
       <c r="B521" s="5"/>
       <c r="C521" s="5"/>
@@ -19286,7 +19652,7 @@
       <c r="AD521" s="5"/>
       <c r="AE521" s="5"/>
     </row>
-    <row r="522">
+    <row r="522" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A522" s="5"/>
       <c r="B522" s="5"/>
       <c r="C522" s="5"/>
@@ -19319,7 +19685,7 @@
       <c r="AD522" s="5"/>
       <c r="AE522" s="5"/>
     </row>
-    <row r="523">
+    <row r="523" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A523" s="5"/>
       <c r="B523" s="5"/>
       <c r="C523" s="5"/>
@@ -19352,7 +19718,7 @@
       <c r="AD523" s="5"/>
       <c r="AE523" s="5"/>
     </row>
-    <row r="524">
+    <row r="524" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A524" s="5"/>
       <c r="B524" s="5"/>
       <c r="C524" s="5"/>
@@ -19385,7 +19751,7 @@
       <c r="AD524" s="5"/>
       <c r="AE524" s="5"/>
     </row>
-    <row r="525">
+    <row r="525" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A525" s="5"/>
       <c r="B525" s="5"/>
       <c r="C525" s="5"/>
@@ -19418,7 +19784,7 @@
       <c r="AD525" s="5"/>
       <c r="AE525" s="5"/>
     </row>
-    <row r="526">
+    <row r="526" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A526" s="5"/>
       <c r="B526" s="5"/>
       <c r="C526" s="5"/>
@@ -19451,7 +19817,7 @@
       <c r="AD526" s="5"/>
       <c r="AE526" s="5"/>
     </row>
-    <row r="527">
+    <row r="527" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A527" s="5"/>
       <c r="B527" s="5"/>
       <c r="C527" s="5"/>
@@ -19484,7 +19850,7 @@
       <c r="AD527" s="5"/>
       <c r="AE527" s="5"/>
     </row>
-    <row r="528">
+    <row r="528" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A528" s="5"/>
       <c r="B528" s="5"/>
       <c r="C528" s="5"/>
@@ -19517,7 +19883,7 @@
       <c r="AD528" s="5"/>
       <c r="AE528" s="5"/>
     </row>
-    <row r="529">
+    <row r="529" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A529" s="5"/>
       <c r="B529" s="5"/>
       <c r="C529" s="5"/>
@@ -19550,7 +19916,7 @@
       <c r="AD529" s="5"/>
       <c r="AE529" s="5"/>
     </row>
-    <row r="530">
+    <row r="530" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A530" s="5"/>
       <c r="B530" s="5"/>
       <c r="C530" s="5"/>
@@ -19583,7 +19949,7 @@
       <c r="AD530" s="5"/>
       <c r="AE530" s="5"/>
     </row>
-    <row r="531">
+    <row r="531" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A531" s="5"/>
       <c r="B531" s="5"/>
       <c r="C531" s="5"/>
@@ -19616,7 +19982,7 @@
       <c r="AD531" s="5"/>
       <c r="AE531" s="5"/>
     </row>
-    <row r="532">
+    <row r="532" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A532" s="5"/>
       <c r="B532" s="5"/>
       <c r="C532" s="5"/>
@@ -19649,7 +20015,7 @@
       <c r="AD532" s="5"/>
       <c r="AE532" s="5"/>
     </row>
-    <row r="533">
+    <row r="533" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A533" s="5"/>
       <c r="B533" s="5"/>
       <c r="C533" s="5"/>
@@ -19682,7 +20048,7 @@
       <c r="AD533" s="5"/>
       <c r="AE533" s="5"/>
     </row>
-    <row r="534">
+    <row r="534" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A534" s="5"/>
       <c r="B534" s="5"/>
       <c r="C534" s="5"/>
@@ -19715,7 +20081,7 @@
       <c r="AD534" s="5"/>
       <c r="AE534" s="5"/>
     </row>
-    <row r="535">
+    <row r="535" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A535" s="5"/>
       <c r="B535" s="5"/>
       <c r="C535" s="5"/>
@@ -19748,7 +20114,7 @@
       <c r="AD535" s="5"/>
       <c r="AE535" s="5"/>
     </row>
-    <row r="536">
+    <row r="536" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A536" s="5"/>
       <c r="B536" s="5"/>
       <c r="C536" s="5"/>
@@ -19781,7 +20147,7 @@
       <c r="AD536" s="5"/>
       <c r="AE536" s="5"/>
     </row>
-    <row r="537">
+    <row r="537" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A537" s="5"/>
       <c r="B537" s="5"/>
       <c r="C537" s="5"/>
@@ -19814,7 +20180,7 @@
       <c r="AD537" s="5"/>
       <c r="AE537" s="5"/>
     </row>
-    <row r="538">
+    <row r="538" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A538" s="5"/>
       <c r="B538" s="5"/>
       <c r="C538" s="5"/>
@@ -19847,7 +20213,7 @@
       <c r="AD538" s="5"/>
       <c r="AE538" s="5"/>
     </row>
-    <row r="539">
+    <row r="539" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A539" s="5"/>
       <c r="B539" s="5"/>
       <c r="C539" s="5"/>
@@ -19880,7 +20246,7 @@
       <c r="AD539" s="5"/>
       <c r="AE539" s="5"/>
     </row>
-    <row r="540">
+    <row r="540" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A540" s="5"/>
       <c r="B540" s="5"/>
       <c r="C540" s="5"/>
@@ -19913,7 +20279,7 @@
       <c r="AD540" s="5"/>
       <c r="AE540" s="5"/>
     </row>
-    <row r="541">
+    <row r="541" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A541" s="5"/>
       <c r="B541" s="5"/>
       <c r="C541" s="5"/>
@@ -19946,7 +20312,7 @@
       <c r="AD541" s="5"/>
       <c r="AE541" s="5"/>
     </row>
-    <row r="542">
+    <row r="542" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A542" s="5"/>
       <c r="B542" s="5"/>
       <c r="C542" s="5"/>
@@ -19979,7 +20345,7 @@
       <c r="AD542" s="5"/>
       <c r="AE542" s="5"/>
     </row>
-    <row r="543">
+    <row r="543" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A543" s="5"/>
       <c r="B543" s="5"/>
       <c r="C543" s="5"/>
@@ -20012,7 +20378,7 @@
       <c r="AD543" s="5"/>
       <c r="AE543" s="5"/>
     </row>
-    <row r="544">
+    <row r="544" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A544" s="5"/>
       <c r="B544" s="5"/>
       <c r="C544" s="5"/>
@@ -20045,7 +20411,7 @@
       <c r="AD544" s="5"/>
       <c r="AE544" s="5"/>
     </row>
-    <row r="545">
+    <row r="545" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A545" s="5"/>
       <c r="B545" s="5"/>
       <c r="C545" s="5"/>
@@ -20078,7 +20444,7 @@
       <c r="AD545" s="5"/>
       <c r="AE545" s="5"/>
     </row>
-    <row r="546">
+    <row r="546" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A546" s="5"/>
       <c r="B546" s="5"/>
       <c r="C546" s="5"/>
@@ -20111,7 +20477,7 @@
       <c r="AD546" s="5"/>
       <c r="AE546" s="5"/>
     </row>
-    <row r="547">
+    <row r="547" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A547" s="5"/>
       <c r="B547" s="5"/>
       <c r="C547" s="5"/>
@@ -20144,7 +20510,7 @@
       <c r="AD547" s="5"/>
       <c r="AE547" s="5"/>
     </row>
-    <row r="548">
+    <row r="548" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A548" s="5"/>
       <c r="B548" s="5"/>
       <c r="C548" s="5"/>
@@ -20177,7 +20543,7 @@
       <c r="AD548" s="5"/>
       <c r="AE548" s="5"/>
     </row>
-    <row r="549">
+    <row r="549" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A549" s="5"/>
       <c r="B549" s="5"/>
       <c r="C549" s="5"/>
@@ -20210,7 +20576,7 @@
       <c r="AD549" s="5"/>
       <c r="AE549" s="5"/>
     </row>
-    <row r="550">
+    <row r="550" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A550" s="5"/>
       <c r="B550" s="5"/>
       <c r="C550" s="5"/>
@@ -20243,7 +20609,7 @@
       <c r="AD550" s="5"/>
       <c r="AE550" s="5"/>
     </row>
-    <row r="551">
+    <row r="551" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A551" s="5"/>
       <c r="B551" s="5"/>
       <c r="C551" s="5"/>
@@ -20276,7 +20642,7 @@
       <c r="AD551" s="5"/>
       <c r="AE551" s="5"/>
     </row>
-    <row r="552">
+    <row r="552" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A552" s="5"/>
       <c r="B552" s="5"/>
       <c r="C552" s="5"/>
@@ -20309,7 +20675,7 @@
       <c r="AD552" s="5"/>
       <c r="AE552" s="5"/>
     </row>
-    <row r="553">
+    <row r="553" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A553" s="5"/>
       <c r="B553" s="5"/>
       <c r="C553" s="5"/>
@@ -20342,7 +20708,7 @@
       <c r="AD553" s="5"/>
       <c r="AE553" s="5"/>
     </row>
-    <row r="554">
+    <row r="554" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A554" s="5"/>
       <c r="B554" s="5"/>
       <c r="C554" s="5"/>
@@ -20375,7 +20741,7 @@
       <c r="AD554" s="5"/>
       <c r="AE554" s="5"/>
     </row>
-    <row r="555">
+    <row r="555" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A555" s="5"/>
       <c r="B555" s="5"/>
       <c r="C555" s="5"/>
@@ -20408,7 +20774,7 @@
       <c r="AD555" s="5"/>
       <c r="AE555" s="5"/>
     </row>
-    <row r="556">
+    <row r="556" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A556" s="5"/>
       <c r="B556" s="5"/>
       <c r="C556" s="5"/>
@@ -20441,7 +20807,7 @@
       <c r="AD556" s="5"/>
       <c r="AE556" s="5"/>
     </row>
-    <row r="557">
+    <row r="557" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A557" s="5"/>
       <c r="B557" s="5"/>
       <c r="C557" s="5"/>
@@ -20474,7 +20840,7 @@
       <c r="AD557" s="5"/>
       <c r="AE557" s="5"/>
     </row>
-    <row r="558">
+    <row r="558" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A558" s="5"/>
       <c r="B558" s="5"/>
       <c r="C558" s="5"/>
@@ -20507,7 +20873,7 @@
       <c r="AD558" s="5"/>
       <c r="AE558" s="5"/>
     </row>
-    <row r="559">
+    <row r="559" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A559" s="5"/>
       <c r="B559" s="5"/>
       <c r="C559" s="5"/>
@@ -20540,7 +20906,7 @@
       <c r="AD559" s="5"/>
       <c r="AE559" s="5"/>
     </row>
-    <row r="560">
+    <row r="560" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A560" s="5"/>
       <c r="B560" s="5"/>
       <c r="C560" s="5"/>
@@ -20573,7 +20939,7 @@
       <c r="AD560" s="5"/>
       <c r="AE560" s="5"/>
     </row>
-    <row r="561">
+    <row r="561" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A561" s="5"/>
       <c r="B561" s="5"/>
       <c r="C561" s="5"/>
@@ -20606,7 +20972,7 @@
       <c r="AD561" s="5"/>
       <c r="AE561" s="5"/>
     </row>
-    <row r="562">
+    <row r="562" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A562" s="5"/>
       <c r="B562" s="5"/>
       <c r="C562" s="5"/>
@@ -20639,7 +21005,7 @@
       <c r="AD562" s="5"/>
       <c r="AE562" s="5"/>
     </row>
-    <row r="563">
+    <row r="563" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A563" s="5"/>
       <c r="B563" s="5"/>
       <c r="C563" s="5"/>
@@ -20672,7 +21038,7 @@
       <c r="AD563" s="5"/>
       <c r="AE563" s="5"/>
     </row>
-    <row r="564">
+    <row r="564" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A564" s="5"/>
       <c r="B564" s="5"/>
       <c r="C564" s="5"/>
@@ -20705,7 +21071,7 @@
       <c r="AD564" s="5"/>
       <c r="AE564" s="5"/>
     </row>
-    <row r="565">
+    <row r="565" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A565" s="5"/>
       <c r="B565" s="5"/>
       <c r="C565" s="5"/>
@@ -20738,7 +21104,7 @@
       <c r="AD565" s="5"/>
       <c r="AE565" s="5"/>
     </row>
-    <row r="566">
+    <row r="566" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A566" s="5"/>
       <c r="B566" s="5"/>
       <c r="C566" s="5"/>
@@ -20771,7 +21137,7 @@
       <c r="AD566" s="5"/>
       <c r="AE566" s="5"/>
     </row>
-    <row r="567">
+    <row r="567" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A567" s="5"/>
       <c r="B567" s="5"/>
       <c r="C567" s="5"/>
@@ -20804,7 +21170,7 @@
       <c r="AD567" s="5"/>
       <c r="AE567" s="5"/>
     </row>
-    <row r="568">
+    <row r="568" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A568" s="5"/>
       <c r="B568" s="5"/>
       <c r="C568" s="5"/>
@@ -20837,7 +21203,7 @@
       <c r="AD568" s="5"/>
       <c r="AE568" s="5"/>
     </row>
-    <row r="569">
+    <row r="569" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A569" s="5"/>
       <c r="B569" s="5"/>
       <c r="C569" s="5"/>
@@ -20870,7 +21236,7 @@
       <c r="AD569" s="5"/>
       <c r="AE569" s="5"/>
     </row>
-    <row r="570">
+    <row r="570" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A570" s="5"/>
       <c r="B570" s="5"/>
       <c r="C570" s="5"/>
@@ -20903,7 +21269,7 @@
       <c r="AD570" s="5"/>
       <c r="AE570" s="5"/>
     </row>
-    <row r="571">
+    <row r="571" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A571" s="5"/>
       <c r="B571" s="5"/>
       <c r="C571" s="5"/>
@@ -20936,7 +21302,7 @@
       <c r="AD571" s="5"/>
       <c r="AE571" s="5"/>
     </row>
-    <row r="572">
+    <row r="572" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A572" s="5"/>
       <c r="B572" s="5"/>
       <c r="C572" s="5"/>
@@ -20969,7 +21335,7 @@
       <c r="AD572" s="5"/>
       <c r="AE572" s="5"/>
     </row>
-    <row r="573">
+    <row r="573" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A573" s="5"/>
       <c r="B573" s="5"/>
       <c r="C573" s="5"/>
@@ -21002,7 +21368,7 @@
       <c r="AD573" s="5"/>
       <c r="AE573" s="5"/>
     </row>
-    <row r="574">
+    <row r="574" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A574" s="5"/>
       <c r="B574" s="5"/>
       <c r="C574" s="5"/>
@@ -21035,7 +21401,7 @@
       <c r="AD574" s="5"/>
       <c r="AE574" s="5"/>
     </row>
-    <row r="575">
+    <row r="575" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A575" s="5"/>
       <c r="B575" s="5"/>
       <c r="C575" s="5"/>
@@ -21068,7 +21434,7 @@
       <c r="AD575" s="5"/>
       <c r="AE575" s="5"/>
     </row>
-    <row r="576">
+    <row r="576" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A576" s="5"/>
       <c r="B576" s="5"/>
       <c r="C576" s="5"/>
@@ -21101,7 +21467,7 @@
       <c r="AD576" s="5"/>
       <c r="AE576" s="5"/>
     </row>
-    <row r="577">
+    <row r="577" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A577" s="5"/>
       <c r="B577" s="5"/>
       <c r="C577" s="5"/>
@@ -21134,7 +21500,7 @@
       <c r="AD577" s="5"/>
       <c r="AE577" s="5"/>
     </row>
-    <row r="578">
+    <row r="578" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A578" s="5"/>
       <c r="B578" s="5"/>
       <c r="C578" s="5"/>
@@ -21167,7 +21533,7 @@
       <c r="AD578" s="5"/>
       <c r="AE578" s="5"/>
     </row>
-    <row r="579">
+    <row r="579" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A579" s="5"/>
       <c r="B579" s="5"/>
       <c r="C579" s="5"/>
@@ -21200,7 +21566,7 @@
       <c r="AD579" s="5"/>
       <c r="AE579" s="5"/>
     </row>
-    <row r="580">
+    <row r="580" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A580" s="5"/>
       <c r="B580" s="5"/>
       <c r="C580" s="5"/>
@@ -21233,7 +21599,7 @@
       <c r="AD580" s="5"/>
       <c r="AE580" s="5"/>
     </row>
-    <row r="581">
+    <row r="581" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A581" s="5"/>
       <c r="B581" s="5"/>
       <c r="C581" s="5"/>
@@ -21266,7 +21632,7 @@
       <c r="AD581" s="5"/>
       <c r="AE581" s="5"/>
     </row>
-    <row r="582">
+    <row r="582" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A582" s="5"/>
       <c r="B582" s="5"/>
       <c r="C582" s="5"/>
@@ -21299,7 +21665,7 @@
       <c r="AD582" s="5"/>
       <c r="AE582" s="5"/>
     </row>
-    <row r="583">
+    <row r="583" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A583" s="5"/>
       <c r="B583" s="5"/>
       <c r="C583" s="5"/>
@@ -21332,7 +21698,7 @@
       <c r="AD583" s="5"/>
       <c r="AE583" s="5"/>
     </row>
-    <row r="584">
+    <row r="584" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A584" s="5"/>
       <c r="B584" s="5"/>
       <c r="C584" s="5"/>
@@ -21365,7 +21731,7 @@
       <c r="AD584" s="5"/>
       <c r="AE584" s="5"/>
     </row>
-    <row r="585">
+    <row r="585" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A585" s="5"/>
       <c r="B585" s="5"/>
       <c r="C585" s="5"/>
@@ -21398,7 +21764,7 @@
       <c r="AD585" s="5"/>
       <c r="AE585" s="5"/>
     </row>
-    <row r="586">
+    <row r="586" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A586" s="5"/>
       <c r="B586" s="5"/>
       <c r="C586" s="5"/>
@@ -21431,7 +21797,7 @@
       <c r="AD586" s="5"/>
       <c r="AE586" s="5"/>
     </row>
-    <row r="587">
+    <row r="587" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A587" s="5"/>
       <c r="B587" s="5"/>
       <c r="C587" s="5"/>
@@ -21464,7 +21830,7 @@
       <c r="AD587" s="5"/>
       <c r="AE587" s="5"/>
     </row>
-    <row r="588">
+    <row r="588" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A588" s="5"/>
       <c r="B588" s="5"/>
       <c r="C588" s="5"/>
@@ -21497,7 +21863,7 @@
       <c r="AD588" s="5"/>
       <c r="AE588" s="5"/>
     </row>
-    <row r="589">
+    <row r="589" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A589" s="5"/>
       <c r="B589" s="5"/>
       <c r="C589" s="5"/>
@@ -21530,7 +21896,7 @@
       <c r="AD589" s="5"/>
       <c r="AE589" s="5"/>
     </row>
-    <row r="590">
+    <row r="590" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A590" s="5"/>
       <c r="B590" s="5"/>
       <c r="C590" s="5"/>
@@ -21563,7 +21929,7 @@
       <c r="AD590" s="5"/>
       <c r="AE590" s="5"/>
     </row>
-    <row r="591">
+    <row r="591" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A591" s="5"/>
       <c r="B591" s="5"/>
       <c r="C591" s="5"/>
@@ -21596,7 +21962,7 @@
       <c r="AD591" s="5"/>
       <c r="AE591" s="5"/>
     </row>
-    <row r="592">
+    <row r="592" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A592" s="5"/>
       <c r="B592" s="5"/>
       <c r="C592" s="5"/>
@@ -21629,7 +21995,7 @@
       <c r="AD592" s="5"/>
       <c r="AE592" s="5"/>
     </row>
-    <row r="593">
+    <row r="593" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A593" s="5"/>
       <c r="B593" s="5"/>
       <c r="C593" s="5"/>
@@ -21662,7 +22028,7 @@
       <c r="AD593" s="5"/>
       <c r="AE593" s="5"/>
     </row>
-    <row r="594">
+    <row r="594" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A594" s="5"/>
       <c r="B594" s="5"/>
       <c r="C594" s="5"/>
@@ -21695,7 +22061,7 @@
       <c r="AD594" s="5"/>
       <c r="AE594" s="5"/>
     </row>
-    <row r="595">
+    <row r="595" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A595" s="5"/>
       <c r="B595" s="5"/>
       <c r="C595" s="5"/>
@@ -21728,7 +22094,7 @@
       <c r="AD595" s="5"/>
       <c r="AE595" s="5"/>
     </row>
-    <row r="596">
+    <row r="596" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A596" s="5"/>
       <c r="B596" s="5"/>
       <c r="C596" s="5"/>
@@ -21761,7 +22127,7 @@
       <c r="AD596" s="5"/>
       <c r="AE596" s="5"/>
     </row>
-    <row r="597">
+    <row r="597" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A597" s="5"/>
       <c r="B597" s="5"/>
       <c r="C597" s="5"/>
@@ -21794,7 +22160,7 @@
       <c r="AD597" s="5"/>
       <c r="AE597" s="5"/>
     </row>
-    <row r="598">
+    <row r="598" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A598" s="5"/>
       <c r="B598" s="5"/>
       <c r="C598" s="5"/>
@@ -21827,7 +22193,7 @@
       <c r="AD598" s="5"/>
       <c r="AE598" s="5"/>
     </row>
-    <row r="599">
+    <row r="599" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A599" s="5"/>
       <c r="B599" s="5"/>
       <c r="C599" s="5"/>
@@ -21860,7 +22226,7 @@
       <c r="AD599" s="5"/>
       <c r="AE599" s="5"/>
     </row>
-    <row r="600">
+    <row r="600" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A600" s="5"/>
       <c r="B600" s="5"/>
       <c r="C600" s="5"/>
@@ -21893,7 +22259,7 @@
       <c r="AD600" s="5"/>
       <c r="AE600" s="5"/>
     </row>
-    <row r="601">
+    <row r="601" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A601" s="5"/>
       <c r="B601" s="5"/>
       <c r="C601" s="5"/>
@@ -21926,7 +22292,7 @@
       <c r="AD601" s="5"/>
       <c r="AE601" s="5"/>
     </row>
-    <row r="602">
+    <row r="602" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A602" s="5"/>
       <c r="B602" s="5"/>
       <c r="C602" s="5"/>
@@ -21959,7 +22325,7 @@
       <c r="AD602" s="5"/>
       <c r="AE602" s="5"/>
     </row>
-    <row r="603">
+    <row r="603" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A603" s="5"/>
       <c r="B603" s="5"/>
       <c r="C603" s="5"/>
@@ -21992,7 +22358,7 @@
       <c r="AD603" s="5"/>
       <c r="AE603" s="5"/>
     </row>
-    <row r="604">
+    <row r="604" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A604" s="5"/>
       <c r="B604" s="5"/>
       <c r="C604" s="5"/>
@@ -22025,7 +22391,7 @@
       <c r="AD604" s="5"/>
       <c r="AE604" s="5"/>
     </row>
-    <row r="605">
+    <row r="605" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A605" s="5"/>
       <c r="B605" s="5"/>
       <c r="C605" s="5"/>
@@ -22058,7 +22424,7 @@
       <c r="AD605" s="5"/>
       <c r="AE605" s="5"/>
     </row>
-    <row r="606">
+    <row r="606" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A606" s="5"/>
       <c r="B606" s="5"/>
       <c r="C606" s="5"/>
@@ -22091,7 +22457,7 @@
       <c r="AD606" s="5"/>
       <c r="AE606" s="5"/>
     </row>
-    <row r="607">
+    <row r="607" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A607" s="5"/>
       <c r="B607" s="5"/>
       <c r="C607" s="5"/>
@@ -22124,7 +22490,7 @@
       <c r="AD607" s="5"/>
       <c r="AE607" s="5"/>
     </row>
-    <row r="608">
+    <row r="608" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A608" s="5"/>
       <c r="B608" s="5"/>
       <c r="C608" s="5"/>
@@ -22157,7 +22523,7 @@
       <c r="AD608" s="5"/>
       <c r="AE608" s="5"/>
     </row>
-    <row r="609">
+    <row r="609" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A609" s="5"/>
       <c r="B609" s="5"/>
       <c r="C609" s="5"/>
@@ -22190,7 +22556,7 @@
       <c r="AD609" s="5"/>
       <c r="AE609" s="5"/>
     </row>
-    <row r="610">
+    <row r="610" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A610" s="5"/>
       <c r="B610" s="5"/>
       <c r="C610" s="5"/>
@@ -22223,7 +22589,7 @@
       <c r="AD610" s="5"/>
       <c r="AE610" s="5"/>
     </row>
-    <row r="611">
+    <row r="611" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A611" s="5"/>
       <c r="B611" s="5"/>
       <c r="C611" s="5"/>
@@ -22256,7 +22622,7 @@
       <c r="AD611" s="5"/>
       <c r="AE611" s="5"/>
     </row>
-    <row r="612">
+    <row r="612" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A612" s="5"/>
       <c r="B612" s="5"/>
       <c r="C612" s="5"/>
@@ -22289,7 +22655,7 @@
       <c r="AD612" s="5"/>
       <c r="AE612" s="5"/>
     </row>
-    <row r="613">
+    <row r="613" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A613" s="5"/>
       <c r="B613" s="5"/>
       <c r="C613" s="5"/>
@@ -22322,7 +22688,7 @@
       <c r="AD613" s="5"/>
       <c r="AE613" s="5"/>
     </row>
-    <row r="614">
+    <row r="614" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A614" s="5"/>
       <c r="B614" s="5"/>
       <c r="C614" s="5"/>
@@ -22355,7 +22721,7 @@
       <c r="AD614" s="5"/>
       <c r="AE614" s="5"/>
     </row>
-    <row r="615">
+    <row r="615" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A615" s="5"/>
       <c r="B615" s="5"/>
       <c r="C615" s="5"/>
@@ -22388,7 +22754,7 @@
       <c r="AD615" s="5"/>
       <c r="AE615" s="5"/>
     </row>
-    <row r="616">
+    <row r="616" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A616" s="5"/>
       <c r="B616" s="5"/>
       <c r="C616" s="5"/>
@@ -22421,7 +22787,7 @@
       <c r="AD616" s="5"/>
       <c r="AE616" s="5"/>
     </row>
-    <row r="617">
+    <row r="617" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A617" s="5"/>
       <c r="B617" s="5"/>
       <c r="C617" s="5"/>
@@ -22454,7 +22820,7 @@
       <c r="AD617" s="5"/>
       <c r="AE617" s="5"/>
     </row>
-    <row r="618">
+    <row r="618" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A618" s="5"/>
       <c r="B618" s="5"/>
       <c r="C618" s="5"/>
@@ -22487,7 +22853,7 @@
       <c r="AD618" s="5"/>
       <c r="AE618" s="5"/>
     </row>
-    <row r="619">
+    <row r="619" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A619" s="5"/>
       <c r="B619" s="5"/>
       <c r="C619" s="5"/>
@@ -22520,7 +22886,7 @@
       <c r="AD619" s="5"/>
       <c r="AE619" s="5"/>
     </row>
-    <row r="620">
+    <row r="620" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A620" s="5"/>
       <c r="B620" s="5"/>
       <c r="C620" s="5"/>
@@ -22553,7 +22919,7 @@
       <c r="AD620" s="5"/>
       <c r="AE620" s="5"/>
     </row>
-    <row r="621">
+    <row r="621" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A621" s="5"/>
       <c r="B621" s="5"/>
       <c r="C621" s="5"/>
@@ -22586,7 +22952,7 @@
       <c r="AD621" s="5"/>
       <c r="AE621" s="5"/>
     </row>
-    <row r="622">
+    <row r="622" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A622" s="5"/>
       <c r="B622" s="5"/>
       <c r="C622" s="5"/>
@@ -22619,7 +22985,7 @@
       <c r="AD622" s="5"/>
       <c r="AE622" s="5"/>
     </row>
-    <row r="623">
+    <row r="623" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A623" s="5"/>
       <c r="B623" s="5"/>
       <c r="C623" s="5"/>
@@ -22652,7 +23018,7 @@
       <c r="AD623" s="5"/>
       <c r="AE623" s="5"/>
     </row>
-    <row r="624">
+    <row r="624" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A624" s="5"/>
       <c r="B624" s="5"/>
       <c r="C624" s="5"/>
@@ -22685,7 +23051,7 @@
       <c r="AD624" s="5"/>
       <c r="AE624" s="5"/>
     </row>
-    <row r="625">
+    <row r="625" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A625" s="5"/>
       <c r="B625" s="5"/>
       <c r="C625" s="5"/>
@@ -22718,7 +23084,7 @@
       <c r="AD625" s="5"/>
       <c r="AE625" s="5"/>
     </row>
-    <row r="626">
+    <row r="626" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A626" s="5"/>
       <c r="B626" s="5"/>
       <c r="C626" s="5"/>
@@ -22751,7 +23117,7 @@
       <c r="AD626" s="5"/>
       <c r="AE626" s="5"/>
     </row>
-    <row r="627">
+    <row r="627" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A627" s="5"/>
       <c r="B627" s="5"/>
       <c r="C627" s="5"/>
@@ -22784,7 +23150,7 @@
       <c r="AD627" s="5"/>
       <c r="AE627" s="5"/>
     </row>
-    <row r="628">
+    <row r="628" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A628" s="5"/>
       <c r="B628" s="5"/>
       <c r="C628" s="5"/>
@@ -22817,7 +23183,7 @@
       <c r="AD628" s="5"/>
       <c r="AE628" s="5"/>
     </row>
-    <row r="629">
+    <row r="629" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A629" s="5"/>
       <c r="B629" s="5"/>
       <c r="C629" s="5"/>
@@ -22850,7 +23216,7 @@
       <c r="AD629" s="5"/>
       <c r="AE629" s="5"/>
     </row>
-    <row r="630">
+    <row r="630" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A630" s="5"/>
       <c r="B630" s="5"/>
       <c r="C630" s="5"/>
@@ -22883,7 +23249,7 @@
       <c r="AD630" s="5"/>
       <c r="AE630" s="5"/>
     </row>
-    <row r="631">
+    <row r="631" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A631" s="5"/>
       <c r="B631" s="5"/>
       <c r="C631" s="5"/>
@@ -22916,7 +23282,7 @@
       <c r="AD631" s="5"/>
       <c r="AE631" s="5"/>
     </row>
-    <row r="632">
+    <row r="632" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A632" s="5"/>
       <c r="B632" s="5"/>
       <c r="C632" s="5"/>
@@ -22949,7 +23315,7 @@
       <c r="AD632" s="5"/>
       <c r="AE632" s="5"/>
     </row>
-    <row r="633">
+    <row r="633" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A633" s="5"/>
       <c r="B633" s="5"/>
       <c r="C633" s="5"/>
@@ -22982,7 +23348,7 @@
       <c r="AD633" s="5"/>
       <c r="AE633" s="5"/>
     </row>
-    <row r="634">
+    <row r="634" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A634" s="5"/>
       <c r="B634" s="5"/>
       <c r="C634" s="5"/>
@@ -23015,7 +23381,7 @@
       <c r="AD634" s="5"/>
       <c r="AE634" s="5"/>
     </row>
-    <row r="635">
+    <row r="635" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A635" s="5"/>
       <c r="B635" s="5"/>
       <c r="C635" s="5"/>
@@ -23048,7 +23414,7 @@
       <c r="AD635" s="5"/>
       <c r="AE635" s="5"/>
     </row>
-    <row r="636">
+    <row r="636" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A636" s="5"/>
       <c r="B636" s="5"/>
       <c r="C636" s="5"/>
@@ -23081,7 +23447,7 @@
       <c r="AD636" s="5"/>
       <c r="AE636" s="5"/>
     </row>
-    <row r="637">
+    <row r="637" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A637" s="5"/>
       <c r="B637" s="5"/>
       <c r="C637" s="5"/>
@@ -23114,7 +23480,7 @@
       <c r="AD637" s="5"/>
       <c r="AE637" s="5"/>
     </row>
-    <row r="638">
+    <row r="638" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A638" s="5"/>
       <c r="B638" s="5"/>
       <c r="C638" s="5"/>
@@ -23147,7 +23513,7 @@
       <c r="AD638" s="5"/>
       <c r="AE638" s="5"/>
     </row>
-    <row r="639">
+    <row r="639" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A639" s="5"/>
       <c r="B639" s="5"/>
       <c r="C639" s="5"/>
@@ -23180,7 +23546,7 @@
       <c r="AD639" s="5"/>
       <c r="AE639" s="5"/>
     </row>
-    <row r="640">
+    <row r="640" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A640" s="5"/>
       <c r="B640" s="5"/>
       <c r="C640" s="5"/>
@@ -23213,7 +23579,7 @@
       <c r="AD640" s="5"/>
       <c r="AE640" s="5"/>
     </row>
-    <row r="641">
+    <row r="641" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A641" s="5"/>
       <c r="B641" s="5"/>
       <c r="C641" s="5"/>
@@ -23246,7 +23612,7 @@
       <c r="AD641" s="5"/>
       <c r="AE641" s="5"/>
     </row>
-    <row r="642">
+    <row r="642" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A642" s="5"/>
       <c r="B642" s="5"/>
       <c r="C642" s="5"/>
@@ -23279,7 +23645,7 @@
       <c r="AD642" s="5"/>
       <c r="AE642" s="5"/>
     </row>
-    <row r="643">
+    <row r="643" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A643" s="5"/>
       <c r="B643" s="5"/>
       <c r="C643" s="5"/>
@@ -23312,7 +23678,7 @@
       <c r="AD643" s="5"/>
       <c r="AE643" s="5"/>
     </row>
-    <row r="644">
+    <row r="644" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A644" s="5"/>
       <c r="B644" s="5"/>
       <c r="C644" s="5"/>
@@ -23345,7 +23711,7 @@
       <c r="AD644" s="5"/>
       <c r="AE644" s="5"/>
     </row>
-    <row r="645">
+    <row r="645" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A645" s="5"/>
       <c r="B645" s="5"/>
       <c r="C645" s="5"/>
@@ -23378,7 +23744,7 @@
       <c r="AD645" s="5"/>
       <c r="AE645" s="5"/>
     </row>
-    <row r="646">
+    <row r="646" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A646" s="5"/>
       <c r="B646" s="5"/>
       <c r="C646" s="5"/>
@@ -23411,7 +23777,7 @@
       <c r="AD646" s="5"/>
       <c r="AE646" s="5"/>
     </row>
-    <row r="647">
+    <row r="647" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A647" s="5"/>
       <c r="B647" s="5"/>
       <c r="C647" s="5"/>
@@ -23444,7 +23810,7 @@
       <c r="AD647" s="5"/>
       <c r="AE647" s="5"/>
     </row>
-    <row r="648">
+    <row r="648" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A648" s="5"/>
       <c r="B648" s="5"/>
       <c r="C648" s="5"/>
@@ -23477,7 +23843,7 @@
       <c r="AD648" s="5"/>
       <c r="AE648" s="5"/>
     </row>
-    <row r="649">
+    <row r="649" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A649" s="5"/>
       <c r="B649" s="5"/>
       <c r="C649" s="5"/>
@@ -23510,7 +23876,7 @@
       <c r="AD649" s="5"/>
       <c r="AE649" s="5"/>
     </row>
-    <row r="650">
+    <row r="650" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A650" s="5"/>
       <c r="B650" s="5"/>
       <c r="C650" s="5"/>
@@ -23543,7 +23909,7 @@
       <c r="AD650" s="5"/>
       <c r="AE650" s="5"/>
     </row>
-    <row r="651">
+    <row r="651" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A651" s="5"/>
       <c r="B651" s="5"/>
       <c r="C651" s="5"/>
@@ -23576,7 +23942,7 @@
       <c r="AD651" s="5"/>
       <c r="AE651" s="5"/>
     </row>
-    <row r="652">
+    <row r="652" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A652" s="5"/>
       <c r="B652" s="5"/>
       <c r="C652" s="5"/>
@@ -23609,7 +23975,7 @@
       <c r="AD652" s="5"/>
       <c r="AE652" s="5"/>
     </row>
-    <row r="653">
+    <row r="653" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A653" s="5"/>
       <c r="B653" s="5"/>
       <c r="C653" s="5"/>
@@ -23642,7 +24008,7 @@
       <c r="AD653" s="5"/>
       <c r="AE653" s="5"/>
     </row>
-    <row r="654">
+    <row r="654" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A654" s="5"/>
       <c r="B654" s="5"/>
       <c r="C654" s="5"/>
@@ -23675,7 +24041,7 @@
       <c r="AD654" s="5"/>
       <c r="AE654" s="5"/>
     </row>
-    <row r="655">
+    <row r="655" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A655" s="5"/>
       <c r="B655" s="5"/>
       <c r="C655" s="5"/>
@@ -23708,7 +24074,7 @@
       <c r="AD655" s="5"/>
       <c r="AE655" s="5"/>
     </row>
-    <row r="656">
+    <row r="656" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A656" s="5"/>
       <c r="B656" s="5"/>
       <c r="C656" s="5"/>
@@ -23741,7 +24107,7 @@
       <c r="AD656" s="5"/>
       <c r="AE656" s="5"/>
     </row>
-    <row r="657">
+    <row r="657" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A657" s="5"/>
       <c r="B657" s="5"/>
       <c r="C657" s="5"/>
@@ -23774,7 +24140,7 @@
       <c r="AD657" s="5"/>
       <c r="AE657" s="5"/>
     </row>
-    <row r="658">
+    <row r="658" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A658" s="5"/>
       <c r="B658" s="5"/>
       <c r="C658" s="5"/>
@@ -23807,7 +24173,7 @@
       <c r="AD658" s="5"/>
       <c r="AE658" s="5"/>
     </row>
-    <row r="659">
+    <row r="659" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A659" s="5"/>
       <c r="B659" s="5"/>
       <c r="C659" s="5"/>
@@ -23840,7 +24206,7 @@
       <c r="AD659" s="5"/>
       <c r="AE659" s="5"/>
     </row>
-    <row r="660">
+    <row r="660" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A660" s="5"/>
       <c r="B660" s="5"/>
       <c r="C660" s="5"/>
@@ -23873,7 +24239,7 @@
       <c r="AD660" s="5"/>
       <c r="AE660" s="5"/>
     </row>
-    <row r="661">
+    <row r="661" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A661" s="5"/>
       <c r="B661" s="5"/>
       <c r="C661" s="5"/>
@@ -23906,7 +24272,7 @@
       <c r="AD661" s="5"/>
       <c r="AE661" s="5"/>
     </row>
-    <row r="662">
+    <row r="662" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A662" s="5"/>
       <c r="B662" s="5"/>
       <c r="C662" s="5"/>
@@ -23939,7 +24305,7 @@
       <c r="AD662" s="5"/>
       <c r="AE662" s="5"/>
     </row>
-    <row r="663">
+    <row r="663" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A663" s="5"/>
       <c r="B663" s="5"/>
       <c r="C663" s="5"/>
@@ -23972,7 +24338,7 @@
       <c r="AD663" s="5"/>
       <c r="AE663" s="5"/>
     </row>
-    <row r="664">
+    <row r="664" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A664" s="5"/>
       <c r="B664" s="5"/>
       <c r="C664" s="5"/>
@@ -24005,7 +24371,7 @@
       <c r="AD664" s="5"/>
       <c r="AE664" s="5"/>
     </row>
-    <row r="665">
+    <row r="665" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A665" s="5"/>
       <c r="B665" s="5"/>
       <c r="C665" s="5"/>
@@ -24038,7 +24404,7 @@
       <c r="AD665" s="5"/>
       <c r="AE665" s="5"/>
     </row>
-    <row r="666">
+    <row r="666" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A666" s="5"/>
       <c r="B666" s="5"/>
       <c r="C666" s="5"/>
@@ -24071,7 +24437,7 @@
       <c r="AD666" s="5"/>
       <c r="AE666" s="5"/>
     </row>
-    <row r="667">
+    <row r="667" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A667" s="5"/>
       <c r="B667" s="5"/>
       <c r="C667" s="5"/>
@@ -24104,7 +24470,7 @@
       <c r="AD667" s="5"/>
       <c r="AE667" s="5"/>
     </row>
-    <row r="668">
+    <row r="668" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A668" s="5"/>
       <c r="B668" s="5"/>
       <c r="C668" s="5"/>
@@ -24137,7 +24503,7 @@
       <c r="AD668" s="5"/>
       <c r="AE668" s="5"/>
     </row>
-    <row r="669">
+    <row r="669" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A669" s="5"/>
       <c r="B669" s="5"/>
       <c r="C669" s="5"/>
@@ -24170,7 +24536,7 @@
       <c r="AD669" s="5"/>
       <c r="AE669" s="5"/>
     </row>
-    <row r="670">
+    <row r="670" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A670" s="5"/>
       <c r="B670" s="5"/>
       <c r="C670" s="5"/>
@@ -24203,7 +24569,7 @@
       <c r="AD670" s="5"/>
       <c r="AE670" s="5"/>
     </row>
-    <row r="671">
+    <row r="671" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A671" s="5"/>
       <c r="B671" s="5"/>
       <c r="C671" s="5"/>
@@ -24236,7 +24602,7 @@
       <c r="AD671" s="5"/>
       <c r="AE671" s="5"/>
     </row>
-    <row r="672">
+    <row r="672" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A672" s="5"/>
       <c r="B672" s="5"/>
       <c r="C672" s="5"/>
@@ -24269,7 +24635,7 @@
       <c r="AD672" s="5"/>
       <c r="AE672" s="5"/>
     </row>
-    <row r="673">
+    <row r="673" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A673" s="5"/>
       <c r="B673" s="5"/>
       <c r="C673" s="5"/>
@@ -24302,7 +24668,7 @@
       <c r="AD673" s="5"/>
       <c r="AE673" s="5"/>
     </row>
-    <row r="674">
+    <row r="674" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A674" s="5"/>
       <c r="B674" s="5"/>
       <c r="C674" s="5"/>
@@ -24335,7 +24701,7 @@
       <c r="AD674" s="5"/>
       <c r="AE674" s="5"/>
     </row>
-    <row r="675">
+    <row r="675" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A675" s="5"/>
       <c r="B675" s="5"/>
       <c r="C675" s="5"/>
@@ -24368,7 +24734,7 @@
       <c r="AD675" s="5"/>
       <c r="AE675" s="5"/>
     </row>
-    <row r="676">
+    <row r="676" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A676" s="5"/>
       <c r="B676" s="5"/>
       <c r="C676" s="5"/>
@@ -24401,7 +24767,7 @@
       <c r="AD676" s="5"/>
       <c r="AE676" s="5"/>
     </row>
-    <row r="677">
+    <row r="677" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A677" s="5"/>
       <c r="B677" s="5"/>
       <c r="C677" s="5"/>
@@ -24434,7 +24800,7 @@
       <c r="AD677" s="5"/>
       <c r="AE677" s="5"/>
     </row>
-    <row r="678">
+    <row r="678" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A678" s="5"/>
       <c r="B678" s="5"/>
       <c r="C678" s="5"/>
@@ -24467,7 +24833,7 @@
       <c r="AD678" s="5"/>
       <c r="AE678" s="5"/>
     </row>
-    <row r="679">
+    <row r="679" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A679" s="5"/>
       <c r="B679" s="5"/>
       <c r="C679" s="5"/>
@@ -24500,7 +24866,7 @@
       <c r="AD679" s="5"/>
       <c r="AE679" s="5"/>
     </row>
-    <row r="680">
+    <row r="680" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A680" s="5"/>
       <c r="B680" s="5"/>
       <c r="C680" s="5"/>
@@ -24533,7 +24899,7 @@
       <c r="AD680" s="5"/>
       <c r="AE680" s="5"/>
     </row>
-    <row r="681">
+    <row r="681" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A681" s="5"/>
       <c r="B681" s="5"/>
       <c r="C681" s="5"/>
@@ -24566,7 +24932,7 @@
       <c r="AD681" s="5"/>
       <c r="AE681" s="5"/>
     </row>
-    <row r="682">
+    <row r="682" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A682" s="5"/>
       <c r="B682" s="5"/>
       <c r="C682" s="5"/>
@@ -24599,7 +24965,7 @@
       <c r="AD682" s="5"/>
       <c r="AE682" s="5"/>
     </row>
-    <row r="683">
+    <row r="683" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A683" s="5"/>
       <c r="B683" s="5"/>
       <c r="C683" s="5"/>
@@ -24632,7 +24998,7 @@
       <c r="AD683" s="5"/>
       <c r="AE683" s="5"/>
     </row>
-    <row r="684">
+    <row r="684" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A684" s="5"/>
       <c r="B684" s="5"/>
       <c r="C684" s="5"/>
@@ -24665,7 +25031,7 @@
       <c r="AD684" s="5"/>
       <c r="AE684" s="5"/>
     </row>
-    <row r="685">
+    <row r="685" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A685" s="5"/>
       <c r="B685" s="5"/>
       <c r="C685" s="5"/>
@@ -24698,7 +25064,7 @@
       <c r="AD685" s="5"/>
       <c r="AE685" s="5"/>
     </row>
-    <row r="686">
+    <row r="686" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A686" s="5"/>
       <c r="B686" s="5"/>
       <c r="C686" s="5"/>
@@ -24731,7 +25097,7 @@
       <c r="AD686" s="5"/>
       <c r="AE686" s="5"/>
     </row>
-    <row r="687">
+    <row r="687" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A687" s="5"/>
       <c r="B687" s="5"/>
       <c r="C687" s="5"/>
@@ -24764,7 +25130,7 @@
       <c r="AD687" s="5"/>
       <c r="AE687" s="5"/>
     </row>
-    <row r="688">
+    <row r="688" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A688" s="5"/>
       <c r="B688" s="5"/>
       <c r="C688" s="5"/>
@@ -24797,7 +25163,7 @@
       <c r="AD688" s="5"/>
       <c r="AE688" s="5"/>
     </row>
-    <row r="689">
+    <row r="689" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A689" s="5"/>
       <c r="B689" s="5"/>
       <c r="C689" s="5"/>
@@ -24830,7 +25196,7 @@
       <c r="AD689" s="5"/>
       <c r="AE689" s="5"/>
     </row>
-    <row r="690">
+    <row r="690" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A690" s="5"/>
       <c r="B690" s="5"/>
       <c r="C690" s="5"/>
@@ -24863,7 +25229,7 @@
       <c r="AD690" s="5"/>
       <c r="AE690" s="5"/>
     </row>
-    <row r="691">
+    <row r="691" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A691" s="5"/>
       <c r="B691" s="5"/>
       <c r="C691" s="5"/>
@@ -24896,7 +25262,7 @@
       <c r="AD691" s="5"/>
       <c r="AE691" s="5"/>
     </row>
-    <row r="692">
+    <row r="692" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A692" s="5"/>
       <c r="B692" s="5"/>
       <c r="C692" s="5"/>
@@ -24929,7 +25295,7 @@
       <c r="AD692" s="5"/>
       <c r="AE692" s="5"/>
     </row>
-    <row r="693">
+    <row r="693" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A693" s="5"/>
       <c r="B693" s="5"/>
       <c r="C693" s="5"/>
@@ -24962,7 +25328,7 @@
       <c r="AD693" s="5"/>
       <c r="AE693" s="5"/>
     </row>
-    <row r="694">
+    <row r="694" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A694" s="5"/>
       <c r="B694" s="5"/>
       <c r="C694" s="5"/>
@@ -24995,7 +25361,7 @@
       <c r="AD694" s="5"/>
       <c r="AE694" s="5"/>
     </row>
-    <row r="695">
+    <row r="695" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A695" s="5"/>
       <c r="B695" s="5"/>
       <c r="C695" s="5"/>
@@ -25028,7 +25394,7 @@
       <c r="AD695" s="5"/>
       <c r="AE695" s="5"/>
     </row>
-    <row r="696">
+    <row r="696" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A696" s="5"/>
       <c r="B696" s="5"/>
       <c r="C696" s="5"/>
@@ -25061,7 +25427,7 @@
       <c r="AD696" s="5"/>
       <c r="AE696" s="5"/>
     </row>
-    <row r="697">
+    <row r="697" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A697" s="5"/>
       <c r="B697" s="5"/>
       <c r="C697" s="5"/>
@@ -25094,7 +25460,7 @@
       <c r="AD697" s="5"/>
       <c r="AE697" s="5"/>
     </row>
-    <row r="698">
+    <row r="698" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A698" s="5"/>
       <c r="B698" s="5"/>
       <c r="C698" s="5"/>
@@ -25127,7 +25493,7 @@
       <c r="AD698" s="5"/>
       <c r="AE698" s="5"/>
     </row>
-    <row r="699">
+    <row r="699" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A699" s="5"/>
       <c r="B699" s="5"/>
       <c r="C699" s="5"/>
@@ -25160,7 +25526,7 @@
       <c r="AD699" s="5"/>
       <c r="AE699" s="5"/>
     </row>
-    <row r="700">
+    <row r="700" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A700" s="5"/>
       <c r="B700" s="5"/>
       <c r="C700" s="5"/>
@@ -25193,7 +25559,7 @@
       <c r="AD700" s="5"/>
       <c r="AE700" s="5"/>
     </row>
-    <row r="701">
+    <row r="701" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A701" s="5"/>
       <c r="B701" s="5"/>
       <c r="C701" s="5"/>
@@ -25226,7 +25592,7 @@
       <c r="AD701" s="5"/>
       <c r="AE701" s="5"/>
     </row>
-    <row r="702">
+    <row r="702" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A702" s="5"/>
       <c r="B702" s="5"/>
       <c r="C702" s="5"/>
@@ -25259,7 +25625,7 @@
       <c r="AD702" s="5"/>
       <c r="AE702" s="5"/>
     </row>
-    <row r="703">
+    <row r="703" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A703" s="5"/>
       <c r="B703" s="5"/>
       <c r="C703" s="5"/>
@@ -25292,7 +25658,7 @@
       <c r="AD703" s="5"/>
       <c r="AE703" s="5"/>
     </row>
-    <row r="704">
+    <row r="704" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A704" s="5"/>
       <c r="B704" s="5"/>
       <c r="C704" s="5"/>
@@ -25325,7 +25691,7 @@
       <c r="AD704" s="5"/>
       <c r="AE704" s="5"/>
     </row>
-    <row r="705">
+    <row r="705" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A705" s="5"/>
       <c r="B705" s="5"/>
       <c r="C705" s="5"/>
@@ -25358,7 +25724,7 @@
       <c r="AD705" s="5"/>
       <c r="AE705" s="5"/>
     </row>
-    <row r="706">
+    <row r="706" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A706" s="5"/>
       <c r="B706" s="5"/>
       <c r="C706" s="5"/>
@@ -25391,7 +25757,7 @@
       <c r="AD706" s="5"/>
       <c r="AE706" s="5"/>
     </row>
-    <row r="707">
+    <row r="707" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A707" s="5"/>
       <c r="B707" s="5"/>
       <c r="C707" s="5"/>
@@ -25424,7 +25790,7 @@
       <c r="AD707" s="5"/>
       <c r="AE707" s="5"/>
     </row>
-    <row r="708">
+    <row r="708" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A708" s="5"/>
       <c r="B708" s="5"/>
       <c r="C708" s="5"/>
@@ -25457,7 +25823,7 @@
       <c r="AD708" s="5"/>
       <c r="AE708" s="5"/>
     </row>
-    <row r="709">
+    <row r="709" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A709" s="5"/>
       <c r="B709" s="5"/>
       <c r="C709" s="5"/>
@@ -25490,7 +25856,7 @@
       <c r="AD709" s="5"/>
       <c r="AE709" s="5"/>
     </row>
-    <row r="710">
+    <row r="710" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A710" s="5"/>
       <c r="B710" s="5"/>
       <c r="C710" s="5"/>
@@ -25523,7 +25889,7 @@
       <c r="AD710" s="5"/>
       <c r="AE710" s="5"/>
     </row>
-    <row r="711">
+    <row r="711" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A711" s="5"/>
       <c r="B711" s="5"/>
       <c r="C711" s="5"/>
@@ -25556,7 +25922,7 @@
       <c r="AD711" s="5"/>
       <c r="AE711" s="5"/>
     </row>
-    <row r="712">
+    <row r="712" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A712" s="5"/>
       <c r="B712" s="5"/>
       <c r="C712" s="5"/>
@@ -25589,7 +25955,7 @@
       <c r="AD712" s="5"/>
       <c r="AE712" s="5"/>
     </row>
-    <row r="713">
+    <row r="713" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A713" s="5"/>
       <c r="B713" s="5"/>
       <c r="C713" s="5"/>
@@ -25622,7 +25988,7 @@
       <c r="AD713" s="5"/>
       <c r="AE713" s="5"/>
     </row>
-    <row r="714">
+    <row r="714" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A714" s="5"/>
       <c r="B714" s="5"/>
       <c r="C714" s="5"/>
@@ -25655,7 +26021,7 @@
       <c r="AD714" s="5"/>
       <c r="AE714" s="5"/>
     </row>
-    <row r="715">
+    <row r="715" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A715" s="5"/>
       <c r="B715" s="5"/>
       <c r="C715" s="5"/>
@@ -25688,7 +26054,7 @@
       <c r="AD715" s="5"/>
       <c r="AE715" s="5"/>
     </row>
-    <row r="716">
+    <row r="716" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A716" s="5"/>
       <c r="B716" s="5"/>
       <c r="C716" s="5"/>
@@ -25721,7 +26087,7 @@
       <c r="AD716" s="5"/>
       <c r="AE716" s="5"/>
     </row>
-    <row r="717">
+    <row r="717" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A717" s="5"/>
       <c r="B717" s="5"/>
       <c r="C717" s="5"/>
@@ -25754,7 +26120,7 @@
       <c r="AD717" s="5"/>
       <c r="AE717" s="5"/>
     </row>
-    <row r="718">
+    <row r="718" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A718" s="5"/>
       <c r="B718" s="5"/>
       <c r="C718" s="5"/>
@@ -25787,7 +26153,7 @@
       <c r="AD718" s="5"/>
       <c r="AE718" s="5"/>
     </row>
-    <row r="719">
+    <row r="719" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A719" s="5"/>
       <c r="B719" s="5"/>
       <c r="C719" s="5"/>
@@ -25820,7 +26186,7 @@
       <c r="AD719" s="5"/>
       <c r="AE719" s="5"/>
     </row>
-    <row r="720">
+    <row r="720" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A720" s="5"/>
       <c r="B720" s="5"/>
       <c r="C720" s="5"/>
@@ -25853,7 +26219,7 @@
       <c r="AD720" s="5"/>
       <c r="AE720" s="5"/>
     </row>
-    <row r="721">
+    <row r="721" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A721" s="5"/>
       <c r="B721" s="5"/>
       <c r="C721" s="5"/>
@@ -25886,7 +26252,7 @@
       <c r="AD721" s="5"/>
       <c r="AE721" s="5"/>
     </row>
-    <row r="722">
+    <row r="722" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A722" s="5"/>
       <c r="B722" s="5"/>
       <c r="C722" s="5"/>
@@ -25919,7 +26285,7 @@
       <c r="AD722" s="5"/>
       <c r="AE722" s="5"/>
     </row>
-    <row r="723">
+    <row r="723" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A723" s="5"/>
       <c r="B723" s="5"/>
       <c r="C723" s="5"/>
@@ -25952,7 +26318,7 @@
       <c r="AD723" s="5"/>
       <c r="AE723" s="5"/>
     </row>
-    <row r="724">
+    <row r="724" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A724" s="5"/>
       <c r="B724" s="5"/>
       <c r="C724" s="5"/>
@@ -25985,7 +26351,7 @@
       <c r="AD724" s="5"/>
       <c r="AE724" s="5"/>
     </row>
-    <row r="725">
+    <row r="725" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A725" s="5"/>
       <c r="B725" s="5"/>
       <c r="C725" s="5"/>
@@ -26018,7 +26384,7 @@
       <c r="AD725" s="5"/>
       <c r="AE725" s="5"/>
     </row>
-    <row r="726">
+    <row r="726" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A726" s="5"/>
       <c r="B726" s="5"/>
       <c r="C726" s="5"/>
@@ -26051,7 +26417,7 @@
       <c r="AD726" s="5"/>
       <c r="AE726" s="5"/>
     </row>
-    <row r="727">
+    <row r="727" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A727" s="5"/>
       <c r="B727" s="5"/>
       <c r="C727" s="5"/>
@@ -26084,7 +26450,7 @@
       <c r="AD727" s="5"/>
       <c r="AE727" s="5"/>
     </row>
-    <row r="728">
+    <row r="728" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A728" s="5"/>
       <c r="B728" s="5"/>
       <c r="C728" s="5"/>
@@ -26117,7 +26483,7 @@
       <c r="AD728" s="5"/>
       <c r="AE728" s="5"/>
     </row>
-    <row r="729">
+    <row r="729" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A729" s="5"/>
       <c r="B729" s="5"/>
       <c r="C729" s="5"/>
@@ -26150,7 +26516,7 @@
       <c r="AD729" s="5"/>
       <c r="AE729" s="5"/>
     </row>
-    <row r="730">
+    <row r="730" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A730" s="5"/>
       <c r="B730" s="5"/>
       <c r="C730" s="5"/>
@@ -26183,7 +26549,7 @@
       <c r="AD730" s="5"/>
       <c r="AE730" s="5"/>
     </row>
-    <row r="731">
+    <row r="731" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A731" s="5"/>
       <c r="B731" s="5"/>
       <c r="C731" s="5"/>
@@ -26216,7 +26582,7 @@
       <c r="AD731" s="5"/>
       <c r="AE731" s="5"/>
     </row>
-    <row r="732">
+    <row r="732" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A732" s="5"/>
       <c r="B732" s="5"/>
       <c r="C732" s="5"/>
@@ -26249,7 +26615,7 @@
       <c r="AD732" s="5"/>
       <c r="AE732" s="5"/>
     </row>
-    <row r="733">
+    <row r="733" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A733" s="5"/>
       <c r="B733" s="5"/>
       <c r="C733" s="5"/>
@@ -26282,7 +26648,7 @@
       <c r="AD733" s="5"/>
       <c r="AE733" s="5"/>
     </row>
-    <row r="734">
+    <row r="734" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A734" s="5"/>
       <c r="B734" s="5"/>
       <c r="C734" s="5"/>
@@ -26315,7 +26681,7 @@
       <c r="AD734" s="5"/>
       <c r="AE734" s="5"/>
     </row>
-    <row r="735">
+    <row r="735" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A735" s="5"/>
       <c r="B735" s="5"/>
       <c r="C735" s="5"/>
@@ -26348,7 +26714,7 @@
       <c r="AD735" s="5"/>
       <c r="AE735" s="5"/>
     </row>
-    <row r="736">
+    <row r="736" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A736" s="5"/>
       <c r="B736" s="5"/>
       <c r="C736" s="5"/>
@@ -26381,7 +26747,7 @@
       <c r="AD736" s="5"/>
       <c r="AE736" s="5"/>
     </row>
-    <row r="737">
+    <row r="737" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A737" s="5"/>
       <c r="B737" s="5"/>
       <c r="C737" s="5"/>
@@ -26414,7 +26780,7 @@
       <c r="AD737" s="5"/>
       <c r="AE737" s="5"/>
     </row>
-    <row r="738">
+    <row r="738" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A738" s="5"/>
       <c r="B738" s="5"/>
       <c r="C738" s="5"/>
@@ -26447,7 +26813,7 @@
       <c r="AD738" s="5"/>
       <c r="AE738" s="5"/>
     </row>
-    <row r="739">
+    <row r="739" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A739" s="5"/>
       <c r="B739" s="5"/>
       <c r="C739" s="5"/>
@@ -26480,7 +26846,7 @@
       <c r="AD739" s="5"/>
       <c r="AE739" s="5"/>
     </row>
-    <row r="740">
+    <row r="740" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A740" s="5"/>
       <c r="B740" s="5"/>
       <c r="C740" s="5"/>
@@ -26513,7 +26879,7 @@
       <c r="AD740" s="5"/>
       <c r="AE740" s="5"/>
     </row>
-    <row r="741">
+    <row r="741" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A741" s="5"/>
       <c r="B741" s="5"/>
       <c r="C741" s="5"/>
@@ -26546,7 +26912,7 @@
       <c r="AD741" s="5"/>
       <c r="AE741" s="5"/>
     </row>
-    <row r="742">
+    <row r="742" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A742" s="5"/>
       <c r="B742" s="5"/>
       <c r="C742" s="5"/>
@@ -26579,7 +26945,7 @@
       <c r="AD742" s="5"/>
       <c r="AE742" s="5"/>
     </row>
-    <row r="743">
+    <row r="743" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A743" s="5"/>
       <c r="B743" s="5"/>
       <c r="C743" s="5"/>
@@ -26612,7 +26978,7 @@
       <c r="AD743" s="5"/>
       <c r="AE743" s="5"/>
     </row>
-    <row r="744">
+    <row r="744" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A744" s="5"/>
       <c r="B744" s="5"/>
       <c r="C744" s="5"/>
@@ -26645,7 +27011,7 @@
       <c r="AD744" s="5"/>
       <c r="AE744" s="5"/>
     </row>
-    <row r="745">
+    <row r="745" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A745" s="5"/>
       <c r="B745" s="5"/>
       <c r="C745" s="5"/>
@@ -26678,7 +27044,7 @@
       <c r="AD745" s="5"/>
       <c r="AE745" s="5"/>
     </row>
-    <row r="746">
+    <row r="746" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A746" s="5"/>
       <c r="B746" s="5"/>
       <c r="C746" s="5"/>
@@ -26711,7 +27077,7 @@
       <c r="AD746" s="5"/>
       <c r="AE746" s="5"/>
     </row>
-    <row r="747">
+    <row r="747" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A747" s="5"/>
       <c r="B747" s="5"/>
       <c r="C747" s="5"/>
@@ -26744,7 +27110,7 @@
       <c r="AD747" s="5"/>
       <c r="AE747" s="5"/>
     </row>
-    <row r="748">
+    <row r="748" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A748" s="5"/>
       <c r="B748" s="5"/>
       <c r="C748" s="5"/>
@@ -26777,7 +27143,7 @@
       <c r="AD748" s="5"/>
       <c r="AE748" s="5"/>
     </row>
-    <row r="749">
+    <row r="749" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A749" s="5"/>
       <c r="B749" s="5"/>
       <c r="C749" s="5"/>
@@ -26810,7 +27176,7 @@
       <c r="AD749" s="5"/>
       <c r="AE749" s="5"/>
     </row>
-    <row r="750">
+    <row r="750" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A750" s="5"/>
       <c r="B750" s="5"/>
       <c r="C750" s="5"/>
@@ -26843,7 +27209,7 @@
       <c r="AD750" s="5"/>
       <c r="AE750" s="5"/>
     </row>
-    <row r="751">
+    <row r="751" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A751" s="5"/>
       <c r="B751" s="5"/>
       <c r="C751" s="5"/>
@@ -26876,7 +27242,7 @@
       <c r="AD751" s="5"/>
       <c r="AE751" s="5"/>
     </row>
-    <row r="752">
+    <row r="752" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A752" s="5"/>
       <c r="B752" s="5"/>
       <c r="C752" s="5"/>
@@ -26909,7 +27275,7 @@
       <c r="AD752" s="5"/>
       <c r="AE752" s="5"/>
     </row>
-    <row r="753">
+    <row r="753" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A753" s="5"/>
       <c r="B753" s="5"/>
       <c r="C753" s="5"/>
@@ -26942,7 +27308,7 @@
       <c r="AD753" s="5"/>
       <c r="AE753" s="5"/>
     </row>
-    <row r="754">
+    <row r="754" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A754" s="5"/>
       <c r="B754" s="5"/>
       <c r="C754" s="5"/>
@@ -26975,7 +27341,7 @@
       <c r="AD754" s="5"/>
       <c r="AE754" s="5"/>
     </row>
-    <row r="755">
+    <row r="755" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A755" s="5"/>
       <c r="B755" s="5"/>
       <c r="C755" s="5"/>
@@ -27008,7 +27374,7 @@
       <c r="AD755" s="5"/>
       <c r="AE755" s="5"/>
     </row>
-    <row r="756">
+    <row r="756" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A756" s="5"/>
       <c r="B756" s="5"/>
       <c r="C756" s="5"/>
@@ -27041,7 +27407,7 @@
       <c r="AD756" s="5"/>
       <c r="AE756" s="5"/>
     </row>
-    <row r="757">
+    <row r="757" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A757" s="5"/>
       <c r="B757" s="5"/>
       <c r="C757" s="5"/>
@@ -27074,7 +27440,7 @@
       <c r="AD757" s="5"/>
       <c r="AE757" s="5"/>
     </row>
-    <row r="758">
+    <row r="758" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A758" s="5"/>
       <c r="B758" s="5"/>
       <c r="C758" s="5"/>
@@ -27107,7 +27473,7 @@
       <c r="AD758" s="5"/>
       <c r="AE758" s="5"/>
     </row>
-    <row r="759">
+    <row r="759" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A759" s="5"/>
       <c r="B759" s="5"/>
       <c r="C759" s="5"/>
@@ -27140,7 +27506,7 @@
       <c r="AD759" s="5"/>
       <c r="AE759" s="5"/>
     </row>
-    <row r="760">
+    <row r="760" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A760" s="5"/>
       <c r="B760" s="5"/>
       <c r="C760" s="5"/>
@@ -27173,7 +27539,7 @@
       <c r="AD760" s="5"/>
       <c r="AE760" s="5"/>
     </row>
-    <row r="761">
+    <row r="761" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A761" s="5"/>
       <c r="B761" s="5"/>
       <c r="C761" s="5"/>
@@ -27206,7 +27572,7 @@
       <c r="AD761" s="5"/>
       <c r="AE761" s="5"/>
     </row>
-    <row r="762">
+    <row r="762" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A762" s="5"/>
       <c r="B762" s="5"/>
       <c r="C762" s="5"/>
@@ -27239,7 +27605,7 @@
       <c r="AD762" s="5"/>
       <c r="AE762" s="5"/>
     </row>
-    <row r="763">
+    <row r="763" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A763" s="5"/>
       <c r="B763" s="5"/>
       <c r="C763" s="5"/>
@@ -27272,7 +27638,7 @@
       <c r="AD763" s="5"/>
       <c r="AE763" s="5"/>
     </row>
-    <row r="764">
+    <row r="764" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A764" s="5"/>
       <c r="B764" s="5"/>
       <c r="C764" s="5"/>
@@ -27305,7 +27671,7 @@
       <c r="AD764" s="5"/>
       <c r="AE764" s="5"/>
     </row>
-    <row r="765">
+    <row r="765" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A765" s="5"/>
       <c r="B765" s="5"/>
       <c r="C765" s="5"/>
@@ -27338,7 +27704,7 @@
       <c r="AD765" s="5"/>
       <c r="AE765" s="5"/>
     </row>
-    <row r="766">
+    <row r="766" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A766" s="5"/>
       <c r="B766" s="5"/>
       <c r="C766" s="5"/>
@@ -27371,7 +27737,7 @@
       <c r="AD766" s="5"/>
       <c r="AE766" s="5"/>
     </row>
-    <row r="767">
+    <row r="767" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A767" s="5"/>
       <c r="B767" s="5"/>
       <c r="C767" s="5"/>
@@ -27404,7 +27770,7 @@
       <c r="AD767" s="5"/>
       <c r="AE767" s="5"/>
     </row>
-    <row r="768">
+    <row r="768" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A768" s="5"/>
       <c r="B768" s="5"/>
       <c r="C768" s="5"/>
@@ -27437,7 +27803,7 @@
       <c r="AD768" s="5"/>
       <c r="AE768" s="5"/>
     </row>
-    <row r="769">
+    <row r="769" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A769" s="5"/>
       <c r="B769" s="5"/>
       <c r="C769" s="5"/>
@@ -27470,7 +27836,7 @@
       <c r="AD769" s="5"/>
       <c r="AE769" s="5"/>
     </row>
-    <row r="770">
+    <row r="770" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A770" s="5"/>
       <c r="B770" s="5"/>
       <c r="C770" s="5"/>
@@ -27503,7 +27869,7 @@
       <c r="AD770" s="5"/>
       <c r="AE770" s="5"/>
     </row>
-    <row r="771">
+    <row r="771" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A771" s="5"/>
       <c r="B771" s="5"/>
       <c r="C771" s="5"/>
@@ -27536,7 +27902,7 @@
       <c r="AD771" s="5"/>
       <c r="AE771" s="5"/>
     </row>
-    <row r="772">
+    <row r="772" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A772" s="5"/>
       <c r="B772" s="5"/>
       <c r="C772" s="5"/>
@@ -27569,7 +27935,7 @@
       <c r="AD772" s="5"/>
       <c r="AE772" s="5"/>
     </row>
-    <row r="773">
+    <row r="773" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A773" s="5"/>
       <c r="B773" s="5"/>
       <c r="C773" s="5"/>
@@ -27602,7 +27968,7 @@
       <c r="AD773" s="5"/>
       <c r="AE773" s="5"/>
     </row>
-    <row r="774">
+    <row r="774" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A774" s="5"/>
       <c r="B774" s="5"/>
       <c r="C774" s="5"/>
@@ -27635,7 +28001,7 @@
       <c r="AD774" s="5"/>
       <c r="AE774" s="5"/>
     </row>
-    <row r="775">
+    <row r="775" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A775" s="5"/>
       <c r="B775" s="5"/>
       <c r="C775" s="5"/>
@@ -27668,7 +28034,7 @@
       <c r="AD775" s="5"/>
       <c r="AE775" s="5"/>
     </row>
-    <row r="776">
+    <row r="776" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A776" s="5"/>
       <c r="B776" s="5"/>
       <c r="C776" s="5"/>
@@ -27701,7 +28067,7 @@
       <c r="AD776" s="5"/>
       <c r="AE776" s="5"/>
     </row>
-    <row r="777">
+    <row r="777" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A777" s="5"/>
       <c r="B777" s="5"/>
       <c r="C777" s="5"/>
@@ -27734,7 +28100,7 @@
       <c r="AD777" s="5"/>
       <c r="AE777" s="5"/>
     </row>
-    <row r="778">
+    <row r="778" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A778" s="5"/>
       <c r="B778" s="5"/>
       <c r="C778" s="5"/>
@@ -27767,7 +28133,7 @@
       <c r="AD778" s="5"/>
       <c r="AE778" s="5"/>
     </row>
-    <row r="779">
+    <row r="779" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A779" s="5"/>
       <c r="B779" s="5"/>
       <c r="C779" s="5"/>
@@ -27800,7 +28166,7 @@
       <c r="AD779" s="5"/>
       <c r="AE779" s="5"/>
     </row>
-    <row r="780">
+    <row r="780" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A780" s="5"/>
       <c r="B780" s="5"/>
       <c r="C780" s="5"/>
@@ -27833,7 +28199,7 @@
       <c r="AD780" s="5"/>
       <c r="AE780" s="5"/>
     </row>
-    <row r="781">
+    <row r="781" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A781" s="5"/>
       <c r="B781" s="5"/>
       <c r="C781" s="5"/>
@@ -27866,7 +28232,7 @@
       <c r="AD781" s="5"/>
       <c r="AE781" s="5"/>
     </row>
-    <row r="782">
+    <row r="782" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A782" s="5"/>
       <c r="B782" s="5"/>
       <c r="C782" s="5"/>
@@ -27899,7 +28265,7 @@
       <c r="AD782" s="5"/>
       <c r="AE782" s="5"/>
     </row>
-    <row r="783">
+    <row r="783" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A783" s="5"/>
       <c r="B783" s="5"/>
       <c r="C783" s="5"/>
@@ -27932,7 +28298,7 @@
       <c r="AD783" s="5"/>
       <c r="AE783" s="5"/>
     </row>
-    <row r="784">
+    <row r="784" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A784" s="5"/>
       <c r="B784" s="5"/>
       <c r="C784" s="5"/>
@@ -27965,7 +28331,7 @@
       <c r="AD784" s="5"/>
       <c r="AE784" s="5"/>
     </row>
-    <row r="785">
+    <row r="785" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A785" s="5"/>
       <c r="B785" s="5"/>
       <c r="C785" s="5"/>
@@ -27998,7 +28364,7 @@
       <c r="AD785" s="5"/>
       <c r="AE785" s="5"/>
     </row>
-    <row r="786">
+    <row r="786" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A786" s="5"/>
       <c r="B786" s="5"/>
       <c r="C786" s="5"/>
@@ -28031,7 +28397,7 @@
       <c r="AD786" s="5"/>
       <c r="AE786" s="5"/>
     </row>
-    <row r="787">
+    <row r="787" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A787" s="5"/>
       <c r="B787" s="5"/>
       <c r="C787" s="5"/>
@@ -28064,7 +28430,7 @@
       <c r="AD787" s="5"/>
       <c r="AE787" s="5"/>
     </row>
-    <row r="788">
+    <row r="788" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A788" s="5"/>
       <c r="B788" s="5"/>
       <c r="C788" s="5"/>
@@ -28097,7 +28463,7 @@
       <c r="AD788" s="5"/>
       <c r="AE788" s="5"/>
     </row>
-    <row r="789">
+    <row r="789" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A789" s="5"/>
       <c r="B789" s="5"/>
       <c r="C789" s="5"/>
@@ -28130,7 +28496,7 @@
       <c r="AD789" s="5"/>
       <c r="AE789" s="5"/>
     </row>
-    <row r="790">
+    <row r="790" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A790" s="5"/>
       <c r="B790" s="5"/>
       <c r="C790" s="5"/>
@@ -28163,7 +28529,7 @@
       <c r="AD790" s="5"/>
       <c r="AE790" s="5"/>
     </row>
-    <row r="791">
+    <row r="791" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A791" s="5"/>
       <c r="B791" s="5"/>
       <c r="C791" s="5"/>
@@ -28196,7 +28562,7 @@
       <c r="AD791" s="5"/>
       <c r="AE791" s="5"/>
     </row>
-    <row r="792">
+    <row r="792" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A792" s="5"/>
       <c r="B792" s="5"/>
       <c r="C792" s="5"/>
@@ -28229,7 +28595,7 @@
       <c r="AD792" s="5"/>
       <c r="AE792" s="5"/>
     </row>
-    <row r="793">
+    <row r="793" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A793" s="5"/>
       <c r="B793" s="5"/>
       <c r="C793" s="5"/>
@@ -28262,7 +28628,7 @@
       <c r="AD793" s="5"/>
       <c r="AE793" s="5"/>
     </row>
-    <row r="794">
+    <row r="794" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A794" s="5"/>
       <c r="B794" s="5"/>
       <c r="C794" s="5"/>
@@ -28295,7 +28661,7 @@
       <c r="AD794" s="5"/>
       <c r="AE794" s="5"/>
     </row>
-    <row r="795">
+    <row r="795" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A795" s="5"/>
       <c r="B795" s="5"/>
       <c r="C795" s="5"/>
@@ -28328,7 +28694,7 @@
       <c r="AD795" s="5"/>
       <c r="AE795" s="5"/>
     </row>
-    <row r="796">
+    <row r="796" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A796" s="5"/>
       <c r="B796" s="5"/>
       <c r="C796" s="5"/>
@@ -28361,7 +28727,7 @@
       <c r="AD796" s="5"/>
       <c r="AE796" s="5"/>
     </row>
-    <row r="797">
+    <row r="797" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A797" s="5"/>
       <c r="B797" s="5"/>
       <c r="C797" s="5"/>
@@ -28394,7 +28760,7 @@
       <c r="AD797" s="5"/>
       <c r="AE797" s="5"/>
     </row>
-    <row r="798">
+    <row r="798" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A798" s="5"/>
       <c r="B798" s="5"/>
       <c r="C798" s="5"/>
@@ -28427,7 +28793,7 @@
       <c r="AD798" s="5"/>
       <c r="AE798" s="5"/>
     </row>
-    <row r="799">
+    <row r="799" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A799" s="5"/>
       <c r="B799" s="5"/>
       <c r="C799" s="5"/>
@@ -28460,7 +28826,7 @@
       <c r="AD799" s="5"/>
       <c r="AE799" s="5"/>
     </row>
-    <row r="800">
+    <row r="800" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A800" s="5"/>
       <c r="B800" s="5"/>
       <c r="C800" s="5"/>
@@ -28493,7 +28859,7 @@
       <c r="AD800" s="5"/>
       <c r="AE800" s="5"/>
     </row>
-    <row r="801">
+    <row r="801" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A801" s="5"/>
       <c r="B801" s="5"/>
       <c r="C801" s="5"/>
@@ -28526,7 +28892,7 @@
       <c r="AD801" s="5"/>
       <c r="AE801" s="5"/>
     </row>
-    <row r="802">
+    <row r="802" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A802" s="5"/>
       <c r="B802" s="5"/>
       <c r="C802" s="5"/>
@@ -28559,7 +28925,7 @@
       <c r="AD802" s="5"/>
       <c r="AE802" s="5"/>
     </row>
-    <row r="803">
+    <row r="803" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A803" s="5"/>
       <c r="B803" s="5"/>
       <c r="C803" s="5"/>
@@ -28592,7 +28958,7 @@
       <c r="AD803" s="5"/>
       <c r="AE803" s="5"/>
     </row>
-    <row r="804">
+    <row r="804" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A804" s="5"/>
       <c r="B804" s="5"/>
       <c r="C804" s="5"/>
@@ -28625,7 +28991,7 @@
       <c r="AD804" s="5"/>
       <c r="AE804" s="5"/>
     </row>
-    <row r="805">
+    <row r="805" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A805" s="5"/>
       <c r="B805" s="5"/>
       <c r="C805" s="5"/>
@@ -28658,7 +29024,7 @@
       <c r="AD805" s="5"/>
       <c r="AE805" s="5"/>
     </row>
-    <row r="806">
+    <row r="806" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A806" s="5"/>
       <c r="B806" s="5"/>
       <c r="C806" s="5"/>
@@ -28691,7 +29057,7 @@
       <c r="AD806" s="5"/>
       <c r="AE806" s="5"/>
     </row>
-    <row r="807">
+    <row r="807" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A807" s="5"/>
       <c r="B807" s="5"/>
       <c r="C807" s="5"/>
@@ -28724,7 +29090,7 @@
       <c r="AD807" s="5"/>
       <c r="AE807" s="5"/>
     </row>
-    <row r="808">
+    <row r="808" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A808" s="5"/>
       <c r="B808" s="5"/>
       <c r="C808" s="5"/>
@@ -28757,7 +29123,7 @@
       <c r="AD808" s="5"/>
       <c r="AE808" s="5"/>
     </row>
-    <row r="809">
+    <row r="809" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A809" s="5"/>
       <c r="B809" s="5"/>
       <c r="C809" s="5"/>
@@ -28790,7 +29156,7 @@
       <c r="AD809" s="5"/>
       <c r="AE809" s="5"/>
     </row>
-    <row r="810">
+    <row r="810" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A810" s="5"/>
       <c r="B810" s="5"/>
       <c r="C810" s="5"/>
@@ -28823,7 +29189,7 @@
       <c r="AD810" s="5"/>
       <c r="AE810" s="5"/>
     </row>
-    <row r="811">
+    <row r="811" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A811" s="5"/>
       <c r="B811" s="5"/>
       <c r="C811" s="5"/>
@@ -28856,7 +29222,7 @@
       <c r="AD811" s="5"/>
       <c r="AE811" s="5"/>
     </row>
-    <row r="812">
+    <row r="812" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A812" s="5"/>
       <c r="B812" s="5"/>
       <c r="C812" s="5"/>
@@ -28889,7 +29255,7 @@
       <c r="AD812" s="5"/>
       <c r="AE812" s="5"/>
     </row>
-    <row r="813">
+    <row r="813" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A813" s="5"/>
       <c r="B813" s="5"/>
       <c r="C813" s="5"/>
@@ -28922,7 +29288,7 @@
       <c r="AD813" s="5"/>
       <c r="AE813" s="5"/>
     </row>
-    <row r="814">
+    <row r="814" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A814" s="5"/>
       <c r="B814" s="5"/>
       <c r="C814" s="5"/>
@@ -28955,7 +29321,7 @@
       <c r="AD814" s="5"/>
       <c r="AE814" s="5"/>
     </row>
-    <row r="815">
+    <row r="815" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A815" s="5"/>
       <c r="B815" s="5"/>
       <c r="C815" s="5"/>
@@ -28988,7 +29354,7 @@
       <c r="AD815" s="5"/>
       <c r="AE815" s="5"/>
     </row>
-    <row r="816">
+    <row r="816" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A816" s="5"/>
       <c r="B816" s="5"/>
       <c r="C816" s="5"/>
@@ -29021,7 +29387,7 @@
       <c r="AD816" s="5"/>
       <c r="AE816" s="5"/>
     </row>
-    <row r="817">
+    <row r="817" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A817" s="5"/>
       <c r="B817" s="5"/>
       <c r="C817" s="5"/>
@@ -29054,7 +29420,7 @@
       <c r="AD817" s="5"/>
       <c r="AE817" s="5"/>
     </row>
-    <row r="818">
+    <row r="818" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A818" s="5"/>
       <c r="B818" s="5"/>
       <c r="C818" s="5"/>
@@ -29087,7 +29453,7 @@
       <c r="AD818" s="5"/>
       <c r="AE818" s="5"/>
     </row>
-    <row r="819">
+    <row r="819" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A819" s="5"/>
       <c r="B819" s="5"/>
       <c r="C819" s="5"/>
@@ -29120,7 +29486,7 @@
       <c r="AD819" s="5"/>
       <c r="AE819" s="5"/>
     </row>
-    <row r="820">
+    <row r="820" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A820" s="5"/>
       <c r="B820" s="5"/>
       <c r="C820" s="5"/>
@@ -29153,7 +29519,7 @@
       <c r="AD820" s="5"/>
       <c r="AE820" s="5"/>
     </row>
-    <row r="821">
+    <row r="821" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A821" s="5"/>
       <c r="B821" s="5"/>
       <c r="C821" s="5"/>
@@ -29186,7 +29552,7 @@
       <c r="AD821" s="5"/>
       <c r="AE821" s="5"/>
     </row>
-    <row r="822">
+    <row r="822" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A822" s="5"/>
       <c r="B822" s="5"/>
       <c r="C822" s="5"/>
@@ -29219,7 +29585,7 @@
       <c r="AD822" s="5"/>
       <c r="AE822" s="5"/>
     </row>
-    <row r="823">
+    <row r="823" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A823" s="5"/>
       <c r="B823" s="5"/>
       <c r="C823" s="5"/>
@@ -29252,7 +29618,7 @@
       <c r="AD823" s="5"/>
       <c r="AE823" s="5"/>
     </row>
-    <row r="824">
+    <row r="824" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A824" s="5"/>
       <c r="B824" s="5"/>
       <c r="C824" s="5"/>
@@ -29285,7 +29651,7 @@
       <c r="AD824" s="5"/>
       <c r="AE824" s="5"/>
     </row>
-    <row r="825">
+    <row r="825" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A825" s="5"/>
       <c r="B825" s="5"/>
       <c r="C825" s="5"/>
@@ -29318,7 +29684,7 @@
       <c r="AD825" s="5"/>
       <c r="AE825" s="5"/>
     </row>
-    <row r="826">
+    <row r="826" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A826" s="5"/>
       <c r="B826" s="5"/>
       <c r="C826" s="5"/>
@@ -29351,7 +29717,7 @@
       <c r="AD826" s="5"/>
       <c r="AE826" s="5"/>
     </row>
-    <row r="827">
+    <row r="827" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A827" s="5"/>
       <c r="B827" s="5"/>
       <c r="C827" s="5"/>
@@ -29384,7 +29750,7 @@
       <c r="AD827" s="5"/>
       <c r="AE827" s="5"/>
     </row>
-    <row r="828">
+    <row r="828" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A828" s="5"/>
       <c r="B828" s="5"/>
       <c r="C828" s="5"/>
@@ -29417,7 +29783,7 @@
       <c r="AD828" s="5"/>
       <c r="AE828" s="5"/>
     </row>
-    <row r="829">
+    <row r="829" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A829" s="5"/>
       <c r="B829" s="5"/>
       <c r="C829" s="5"/>
@@ -29450,7 +29816,7 @@
       <c r="AD829" s="5"/>
       <c r="AE829" s="5"/>
     </row>
-    <row r="830">
+    <row r="830" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A830" s="5"/>
       <c r="B830" s="5"/>
       <c r="C830" s="5"/>
@@ -29483,7 +29849,7 @@
       <c r="AD830" s="5"/>
       <c r="AE830" s="5"/>
     </row>
-    <row r="831">
+    <row r="831" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A831" s="5"/>
       <c r="B831" s="5"/>
       <c r="C831" s="5"/>
@@ -29516,7 +29882,7 @@
       <c r="AD831" s="5"/>
       <c r="AE831" s="5"/>
     </row>
-    <row r="832">
+    <row r="832" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A832" s="5"/>
       <c r="B832" s="5"/>
       <c r="C832" s="5"/>
@@ -29549,7 +29915,7 @@
       <c r="AD832" s="5"/>
       <c r="AE832" s="5"/>
     </row>
-    <row r="833">
+    <row r="833" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A833" s="5"/>
       <c r="B833" s="5"/>
       <c r="C833" s="5"/>
@@ -29582,7 +29948,7 @@
       <c r="AD833" s="5"/>
       <c r="AE833" s="5"/>
     </row>
-    <row r="834">
+    <row r="834" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A834" s="5"/>
       <c r="B834" s="5"/>
       <c r="C834" s="5"/>
@@ -29615,7 +29981,7 @@
       <c r="AD834" s="5"/>
       <c r="AE834" s="5"/>
     </row>
-    <row r="835">
+    <row r="835" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A835" s="5"/>
       <c r="B835" s="5"/>
       <c r="C835" s="5"/>
@@ -29648,7 +30014,7 @@
       <c r="AD835" s="5"/>
       <c r="AE835" s="5"/>
     </row>
-    <row r="836">
+    <row r="836" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A836" s="5"/>
       <c r="B836" s="5"/>
       <c r="C836" s="5"/>
@@ -29681,7 +30047,7 @@
       <c r="AD836" s="5"/>
       <c r="AE836" s="5"/>
     </row>
-    <row r="837">
+    <row r="837" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A837" s="5"/>
       <c r="B837" s="5"/>
       <c r="C837" s="5"/>
@@ -29714,7 +30080,7 @@
       <c r="AD837" s="5"/>
       <c r="AE837" s="5"/>
     </row>
-    <row r="838">
+    <row r="838" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A838" s="5"/>
       <c r="B838" s="5"/>
       <c r="C838" s="5"/>
@@ -29747,7 +30113,7 @@
       <c r="AD838" s="5"/>
       <c r="AE838" s="5"/>
     </row>
-    <row r="839">
+    <row r="839" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A839" s="5"/>
       <c r="B839" s="5"/>
       <c r="C839" s="5"/>
@@ -29780,7 +30146,7 @@
       <c r="AD839" s="5"/>
       <c r="AE839" s="5"/>
     </row>
-    <row r="840">
+    <row r="840" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A840" s="5"/>
       <c r="B840" s="5"/>
       <c r="C840" s="5"/>
@@ -29813,7 +30179,7 @@
       <c r="AD840" s="5"/>
       <c r="AE840" s="5"/>
     </row>
-    <row r="841">
+    <row r="841" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A841" s="5"/>
       <c r="B841" s="5"/>
       <c r="C841" s="5"/>
@@ -29846,7 +30212,7 @@
       <c r="AD841" s="5"/>
       <c r="AE841" s="5"/>
     </row>
-    <row r="842">
+    <row r="842" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A842" s="5"/>
       <c r="B842" s="5"/>
       <c r="C842" s="5"/>
@@ -29879,7 +30245,7 @@
       <c r="AD842" s="5"/>
       <c r="AE842" s="5"/>
     </row>
-    <row r="843">
+    <row r="843" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A843" s="5"/>
       <c r="B843" s="5"/>
       <c r="C843" s="5"/>
@@ -29912,7 +30278,7 @@
       <c r="AD843" s="5"/>
       <c r="AE843" s="5"/>
     </row>
-    <row r="844">
+    <row r="844" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A844" s="5"/>
       <c r="B844" s="5"/>
       <c r="C844" s="5"/>
@@ -29945,7 +30311,7 @@
       <c r="AD844" s="5"/>
       <c r="AE844" s="5"/>
     </row>
-    <row r="845">
+    <row r="845" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A845" s="5"/>
       <c r="B845" s="5"/>
       <c r="C845" s="5"/>
@@ -29978,7 +30344,7 @@
       <c r="AD845" s="5"/>
       <c r="AE845" s="5"/>
     </row>
-    <row r="846">
+    <row r="846" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A846" s="5"/>
       <c r="B846" s="5"/>
       <c r="C846" s="5"/>
@@ -30011,7 +30377,7 @@
       <c r="AD846" s="5"/>
       <c r="AE846" s="5"/>
     </row>
-    <row r="847">
+    <row r="847" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A847" s="5"/>
       <c r="B847" s="5"/>
       <c r="C847" s="5"/>
@@ -30044,7 +30410,7 @@
       <c r="AD847" s="5"/>
       <c r="AE847" s="5"/>
     </row>
-    <row r="848">
+    <row r="848" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A848" s="5"/>
       <c r="B848" s="5"/>
       <c r="C848" s="5"/>
@@ -30077,7 +30443,7 @@
       <c r="AD848" s="5"/>
       <c r="AE848" s="5"/>
     </row>
-    <row r="849">
+    <row r="849" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A849" s="5"/>
       <c r="B849" s="5"/>
       <c r="C849" s="5"/>
@@ -30110,7 +30476,7 @@
       <c r="AD849" s="5"/>
       <c r="AE849" s="5"/>
     </row>
-    <row r="850">
+    <row r="850" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A850" s="5"/>
       <c r="B850" s="5"/>
       <c r="C850" s="5"/>
@@ -30143,7 +30509,7 @@
       <c r="AD850" s="5"/>
       <c r="AE850" s="5"/>
     </row>
-    <row r="851">
+    <row r="851" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A851" s="5"/>
       <c r="B851" s="5"/>
       <c r="C851" s="5"/>
@@ -30176,7 +30542,7 @@
       <c r="AD851" s="5"/>
       <c r="AE851" s="5"/>
     </row>
-    <row r="852">
+    <row r="852" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A852" s="5"/>
       <c r="B852" s="5"/>
       <c r="C852" s="5"/>
@@ -30209,7 +30575,7 @@
       <c r="AD852" s="5"/>
       <c r="AE852" s="5"/>
     </row>
-    <row r="853">
+    <row r="853" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A853" s="5"/>
       <c r="B853" s="5"/>
       <c r="C853" s="5"/>
@@ -30242,7 +30608,7 @@
       <c r="AD853" s="5"/>
       <c r="AE853" s="5"/>
     </row>
-    <row r="854">
+    <row r="854" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A854" s="5"/>
       <c r="B854" s="5"/>
       <c r="C854" s="5"/>
@@ -30275,7 +30641,7 @@
       <c r="AD854" s="5"/>
       <c r="AE854" s="5"/>
     </row>
-    <row r="855">
+    <row r="855" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A855" s="5"/>
       <c r="B855" s="5"/>
       <c r="C855" s="5"/>
@@ -30308,7 +30674,7 @@
       <c r="AD855" s="5"/>
       <c r="AE855" s="5"/>
     </row>
-    <row r="856">
+    <row r="856" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A856" s="5"/>
       <c r="B856" s="5"/>
       <c r="C856" s="5"/>
@@ -30341,7 +30707,7 @@
       <c r="AD856" s="5"/>
       <c r="AE856" s="5"/>
     </row>
-    <row r="857">
+    <row r="857" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A857" s="5"/>
       <c r="B857" s="5"/>
       <c r="C857" s="5"/>
@@ -30374,7 +30740,7 @@
       <c r="AD857" s="5"/>
       <c r="AE857" s="5"/>
     </row>
-    <row r="858">
+    <row r="858" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A858" s="5"/>
       <c r="B858" s="5"/>
       <c r="C858" s="5"/>
@@ -30407,7 +30773,7 @@
       <c r="AD858" s="5"/>
       <c r="AE858" s="5"/>
     </row>
-    <row r="859">
+    <row r="859" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A859" s="5"/>
       <c r="B859" s="5"/>
       <c r="C859" s="5"/>
@@ -30440,7 +30806,7 @@
       <c r="AD859" s="5"/>
       <c r="AE859" s="5"/>
     </row>
-    <row r="860">
+    <row r="860" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A860" s="5"/>
       <c r="B860" s="5"/>
       <c r="C860" s="5"/>
@@ -30473,7 +30839,7 @@
       <c r="AD860" s="5"/>
       <c r="AE860" s="5"/>
     </row>
-    <row r="861">
+    <row r="861" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A861" s="5"/>
       <c r="B861" s="5"/>
       <c r="C861" s="5"/>
@@ -30506,7 +30872,7 @@
       <c r="AD861" s="5"/>
       <c r="AE861" s="5"/>
     </row>
-    <row r="862">
+    <row r="862" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A862" s="5"/>
       <c r="B862" s="5"/>
       <c r="C862" s="5"/>
@@ -30539,7 +30905,7 @@
       <c r="AD862" s="5"/>
       <c r="AE862" s="5"/>
     </row>
-    <row r="863">
+    <row r="863" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A863" s="5"/>
       <c r="B863" s="5"/>
       <c r="C863" s="5"/>
@@ -30572,7 +30938,7 @@
       <c r="AD863" s="5"/>
       <c r="AE863" s="5"/>
     </row>
-    <row r="864">
+    <row r="864" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A864" s="5"/>
       <c r="B864" s="5"/>
       <c r="C864" s="5"/>
@@ -30605,7 +30971,7 @@
       <c r="AD864" s="5"/>
       <c r="AE864" s="5"/>
     </row>
-    <row r="865">
+    <row r="865" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A865" s="5"/>
       <c r="B865" s="5"/>
       <c r="C865" s="5"/>
@@ -30638,7 +31004,7 @@
       <c r="AD865" s="5"/>
       <c r="AE865" s="5"/>
     </row>
-    <row r="866">
+    <row r="866" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A866" s="5"/>
       <c r="B866" s="5"/>
       <c r="C866" s="5"/>
@@ -30671,7 +31037,7 @@
       <c r="AD866" s="5"/>
       <c r="AE866" s="5"/>
     </row>
-    <row r="867">
+    <row r="867" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A867" s="5"/>
       <c r="B867" s="5"/>
       <c r="C867" s="5"/>
@@ -30704,7 +31070,7 @@
       <c r="AD867" s="5"/>
       <c r="AE867" s="5"/>
     </row>
-    <row r="868">
+    <row r="868" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A868" s="5"/>
       <c r="B868" s="5"/>
       <c r="C868" s="5"/>
@@ -30737,7 +31103,7 @@
       <c r="AD868" s="5"/>
       <c r="AE868" s="5"/>
     </row>
-    <row r="869">
+    <row r="869" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A869" s="5"/>
       <c r="B869" s="5"/>
       <c r="C869" s="5"/>
@@ -30770,7 +31136,7 @@
       <c r="AD869" s="5"/>
       <c r="AE869" s="5"/>
     </row>
-    <row r="870">
+    <row r="870" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A870" s="5"/>
       <c r="B870" s="5"/>
       <c r="C870" s="5"/>
@@ -30803,7 +31169,7 @@
       <c r="AD870" s="5"/>
       <c r="AE870" s="5"/>
     </row>
-    <row r="871">
+    <row r="871" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A871" s="5"/>
       <c r="B871" s="5"/>
       <c r="C871" s="5"/>
@@ -30836,7 +31202,7 @@
       <c r="AD871" s="5"/>
       <c r="AE871" s="5"/>
     </row>
-    <row r="872">
+    <row r="872" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A872" s="5"/>
       <c r="B872" s="5"/>
       <c r="C872" s="5"/>
@@ -30869,7 +31235,7 @@
       <c r="AD872" s="5"/>
       <c r="AE872" s="5"/>
     </row>
-    <row r="873">
+    <row r="873" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A873" s="5"/>
       <c r="B873" s="5"/>
       <c r="C873" s="5"/>
@@ -30902,7 +31268,7 @@
       <c r="AD873" s="5"/>
       <c r="AE873" s="5"/>
     </row>
-    <row r="874">
+    <row r="874" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A874" s="5"/>
       <c r="B874" s="5"/>
       <c r="C874" s="5"/>
@@ -30935,7 +31301,7 @@
       <c r="AD874" s="5"/>
       <c r="AE874" s="5"/>
     </row>
-    <row r="875">
+    <row r="875" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A875" s="5"/>
       <c r="B875" s="5"/>
       <c r="C875" s="5"/>
@@ -30968,7 +31334,7 @@
       <c r="AD875" s="5"/>
       <c r="AE875" s="5"/>
     </row>
-    <row r="876">
+    <row r="876" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A876" s="5"/>
       <c r="B876" s="5"/>
       <c r="C876" s="5"/>
@@ -31001,7 +31367,7 @@
       <c r="AD876" s="5"/>
       <c r="AE876" s="5"/>
     </row>
-    <row r="877">
+    <row r="877" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A877" s="5"/>
       <c r="B877" s="5"/>
       <c r="C877" s="5"/>
@@ -31034,7 +31400,7 @@
       <c r="AD877" s="5"/>
       <c r="AE877" s="5"/>
     </row>
-    <row r="878">
+    <row r="878" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A878" s="5"/>
       <c r="B878" s="5"/>
       <c r="C878" s="5"/>
@@ -31067,7 +31433,7 @@
       <c r="AD878" s="5"/>
       <c r="AE878" s="5"/>
     </row>
-    <row r="879">
+    <row r="879" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A879" s="5"/>
       <c r="B879" s="5"/>
       <c r="C879" s="5"/>
@@ -31100,7 +31466,7 @@
       <c r="AD879" s="5"/>
       <c r="AE879" s="5"/>
     </row>
-    <row r="880">
+    <row r="880" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A880" s="5"/>
       <c r="B880" s="5"/>
       <c r="C880" s="5"/>
@@ -31133,7 +31499,7 @@
       <c r="AD880" s="5"/>
       <c r="AE880" s="5"/>
     </row>
-    <row r="881">
+    <row r="881" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A881" s="5"/>
       <c r="B881" s="5"/>
       <c r="C881" s="5"/>
@@ -31166,7 +31532,7 @@
       <c r="AD881" s="5"/>
       <c r="AE881" s="5"/>
     </row>
-    <row r="882">
+    <row r="882" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A882" s="5"/>
       <c r="B882" s="5"/>
       <c r="C882" s="5"/>
@@ -31199,7 +31565,7 @@
       <c r="AD882" s="5"/>
       <c r="AE882" s="5"/>
     </row>
-    <row r="883">
+    <row r="883" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A883" s="5"/>
       <c r="B883" s="5"/>
       <c r="C883" s="5"/>
@@ -31232,7 +31598,7 @@
       <c r="AD883" s="5"/>
       <c r="AE883" s="5"/>
     </row>
-    <row r="884">
+    <row r="884" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A884" s="5"/>
       <c r="B884" s="5"/>
       <c r="C884" s="5"/>
@@ -31265,7 +31631,7 @@
       <c r="AD884" s="5"/>
       <c r="AE884" s="5"/>
     </row>
-    <row r="885">
+    <row r="885" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A885" s="5"/>
       <c r="B885" s="5"/>
       <c r="C885" s="5"/>
@@ -31298,7 +31664,7 @@
       <c r="AD885" s="5"/>
       <c r="AE885" s="5"/>
     </row>
-    <row r="886">
+    <row r="886" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A886" s="5"/>
       <c r="B886" s="5"/>
       <c r="C886" s="5"/>
@@ -31331,7 +31697,7 @@
       <c r="AD886" s="5"/>
       <c r="AE886" s="5"/>
     </row>
-    <row r="887">
+    <row r="887" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A887" s="5"/>
       <c r="B887" s="5"/>
       <c r="C887" s="5"/>
@@ -31364,7 +31730,7 @@
       <c r="AD887" s="5"/>
       <c r="AE887" s="5"/>
     </row>
-    <row r="888">
+    <row r="888" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A888" s="5"/>
       <c r="B888" s="5"/>
       <c r="C888" s="5"/>
@@ -31397,7 +31763,7 @@
       <c r="AD888" s="5"/>
       <c r="AE888" s="5"/>
     </row>
-    <row r="889">
+    <row r="889" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A889" s="5"/>
       <c r="B889" s="5"/>
       <c r="C889" s="5"/>
@@ -31430,7 +31796,7 @@
       <c r="AD889" s="5"/>
       <c r="AE889" s="5"/>
     </row>
-    <row r="890">
+    <row r="890" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A890" s="5"/>
       <c r="B890" s="5"/>
       <c r="C890" s="5"/>
@@ -31463,7 +31829,7 @@
       <c r="AD890" s="5"/>
       <c r="AE890" s="5"/>
     </row>
-    <row r="891">
+    <row r="891" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A891" s="5"/>
       <c r="B891" s="5"/>
       <c r="C891" s="5"/>
@@ -31496,7 +31862,7 @@
       <c r="AD891" s="5"/>
       <c r="AE891" s="5"/>
     </row>
-    <row r="892">
+    <row r="892" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A892" s="5"/>
       <c r="B892" s="5"/>
       <c r="C892" s="5"/>
@@ -31529,7 +31895,7 @@
       <c r="AD892" s="5"/>
       <c r="AE892" s="5"/>
     </row>
-    <row r="893">
+    <row r="893" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A893" s="5"/>
       <c r="B893" s="5"/>
       <c r="C893" s="5"/>
@@ -31562,7 +31928,7 @@
       <c r="AD893" s="5"/>
       <c r="AE893" s="5"/>
     </row>
-    <row r="894">
+    <row r="894" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A894" s="5"/>
       <c r="B894" s="5"/>
       <c r="C894" s="5"/>
@@ -31595,7 +31961,7 @@
       <c r="AD894" s="5"/>
       <c r="AE894" s="5"/>
     </row>
-    <row r="895">
+    <row r="895" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A895" s="5"/>
       <c r="B895" s="5"/>
       <c r="C895" s="5"/>
@@ -31628,7 +31994,7 @@
       <c r="AD895" s="5"/>
       <c r="AE895" s="5"/>
     </row>
-    <row r="896">
+    <row r="896" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A896" s="5"/>
       <c r="B896" s="5"/>
       <c r="C896" s="5"/>
@@ -31661,7 +32027,7 @@
       <c r="AD896" s="5"/>
       <c r="AE896" s="5"/>
     </row>
-    <row r="897">
+    <row r="897" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A897" s="5"/>
       <c r="B897" s="5"/>
       <c r="C897" s="5"/>
@@ -31694,7 +32060,7 @@
       <c r="AD897" s="5"/>
       <c r="AE897" s="5"/>
     </row>
-    <row r="898">
+    <row r="898" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A898" s="5"/>
       <c r="B898" s="5"/>
       <c r="C898" s="5"/>
@@ -31727,7 +32093,7 @@
       <c r="AD898" s="5"/>
       <c r="AE898" s="5"/>
     </row>
-    <row r="899">
+    <row r="899" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A899" s="5"/>
       <c r="B899" s="5"/>
       <c r="C899" s="5"/>
@@ -31760,7 +32126,7 @@
       <c r="AD899" s="5"/>
       <c r="AE899" s="5"/>
     </row>
-    <row r="900">
+    <row r="900" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A900" s="5"/>
       <c r="B900" s="5"/>
       <c r="C900" s="5"/>
@@ -31793,7 +32159,7 @@
       <c r="AD900" s="5"/>
       <c r="AE900" s="5"/>
     </row>
-    <row r="901">
+    <row r="901" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A901" s="5"/>
       <c r="B901" s="5"/>
       <c r="C901" s="5"/>
@@ -31826,7 +32192,7 @@
       <c r="AD901" s="5"/>
       <c r="AE901" s="5"/>
     </row>
-    <row r="902">
+    <row r="902" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A902" s="5"/>
       <c r="B902" s="5"/>
       <c r="C902" s="5"/>
@@ -31859,7 +32225,7 @@
       <c r="AD902" s="5"/>
       <c r="AE902" s="5"/>
     </row>
-    <row r="903">
+    <row r="903" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A903" s="5"/>
       <c r="B903" s="5"/>
       <c r="C903" s="5"/>
@@ -31892,7 +32258,7 @@
       <c r="AD903" s="5"/>
       <c r="AE903" s="5"/>
     </row>
-    <row r="904">
+    <row r="904" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A904" s="5"/>
       <c r="B904" s="5"/>
       <c r="C904" s="5"/>
@@ -31925,7 +32291,7 @@
       <c r="AD904" s="5"/>
       <c r="AE904" s="5"/>
     </row>
-    <row r="905">
+    <row r="905" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A905" s="5"/>
       <c r="B905" s="5"/>
       <c r="C905" s="5"/>
@@ -31958,7 +32324,7 @@
       <c r="AD905" s="5"/>
       <c r="AE905" s="5"/>
     </row>
-    <row r="906">
+    <row r="906" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A906" s="5"/>
       <c r="B906" s="5"/>
       <c r="C906" s="5"/>
@@ -31991,7 +32357,7 @@
       <c r="AD906" s="5"/>
       <c r="AE906" s="5"/>
     </row>
-    <row r="907">
+    <row r="907" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A907" s="5"/>
       <c r="B907" s="5"/>
       <c r="C907" s="5"/>
@@ -32024,7 +32390,7 @@
       <c r="AD907" s="5"/>
       <c r="AE907" s="5"/>
     </row>
-    <row r="908">
+    <row r="908" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A908" s="5"/>
       <c r="B908" s="5"/>
       <c r="C908" s="5"/>
@@ -32057,7 +32423,7 @@
       <c r="AD908" s="5"/>
       <c r="AE908" s="5"/>
     </row>
-    <row r="909">
+    <row r="909" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A909" s="5"/>
       <c r="B909" s="5"/>
       <c r="C909" s="5"/>
@@ -32090,7 +32456,7 @@
       <c r="AD909" s="5"/>
       <c r="AE909" s="5"/>
     </row>
-    <row r="910">
+    <row r="910" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A910" s="5"/>
       <c r="B910" s="5"/>
       <c r="C910" s="5"/>
@@ -32123,7 +32489,7 @@
       <c r="AD910" s="5"/>
       <c r="AE910" s="5"/>
     </row>
-    <row r="911">
+    <row r="911" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A911" s="5"/>
       <c r="B911" s="5"/>
       <c r="C911" s="5"/>
@@ -32156,7 +32522,7 @@
       <c r="AD911" s="5"/>
       <c r="AE911" s="5"/>
     </row>
-    <row r="912">
+    <row r="912" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A912" s="5"/>
       <c r="B912" s="5"/>
       <c r="C912" s="5"/>
@@ -32189,7 +32555,7 @@
       <c r="AD912" s="5"/>
       <c r="AE912" s="5"/>
     </row>
-    <row r="913">
+    <row r="913" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A913" s="5"/>
       <c r="B913" s="5"/>
       <c r="C913" s="5"/>
@@ -32222,7 +32588,7 @@
       <c r="AD913" s="5"/>
       <c r="AE913" s="5"/>
     </row>
-    <row r="914">
+    <row r="914" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A914" s="5"/>
       <c r="B914" s="5"/>
       <c r="C914" s="5"/>
@@ -32255,7 +32621,7 @@
       <c r="AD914" s="5"/>
       <c r="AE914" s="5"/>
     </row>
-    <row r="915">
+    <row r="915" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A915" s="5"/>
       <c r="B915" s="5"/>
       <c r="C915" s="5"/>
@@ -32288,7 +32654,7 @@
       <c r="AD915" s="5"/>
       <c r="AE915" s="5"/>
     </row>
-    <row r="916">
+    <row r="916" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A916" s="5"/>
       <c r="B916" s="5"/>
       <c r="C916" s="5"/>
@@ -32321,7 +32687,7 @@
       <c r="AD916" s="5"/>
       <c r="AE916" s="5"/>
     </row>
-    <row r="917">
+    <row r="917" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A917" s="5"/>
       <c r="B917" s="5"/>
       <c r="C917" s="5"/>
@@ -32354,7 +32720,7 @@
       <c r="AD917" s="5"/>
       <c r="AE917" s="5"/>
     </row>
-    <row r="918">
+    <row r="918" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A918" s="5"/>
       <c r="B918" s="5"/>
       <c r="C918" s="5"/>
@@ -32387,7 +32753,7 @@
       <c r="AD918" s="5"/>
       <c r="AE918" s="5"/>
     </row>
-    <row r="919">
+    <row r="919" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A919" s="5"/>
       <c r="B919" s="5"/>
       <c r="C919" s="5"/>
@@ -32420,7 +32786,7 @@
       <c r="AD919" s="5"/>
       <c r="AE919" s="5"/>
     </row>
-    <row r="920">
+    <row r="920" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A920" s="5"/>
       <c r="B920" s="5"/>
       <c r="C920" s="5"/>
@@ -32453,7 +32819,7 @@
       <c r="AD920" s="5"/>
       <c r="AE920" s="5"/>
     </row>
-    <row r="921">
+    <row r="921" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A921" s="5"/>
       <c r="B921" s="5"/>
       <c r="C921" s="5"/>
@@ -32486,7 +32852,7 @@
       <c r="AD921" s="5"/>
       <c r="AE921" s="5"/>
     </row>
-    <row r="922">
+    <row r="922" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A922" s="5"/>
       <c r="B922" s="5"/>
       <c r="C922" s="5"/>
@@ -32519,7 +32885,7 @@
       <c r="AD922" s="5"/>
       <c r="AE922" s="5"/>
     </row>
-    <row r="923">
+    <row r="923" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A923" s="5"/>
       <c r="B923" s="5"/>
       <c r="C923" s="5"/>
@@ -32552,7 +32918,7 @@
       <c r="AD923" s="5"/>
       <c r="AE923" s="5"/>
     </row>
-    <row r="924">
+    <row r="924" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A924" s="5"/>
       <c r="B924" s="5"/>
       <c r="C924" s="5"/>
@@ -32585,7 +32951,7 @@
       <c r="AD924" s="5"/>
       <c r="AE924" s="5"/>
     </row>
-    <row r="925">
+    <row r="925" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A925" s="5"/>
       <c r="B925" s="5"/>
       <c r="C925" s="5"/>
@@ -32618,7 +32984,7 @@
       <c r="AD925" s="5"/>
       <c r="AE925" s="5"/>
     </row>
-    <row r="926">
+    <row r="926" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A926" s="5"/>
       <c r="B926" s="5"/>
       <c r="C926" s="5"/>
@@ -32651,7 +33017,7 @@
       <c r="AD926" s="5"/>
       <c r="AE926" s="5"/>
     </row>
-    <row r="927">
+    <row r="927" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A927" s="5"/>
       <c r="B927" s="5"/>
       <c r="C927" s="5"/>
@@ -32684,7 +33050,7 @@
       <c r="AD927" s="5"/>
       <c r="AE927" s="5"/>
     </row>
-    <row r="928">
+    <row r="928" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A928" s="5"/>
       <c r="B928" s="5"/>
       <c r="C928" s="5"/>
@@ -32717,7 +33083,7 @@
       <c r="AD928" s="5"/>
       <c r="AE928" s="5"/>
     </row>
-    <row r="929">
+    <row r="929" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A929" s="5"/>
       <c r="B929" s="5"/>
       <c r="C929" s="5"/>
@@ -32750,7 +33116,7 @@
       <c r="AD929" s="5"/>
       <c r="AE929" s="5"/>
     </row>
-    <row r="930">
+    <row r="930" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A930" s="5"/>
       <c r="B930" s="5"/>
       <c r="C930" s="5"/>
@@ -32783,7 +33149,7 @@
       <c r="AD930" s="5"/>
       <c r="AE930" s="5"/>
     </row>
-    <row r="931">
+    <row r="931" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A931" s="5"/>
       <c r="B931" s="5"/>
       <c r="C931" s="5"/>
@@ -32816,7 +33182,7 @@
       <c r="AD931" s="5"/>
       <c r="AE931" s="5"/>
     </row>
-    <row r="932">
+    <row r="932" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A932" s="5"/>
       <c r="B932" s="5"/>
       <c r="C932" s="5"/>
@@ -32849,7 +33215,7 @@
       <c r="AD932" s="5"/>
       <c r="AE932" s="5"/>
     </row>
-    <row r="933">
+    <row r="933" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A933" s="5"/>
       <c r="B933" s="5"/>
       <c r="C933" s="5"/>
@@ -32882,7 +33248,7 @@
       <c r="AD933" s="5"/>
       <c r="AE933" s="5"/>
     </row>
-    <row r="934">
+    <row r="934" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A934" s="5"/>
       <c r="B934" s="5"/>
       <c r="C934" s="5"/>
@@ -32915,7 +33281,7 @@
       <c r="AD934" s="5"/>
       <c r="AE934" s="5"/>
     </row>
-    <row r="935">
+    <row r="935" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A935" s="5"/>
       <c r="B935" s="5"/>
       <c r="C935" s="5"/>
@@ -32948,7 +33314,7 @@
       <c r="AD935" s="5"/>
       <c r="AE935" s="5"/>
     </row>
-    <row r="936">
+    <row r="936" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A936" s="5"/>
       <c r="B936" s="5"/>
       <c r="C936" s="5"/>
@@ -32981,7 +33347,7 @@
       <c r="AD936" s="5"/>
       <c r="AE936" s="5"/>
     </row>
-    <row r="937">
+    <row r="937" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A937" s="5"/>
       <c r="B937" s="5"/>
       <c r="C937" s="5"/>
@@ -33014,7 +33380,7 @@
       <c r="AD937" s="5"/>
       <c r="AE937" s="5"/>
     </row>
-    <row r="938">
+    <row r="938" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A938" s="5"/>
       <c r="B938" s="5"/>
       <c r="C938" s="5"/>
@@ -33047,7 +33413,7 @@
       <c r="AD938" s="5"/>
       <c r="AE938" s="5"/>
     </row>
-    <row r="939">
+    <row r="939" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A939" s="5"/>
       <c r="B939" s="5"/>
       <c r="C939" s="5"/>
@@ -33080,7 +33446,7 @@
       <c r="AD939" s="5"/>
       <c r="AE939" s="5"/>
     </row>
-    <row r="940">
+    <row r="940" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A940" s="5"/>
       <c r="B940" s="5"/>
       <c r="C940" s="5"/>
@@ -33113,7 +33479,7 @@
       <c r="AD940" s="5"/>
       <c r="AE940" s="5"/>
     </row>
-    <row r="941">
+    <row r="941" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A941" s="5"/>
       <c r="B941" s="5"/>
       <c r="C941" s="5"/>
@@ -33146,7 +33512,7 @@
       <c r="AD941" s="5"/>
       <c r="AE941" s="5"/>
     </row>
-    <row r="942">
+    <row r="942" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A942" s="5"/>
       <c r="B942" s="5"/>
       <c r="C942" s="5"/>
@@ -33179,7 +33545,7 @@
       <c r="AD942" s="5"/>
       <c r="AE942" s="5"/>
     </row>
-    <row r="943">
+    <row r="943" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A943" s="5"/>
       <c r="B943" s="5"/>
       <c r="C943" s="5"/>
@@ -33212,7 +33578,7 @@
       <c r="AD943" s="5"/>
       <c r="AE943" s="5"/>
     </row>
-    <row r="944">
+    <row r="944" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A944" s="5"/>
       <c r="B944" s="5"/>
       <c r="C944" s="5"/>
@@ -33245,7 +33611,7 @@
       <c r="AD944" s="5"/>
       <c r="AE944" s="5"/>
     </row>
-    <row r="945">
+    <row r="945" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A945" s="5"/>
       <c r="B945" s="5"/>
       <c r="C945" s="5"/>
@@ -33278,7 +33644,7 @@
       <c r="AD945" s="5"/>
       <c r="AE945" s="5"/>
     </row>
-    <row r="946">
+    <row r="946" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A946" s="5"/>
       <c r="B946" s="5"/>
       <c r="C946" s="5"/>
@@ -33311,7 +33677,7 @@
       <c r="AD946" s="5"/>
       <c r="AE946" s="5"/>
     </row>
-    <row r="947">
+    <row r="947" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A947" s="5"/>
       <c r="B947" s="5"/>
       <c r="C947" s="5"/>
@@ -33344,7 +33710,7 @@
       <c r="AD947" s="5"/>
       <c r="AE947" s="5"/>
     </row>
-    <row r="948">
+    <row r="948" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A948" s="5"/>
       <c r="B948" s="5"/>
       <c r="C948" s="5"/>
@@ -33377,7 +33743,7 @@
       <c r="AD948" s="5"/>
       <c r="AE948" s="5"/>
     </row>
-    <row r="949">
+    <row r="949" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A949" s="5"/>
       <c r="B949" s="5"/>
       <c r="C949" s="5"/>
@@ -33410,7 +33776,7 @@
       <c r="AD949" s="5"/>
       <c r="AE949" s="5"/>
     </row>
-    <row r="950">
+    <row r="950" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A950" s="5"/>
       <c r="B950" s="5"/>
       <c r="C950" s="5"/>
@@ -33443,7 +33809,7 @@
       <c r="AD950" s="5"/>
       <c r="AE950" s="5"/>
     </row>
-    <row r="951">
+    <row r="951" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A951" s="5"/>
       <c r="B951" s="5"/>
       <c r="C951" s="5"/>
@@ -33476,7 +33842,7 @@
       <c r="AD951" s="5"/>
       <c r="AE951" s="5"/>
     </row>
-    <row r="952">
+    <row r="952" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A952" s="5"/>
       <c r="B952" s="5"/>
       <c r="C952" s="5"/>
@@ -33509,7 +33875,7 @@
       <c r="AD952" s="5"/>
       <c r="AE952" s="5"/>
     </row>
-    <row r="953">
+    <row r="953" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A953" s="5"/>
       <c r="B953" s="5"/>
       <c r="C953" s="5"/>
@@ -33542,7 +33908,7 @@
       <c r="AD953" s="5"/>
       <c r="AE953" s="5"/>
     </row>
-    <row r="954">
+    <row r="954" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A954" s="5"/>
       <c r="B954" s="5"/>
       <c r="C954" s="5"/>
@@ -33575,7 +33941,7 @@
       <c r="AD954" s="5"/>
       <c r="AE954" s="5"/>
     </row>
-    <row r="955">
+    <row r="955" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A955" s="5"/>
       <c r="B955" s="5"/>
       <c r="C955" s="5"/>
@@ -33608,7 +33974,7 @@
       <c r="AD955" s="5"/>
       <c r="AE955" s="5"/>
     </row>
-    <row r="956">
+    <row r="956" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A956" s="5"/>
       <c r="B956" s="5"/>
       <c r="C956" s="5"/>
@@ -33641,7 +34007,7 @@
       <c r="AD956" s="5"/>
       <c r="AE956" s="5"/>
     </row>
-    <row r="957">
+    <row r="957" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A957" s="5"/>
       <c r="B957" s="5"/>
       <c r="C957" s="5"/>
@@ -33674,7 +34040,7 @@
       <c r="AD957" s="5"/>
       <c r="AE957" s="5"/>
     </row>
-    <row r="958">
+    <row r="958" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A958" s="5"/>
       <c r="B958" s="5"/>
       <c r="C958" s="5"/>
@@ -33707,7 +34073,7 @@
       <c r="AD958" s="5"/>
       <c r="AE958" s="5"/>
     </row>
-    <row r="959">
+    <row r="959" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A959" s="5"/>
       <c r="B959" s="5"/>
       <c r="C959" s="5"/>
@@ -33740,7 +34106,7 @@
       <c r="AD959" s="5"/>
       <c r="AE959" s="5"/>
     </row>
-    <row r="960">
+    <row r="960" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A960" s="5"/>
       <c r="B960" s="5"/>
       <c r="C960" s="5"/>
@@ -33773,7 +34139,7 @@
       <c r="AD960" s="5"/>
       <c r="AE960" s="5"/>
     </row>
-    <row r="961">
+    <row r="961" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A961" s="5"/>
       <c r="B961" s="5"/>
       <c r="C961" s="5"/>
@@ -33806,7 +34172,7 @@
       <c r="AD961" s="5"/>
       <c r="AE961" s="5"/>
     </row>
-    <row r="962">
+    <row r="962" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A962" s="5"/>
       <c r="B962" s="5"/>
       <c r="C962" s="5"/>
@@ -33839,7 +34205,7 @@
       <c r="AD962" s="5"/>
       <c r="AE962" s="5"/>
     </row>
-    <row r="963">
+    <row r="963" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A963" s="5"/>
       <c r="B963" s="5"/>
       <c r="C963" s="5"/>
@@ -33872,7 +34238,7 @@
       <c r="AD963" s="5"/>
       <c r="AE963" s="5"/>
     </row>
-    <row r="964">
+    <row r="964" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A964" s="5"/>
       <c r="B964" s="5"/>
       <c r="C964" s="5"/>
@@ -33905,7 +34271,7 @@
       <c r="AD964" s="5"/>
       <c r="AE964" s="5"/>
     </row>
-    <row r="965">
+    <row r="965" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A965" s="5"/>
       <c r="B965" s="5"/>
       <c r="C965" s="5"/>
@@ -33938,7 +34304,7 @@
       <c r="AD965" s="5"/>
       <c r="AE965" s="5"/>
     </row>
-    <row r="966">
+    <row r="966" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A966" s="5"/>
       <c r="B966" s="5"/>
       <c r="C966" s="5"/>
@@ -33971,7 +34337,7 @@
       <c r="AD966" s="5"/>
       <c r="AE966" s="5"/>
     </row>
-    <row r="967">
+    <row r="967" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A967" s="5"/>
       <c r="B967" s="5"/>
       <c r="C967" s="5"/>
@@ -34004,7 +34370,7 @@
       <c r="AD967" s="5"/>
       <c r="AE967" s="5"/>
     </row>
-    <row r="968">
+    <row r="968" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A968" s="5"/>
       <c r="B968" s="5"/>
       <c r="C968" s="5"/>
@@ -34037,7 +34403,7 @@
       <c r="AD968" s="5"/>
       <c r="AE968" s="5"/>
     </row>
-    <row r="969">
+    <row r="969" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A969" s="5"/>
       <c r="B969" s="5"/>
       <c r="C969" s="5"/>
@@ -34070,7 +34436,7 @@
       <c r="AD969" s="5"/>
       <c r="AE969" s="5"/>
     </row>
-    <row r="970">
+    <row r="970" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A970" s="5"/>
       <c r="B970" s="5"/>
       <c r="C970" s="5"/>
@@ -34103,7 +34469,7 @@
       <c r="AD970" s="5"/>
       <c r="AE970" s="5"/>
     </row>
-    <row r="971">
+    <row r="971" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A971" s="5"/>
       <c r="B971" s="5"/>
       <c r="C971" s="5"/>
@@ -34136,7 +34502,7 @@
       <c r="AD971" s="5"/>
       <c r="AE971" s="5"/>
     </row>
-    <row r="972">
+    <row r="972" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A972" s="5"/>
       <c r="B972" s="5"/>
       <c r="C972" s="5"/>
@@ -34169,7 +34535,7 @@
       <c r="AD972" s="5"/>
       <c r="AE972" s="5"/>
     </row>
-    <row r="973">
+    <row r="973" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A973" s="5"/>
       <c r="B973" s="5"/>
       <c r="C973" s="5"/>
@@ -34202,7 +34568,7 @@
       <c r="AD973" s="5"/>
       <c r="AE973" s="5"/>
     </row>
-    <row r="974">
+    <row r="974" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A974" s="5"/>
       <c r="B974" s="5"/>
       <c r="C974" s="5"/>
@@ -34235,7 +34601,7 @@
       <c r="AD974" s="5"/>
       <c r="AE974" s="5"/>
     </row>
-    <row r="975">
+    <row r="975" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A975" s="5"/>
       <c r="B975" s="5"/>
       <c r="C975" s="5"/>
@@ -34268,7 +34634,7 @@
       <c r="AD975" s="5"/>
       <c r="AE975" s="5"/>
     </row>
-    <row r="976">
+    <row r="976" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A976" s="5"/>
       <c r="B976" s="5"/>
       <c r="C976" s="5"/>
@@ -34301,7 +34667,7 @@
       <c r="AD976" s="5"/>
       <c r="AE976" s="5"/>
     </row>
-    <row r="977">
+    <row r="977" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A977" s="5"/>
       <c r="B977" s="5"/>
       <c r="C977" s="5"/>
@@ -34334,7 +34700,7 @@
       <c r="AD977" s="5"/>
       <c r="AE977" s="5"/>
     </row>
-    <row r="978">
+    <row r="978" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A978" s="5"/>
       <c r="B978" s="5"/>
       <c r="C978" s="5"/>
@@ -34367,7 +34733,7 @@
       <c r="AD978" s="5"/>
       <c r="AE978" s="5"/>
     </row>
-    <row r="979">
+    <row r="979" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A979" s="5"/>
       <c r="B979" s="5"/>
       <c r="C979" s="5"/>
@@ -34400,7 +34766,7 @@
       <c r="AD979" s="5"/>
       <c r="AE979" s="5"/>
     </row>
-    <row r="980">
+    <row r="980" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A980" s="5"/>
       <c r="B980" s="5"/>
       <c r="C980" s="5"/>
@@ -34433,7 +34799,7 @@
       <c r="AD980" s="5"/>
       <c r="AE980" s="5"/>
     </row>
-    <row r="981">
+    <row r="981" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A981" s="5"/>
       <c r="B981" s="5"/>
       <c r="C981" s="5"/>
@@ -34466,7 +34832,7 @@
       <c r="AD981" s="5"/>
       <c r="AE981" s="5"/>
     </row>
-    <row r="982">
+    <row r="982" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A982" s="5"/>
       <c r="B982" s="5"/>
       <c r="C982" s="5"/>
@@ -34499,7 +34865,7 @@
       <c r="AD982" s="5"/>
       <c r="AE982" s="5"/>
     </row>
-    <row r="983">
+    <row r="983" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A983" s="5"/>
       <c r="B983" s="5"/>
       <c r="C983" s="5"/>
@@ -34532,7 +34898,7 @@
       <c r="AD983" s="5"/>
       <c r="AE983" s="5"/>
     </row>
-    <row r="984">
+    <row r="984" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A984" s="5"/>
       <c r="B984" s="5"/>
       <c r="C984" s="5"/>
@@ -34565,7 +34931,7 @@
       <c r="AD984" s="5"/>
       <c r="AE984" s="5"/>
     </row>
-    <row r="985">
+    <row r="985" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A985" s="5"/>
       <c r="B985" s="5"/>
       <c r="C985" s="5"/>
@@ -34598,7 +34964,7 @@
       <c r="AD985" s="5"/>
       <c r="AE985" s="5"/>
     </row>
-    <row r="986">
+    <row r="986" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A986" s="5"/>
       <c r="B986" s="5"/>
       <c r="C986" s="5"/>
@@ -34631,7 +34997,7 @@
       <c r="AD986" s="5"/>
       <c r="AE986" s="5"/>
     </row>
-    <row r="987">
+    <row r="987" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A987" s="5"/>
       <c r="B987" s="5"/>
       <c r="C987" s="5"/>
@@ -34664,7 +35030,7 @@
       <c r="AD987" s="5"/>
       <c r="AE987" s="5"/>
     </row>
-    <row r="988">
+    <row r="988" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A988" s="5"/>
       <c r="B988" s="5"/>
       <c r="C988" s="5"/>
@@ -34697,7 +35063,7 @@
       <c r="AD988" s="5"/>
       <c r="AE988" s="5"/>
     </row>
-    <row r="989">
+    <row r="989" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A989" s="5"/>
       <c r="B989" s="5"/>
       <c r="C989" s="5"/>
@@ -34730,7 +35096,7 @@
       <c r="AD989" s="5"/>
       <c r="AE989" s="5"/>
     </row>
-    <row r="990">
+    <row r="990" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A990" s="5"/>
       <c r="B990" s="5"/>
       <c r="C990" s="5"/>
@@ -34763,7 +35129,7 @@
       <c r="AD990" s="5"/>
       <c r="AE990" s="5"/>
     </row>
-    <row r="991">
+    <row r="991" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A991" s="5"/>
       <c r="B991" s="5"/>
       <c r="C991" s="5"/>
@@ -34796,7 +35162,7 @@
       <c r="AD991" s="5"/>
       <c r="AE991" s="5"/>
     </row>
-    <row r="992">
+    <row r="992" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A992" s="5"/>
       <c r="B992" s="5"/>
       <c r="C992" s="5"/>
@@ -34829,7 +35195,7 @@
       <c r="AD992" s="5"/>
       <c r="AE992" s="5"/>
     </row>
-    <row r="993">
+    <row r="993" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A993" s="5"/>
       <c r="B993" s="5"/>
       <c r="C993" s="5"/>
@@ -34862,7 +35228,7 @@
       <c r="AD993" s="5"/>
       <c r="AE993" s="5"/>
     </row>
-    <row r="994">
+    <row r="994" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A994" s="5"/>
       <c r="B994" s="5"/>
       <c r="C994" s="5"/>
@@ -34895,7 +35261,7 @@
       <c r="AD994" s="5"/>
       <c r="AE994" s="5"/>
     </row>
-    <row r="995">
+    <row r="995" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A995" s="5"/>
       <c r="B995" s="5"/>
       <c r="C995" s="5"/>
@@ -34928,7 +35294,7 @@
       <c r="AD995" s="5"/>
       <c r="AE995" s="5"/>
     </row>
-    <row r="996">
+    <row r="996" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A996" s="5"/>
       <c r="B996" s="5"/>
       <c r="C996" s="5"/>
@@ -34961,7 +35327,7 @@
       <c r="AD996" s="5"/>
       <c r="AE996" s="5"/>
     </row>
-    <row r="997">
+    <row r="997" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A997" s="5"/>
       <c r="B997" s="5"/>
       <c r="C997" s="5"/>
@@ -34994,7 +35360,7 @@
       <c r="AD997" s="5"/>
       <c r="AE997" s="5"/>
     </row>
-    <row r="998">
+    <row r="998" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A998" s="5"/>
       <c r="B998" s="5"/>
       <c r="C998" s="5"/>
@@ -35027,7 +35393,7 @@
       <c r="AD998" s="5"/>
       <c r="AE998" s="5"/>
     </row>
-    <row r="999">
+    <row r="999" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A999" s="5"/>
       <c r="B999" s="5"/>
       <c r="C999" s="5"/>
@@ -35060,7 +35426,7 @@
       <c r="AD999" s="5"/>
       <c r="AE999" s="5"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1000" s="5"/>
       <c r="B1000" s="5"/>
       <c r="C1000" s="5"/>
@@ -35094,46 +35460,46 @@
       <c r="AE1000" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$O$47"/>
+  <autoFilter ref="A1:O47" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G2"/>
-    <hyperlink r:id="rId2" ref="G3"/>
-    <hyperlink r:id="rId3" ref="G5"/>
-    <hyperlink r:id="rId4" ref="G7"/>
-    <hyperlink r:id="rId5" ref="G8"/>
-    <hyperlink r:id="rId6" ref="G9"/>
-    <hyperlink r:id="rId7" ref="G11"/>
-    <hyperlink r:id="rId8" ref="G12"/>
-    <hyperlink r:id="rId9" ref="G14"/>
-    <hyperlink r:id="rId10" ref="G15"/>
-    <hyperlink r:id="rId11" ref="G16"/>
-    <hyperlink r:id="rId12" ref="G17"/>
-    <hyperlink r:id="rId13" ref="G18"/>
-    <hyperlink r:id="rId14" ref="G19"/>
-    <hyperlink r:id="rId15" ref="G20"/>
-    <hyperlink r:id="rId16" ref="G21"/>
-    <hyperlink r:id="rId17" ref="G22"/>
-    <hyperlink r:id="rId18" ref="G23"/>
-    <hyperlink r:id="rId19" ref="G24"/>
-    <hyperlink r:id="rId20" ref="G25"/>
-    <hyperlink r:id="rId21" ref="G26"/>
-    <hyperlink r:id="rId22" ref="G27"/>
-    <hyperlink r:id="rId23" ref="G28"/>
-    <hyperlink r:id="rId24" ref="G29"/>
-    <hyperlink r:id="rId25" ref="G30"/>
-    <hyperlink r:id="rId26" ref="G31"/>
-    <hyperlink r:id="rId27" ref="G32"/>
-    <hyperlink r:id="rId28" ref="G35"/>
-    <hyperlink r:id="rId29" ref="G36"/>
-    <hyperlink r:id="rId30" ref="G38"/>
-    <hyperlink r:id="rId31" ref="G39"/>
-    <hyperlink r:id="rId32" ref="G40"/>
-    <hyperlink r:id="rId33" ref="G41"/>
-    <hyperlink r:id="rId34" ref="G43"/>
-    <hyperlink r:id="rId35" ref="G44"/>
-    <hyperlink r:id="rId36" ref="G45"/>
-    <hyperlink r:id="rId37" ref="G46"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G14" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G15" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G16" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G17" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G18" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G19" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G20" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G21" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G22" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G23" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G24" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G25" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G26" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G27" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G28" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G29" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G30" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G31" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G32" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G35" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G36" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="G38" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G39" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="G40" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G41" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="G43" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G44" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="G45" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G46" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
   </hyperlinks>
-  <drawing r:id="rId38"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>